--- a/20_営業/07_会計/MD050/ERP_MD050_CFO_010_A01_情報系システムへのデータ連携（勘定科目明細）抽出_BI Publisher.xlsx
+++ b/20_営業/07_会計/MD050/ERP_MD050_CFO_010_A01_情報系システムへのデータ連携（勘定科目明細）抽出_BI Publisher.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\99_個人work\名嶋\90_障害対応\ST0036_パラメータ配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_xxxxx【AR】売上実績データ連携で情報系に会社コード002が連携された\20_成果物\情報系システムへのデータ連携（勘定科目明細）抽出_BI Publisher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8940" tabRatio="855"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21555" windowHeight="8940" tabRatio="855"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">再実行方法!$A$1:$AX$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A:$H</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$E$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$E$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'別紙 レイアウト'!$A$1:$BI$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'別紙 項目編集'!$A$1:$BH$57</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="606">
   <si>
     <t>MD.020.概要設計書</t>
     <rPh sb="7" eb="9">
@@ -3267,10 +3267,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Issue1.2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SCSK 名嶋あや</t>
     <rPh sb="5" eb="7">
       <t>ナジマ</t>
@@ -3282,10 +3278,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Issue1.2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シナリオテスト課題対応 No.ST0036</t>
     <rPh sb="7" eb="11">
       <t>カダイタイオウ</t>
@@ -3301,6 +3293,52 @@
   </si>
   <si>
     <t>水平リージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+  </si>
+  <si>
+    <t>SCSK 細沼翔太</t>
+    <rPh sb="5" eb="9">
+      <t>ホソヌマショウタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E_本稼動_19997 対応</t>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CASE SEGMENT1 WHEN '999' THEN SEGMENT1
+ELSE '001'</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>会社コード'999'以外は全て'001'として連携</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3668,8 +3706,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4149,7 +4187,7 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4686,6 +4724,28 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4713,7 +4773,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4722,19 +4803,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4746,101 +4818,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="35" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4884,8 +4869,87 @@
     <xf numFmtId="49" fontId="27" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4895,37 +4959,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4960,6 +4993,33 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4978,19 +5038,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5001,6 +5049,18 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5026,27 +5086,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="49" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5056,6 +5112,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8380,8 +8442,8 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8440,50 +8502,50 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="190" t="s">
+      <c r="D14" s="198" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="190"/>
+      <c r="E14" s="198"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="191">
+      <c r="D15" s="199">
         <v>44796</v>
       </c>
-      <c r="E15" s="190"/>
+      <c r="E15" s="198"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="191">
-        <v>45007</v>
-      </c>
-      <c r="E16" s="190"/>
+      <c r="D16" s="199">
+        <v>45432</v>
+      </c>
+      <c r="E16" s="198"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="190" t="s">
+      <c r="D17" s="198" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="190"/>
+      <c r="E17" s="198"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="192" t="s">
-        <v>594</v>
-      </c>
-      <c r="E18" s="193"/>
+      <c r="D18" s="200" t="s">
+        <v>599</v>
+      </c>
+      <c r="E18" s="201"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
@@ -8503,15 +8565,15 @@
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8623,34 +8685,34 @@
       <c r="BG4" s="94"/>
     </row>
     <row r="5" spans="1:59" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="285" t="s">
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="297" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="286"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="286"/>
-      <c r="S5" s="286"/>
-      <c r="T5" s="286"/>
-      <c r="U5" s="286"/>
-      <c r="V5" s="286"/>
-      <c r="W5" s="286"/>
-      <c r="X5" s="286"/>
-      <c r="Y5" s="286"/>
-      <c r="Z5" s="287"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
+      <c r="T5" s="298"/>
+      <c r="U5" s="298"/>
+      <c r="V5" s="298"/>
+      <c r="W5" s="298"/>
+      <c r="X5" s="298"/>
+      <c r="Y5" s="298"/>
+      <c r="Z5" s="299"/>
     </row>
     <row r="6" spans="1:59" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B6" s="30"/>
@@ -8686,127 +8748,127 @@
     </row>
     <row r="8" spans="1:59" s="146" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="145"/>
-      <c r="C8" s="288" t="s">
+      <c r="C8" s="293" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="289" t="s">
+      <c r="D8" s="293"/>
+      <c r="E8" s="300" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="289"/>
-      <c r="K8" s="289" t="s">
+      <c r="F8" s="300"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="300"/>
+      <c r="I8" s="300"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="300" t="s">
         <v>451</v>
       </c>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
-      <c r="N8" s="289"/>
-      <c r="O8" s="289"/>
-      <c r="P8" s="289"/>
-      <c r="Q8" s="288" t="s">
+      <c r="L8" s="300"/>
+      <c r="M8" s="300"/>
+      <c r="N8" s="300"/>
+      <c r="O8" s="300"/>
+      <c r="P8" s="300"/>
+      <c r="Q8" s="293" t="s">
         <v>230</v>
       </c>
-      <c r="R8" s="288"/>
-      <c r="S8" s="288"/>
-      <c r="T8" s="288" t="s">
+      <c r="R8" s="293"/>
+      <c r="S8" s="293"/>
+      <c r="T8" s="293" t="s">
         <v>452</v>
       </c>
-      <c r="U8" s="288"/>
-      <c r="V8" s="288"/>
-      <c r="W8" s="288" t="s">
+      <c r="U8" s="293"/>
+      <c r="V8" s="293"/>
+      <c r="W8" s="293" t="s">
         <v>453</v>
       </c>
-      <c r="X8" s="288"/>
-      <c r="Y8" s="288"/>
-      <c r="Z8" s="288" t="s">
+      <c r="X8" s="293"/>
+      <c r="Y8" s="293"/>
+      <c r="Z8" s="293" t="s">
         <v>454</v>
       </c>
-      <c r="AA8" s="288"/>
-      <c r="AB8" s="288"/>
-      <c r="AC8" s="288" t="s">
+      <c r="AA8" s="293"/>
+      <c r="AB8" s="293"/>
+      <c r="AC8" s="293" t="s">
         <v>449</v>
       </c>
-      <c r="AD8" s="288"/>
-      <c r="AE8" s="288"/>
-      <c r="AF8" s="288" t="s">
+      <c r="AD8" s="293"/>
+      <c r="AE8" s="293"/>
+      <c r="AF8" s="293" t="s">
         <v>455</v>
       </c>
-      <c r="AG8" s="288"/>
-      <c r="AH8" s="288"/>
-      <c r="AI8" s="288" t="s">
+      <c r="AG8" s="293"/>
+      <c r="AH8" s="293"/>
+      <c r="AI8" s="293" t="s">
         <v>456</v>
       </c>
-      <c r="AJ8" s="288"/>
-      <c r="AK8" s="288"/>
-      <c r="AL8" s="288" t="s">
+      <c r="AJ8" s="293"/>
+      <c r="AK8" s="293"/>
+      <c r="AL8" s="293" t="s">
         <v>457</v>
       </c>
-      <c r="AM8" s="288"/>
-      <c r="AN8" s="288"/>
+      <c r="AM8" s="293"/>
+      <c r="AN8" s="293"/>
     </row>
     <row r="9" spans="1:59" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="70"/>
-      <c r="C9" s="290">
+      <c r="C9" s="294">
         <v>1</v>
       </c>
-      <c r="D9" s="290"/>
-      <c r="E9" s="291" t="s">
+      <c r="D9" s="294"/>
+      <c r="E9" s="295" t="s">
         <v>458</v>
       </c>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="291" t="s">
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="295" t="s">
         <v>459</v>
       </c>
-      <c r="L9" s="291"/>
-      <c r="M9" s="291"/>
-      <c r="N9" s="291"/>
-      <c r="O9" s="291"/>
-      <c r="P9" s="291"/>
-      <c r="Q9" s="292" t="s">
+      <c r="L9" s="295"/>
+      <c r="M9" s="295"/>
+      <c r="N9" s="295"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="296" t="s">
         <v>460</v>
       </c>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292" t="s">
+      <c r="R9" s="296"/>
+      <c r="S9" s="296"/>
+      <c r="T9" s="296" t="s">
         <v>461</v>
       </c>
-      <c r="U9" s="292"/>
-      <c r="V9" s="292"/>
-      <c r="W9" s="292" t="s">
+      <c r="U9" s="296"/>
+      <c r="V9" s="296"/>
+      <c r="W9" s="296" t="s">
         <v>462</v>
       </c>
-      <c r="X9" s="292"/>
-      <c r="Y9" s="292"/>
-      <c r="Z9" s="292" t="s">
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296" t="s">
         <v>235</v>
       </c>
-      <c r="AA9" s="292"/>
-      <c r="AB9" s="292"/>
-      <c r="AC9" s="292"/>
-      <c r="AD9" s="292"/>
-      <c r="AE9" s="292"/>
-      <c r="AF9" s="292" t="s">
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="296"/>
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="296"/>
+      <c r="AF9" s="296" t="s">
         <v>235</v>
       </c>
-      <c r="AG9" s="292"/>
-      <c r="AH9" s="292"/>
-      <c r="AI9" s="292" t="s">
+      <c r="AG9" s="296"/>
+      <c r="AH9" s="296"/>
+      <c r="AI9" s="296" t="s">
         <v>463</v>
       </c>
-      <c r="AJ9" s="292"/>
-      <c r="AK9" s="292"/>
-      <c r="AL9" s="292" t="s">
+      <c r="AJ9" s="296"/>
+      <c r="AK9" s="296"/>
+      <c r="AL9" s="296" t="s">
         <v>464</v>
       </c>
-      <c r="AM9" s="292"/>
-      <c r="AN9" s="292"/>
+      <c r="AM9" s="296"/>
+      <c r="AN9" s="296"/>
     </row>
     <row r="10" spans="1:59" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A10" s="70"/>
@@ -9758,6 +9820,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:Z5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="AF8:AH8"/>
     <mergeCell ref="AI8:AK8"/>
@@ -9773,15 +9844,6 @@
     <mergeCell ref="AF9:AH9"/>
     <mergeCell ref="AI9:AK9"/>
     <mergeCell ref="AL9:AN9"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:Z5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9869,30 +9931,30 @@
     </row>
     <row r="5" spans="1:46" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="85"/>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="281" t="s">
         <v>465</v>
       </c>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="260"/>
-      <c r="M5" s="260"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="279" t="s">
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="283"/>
+      <c r="O5" s="287" t="s">
         <v>466</v>
       </c>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="280"/>
-      <c r="T5" s="280"/>
-      <c r="U5" s="280"/>
-      <c r="V5" s="281"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="288"/>
+      <c r="U5" s="288"/>
+      <c r="V5" s="289"/>
     </row>
     <row r="6" spans="1:46" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="86" t="s">
@@ -10626,79 +10688,79 @@
     </row>
     <row r="5" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="85"/>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="281" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="259" t="s">
+      <c r="D5" s="283"/>
+      <c r="E5" s="281" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="279" t="s">
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="287" t="s">
         <v>495</v>
       </c>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="281"/>
-      <c r="P5" s="285" t="s">
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="289"/>
+      <c r="P5" s="297" t="s">
         <v>496</v>
       </c>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="286"/>
-      <c r="S5" s="286"/>
-      <c r="T5" s="287"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
+      <c r="T5" s="299"/>
       <c r="AU5" s="149" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="293">
+      <c r="C6" s="301">
         <v>1</v>
       </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="299"/>
-      <c r="N6" s="299"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="298"/>
-      <c r="Q6" s="299"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="299"/>
-      <c r="T6" s="300"/>
-      <c r="AU6" s="259" t="s">
+      <c r="D6" s="302"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="307"/>
+      <c r="M6" s="307"/>
+      <c r="N6" s="307"/>
+      <c r="O6" s="308"/>
+      <c r="P6" s="306"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="307"/>
+      <c r="S6" s="307"/>
+      <c r="T6" s="308"/>
+      <c r="AU6" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV6" s="260"/>
-      <c r="AW6" s="260"/>
-      <c r="AX6" s="260"/>
-      <c r="AY6" s="260"/>
-      <c r="AZ6" s="260"/>
-      <c r="BA6" s="260"/>
-      <c r="BB6" s="260"/>
-      <c r="BC6" s="260"/>
-      <c r="BD6" s="260"/>
-      <c r="BE6" s="260"/>
-      <c r="BF6" s="261"/>
-      <c r="BG6" s="262" t="s">
+      <c r="AV6" s="282"/>
+      <c r="AW6" s="282"/>
+      <c r="AX6" s="282"/>
+      <c r="AY6" s="282"/>
+      <c r="AZ6" s="282"/>
+      <c r="BA6" s="282"/>
+      <c r="BB6" s="282"/>
+      <c r="BC6" s="282"/>
+      <c r="BD6" s="282"/>
+      <c r="BE6" s="282"/>
+      <c r="BF6" s="283"/>
+      <c r="BG6" s="284" t="s">
         <v>221</v>
       </c>
-      <c r="BH6" s="263"/>
-      <c r="BI6" s="263"/>
-      <c r="BJ6" s="263"/>
-      <c r="BK6" s="263"/>
-      <c r="BL6" s="264"/>
+      <c r="BH6" s="285"/>
+      <c r="BI6" s="285"/>
+      <c r="BJ6" s="285"/>
+      <c r="BK6" s="285"/>
+      <c r="BL6" s="286"/>
     </row>
     <row r="7" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C7" s="85"/>
@@ -10809,28 +10871,28 @@
       </c>
     </row>
     <row r="12" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="AU12" s="259" t="s">
+      <c r="AU12" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV12" s="260"/>
-      <c r="AW12" s="260"/>
-      <c r="AX12" s="260"/>
-      <c r="AY12" s="260"/>
-      <c r="AZ12" s="260"/>
-      <c r="BA12" s="260"/>
-      <c r="BB12" s="260"/>
-      <c r="BC12" s="260"/>
-      <c r="BD12" s="260"/>
-      <c r="BE12" s="260"/>
-      <c r="BF12" s="261"/>
-      <c r="BG12" s="262" t="s">
+      <c r="AV12" s="282"/>
+      <c r="AW12" s="282"/>
+      <c r="AX12" s="282"/>
+      <c r="AY12" s="282"/>
+      <c r="AZ12" s="282"/>
+      <c r="BA12" s="282"/>
+      <c r="BB12" s="282"/>
+      <c r="BC12" s="282"/>
+      <c r="BD12" s="282"/>
+      <c r="BE12" s="282"/>
+      <c r="BF12" s="283"/>
+      <c r="BG12" s="284" t="s">
         <v>221</v>
       </c>
-      <c r="BH12" s="263"/>
-      <c r="BI12" s="263"/>
-      <c r="BJ12" s="263"/>
-      <c r="BK12" s="263"/>
-      <c r="BL12" s="264"/>
+      <c r="BH12" s="285"/>
+      <c r="BI12" s="285"/>
+      <c r="BJ12" s="285"/>
+      <c r="BK12" s="285"/>
+      <c r="BL12" s="286"/>
     </row>
     <row r="13" spans="1:64" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="AU13" s="90" t="s">
@@ -11188,57 +11250,57 @@
     </row>
     <row r="5" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="85"/>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="281" t="s">
         <v>506</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="259" t="s">
+      <c r="D5" s="283"/>
+      <c r="E5" s="281" t="s">
         <v>507</v>
       </c>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="279" t="s">
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="287" t="s">
         <v>508</v>
       </c>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="279" t="s">
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="288"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="289"/>
+      <c r="T5" s="287" t="s">
         <v>509</v>
       </c>
-      <c r="U5" s="280"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="280"/>
-      <c r="X5" s="280"/>
-      <c r="Y5" s="281"/>
-      <c r="Z5" s="279" t="s">
+      <c r="U5" s="288"/>
+      <c r="V5" s="288"/>
+      <c r="W5" s="288"/>
+      <c r="X5" s="288"/>
+      <c r="Y5" s="289"/>
+      <c r="Z5" s="287" t="s">
         <v>510</v>
       </c>
-      <c r="AA5" s="280"/>
-      <c r="AB5" s="280"/>
-      <c r="AC5" s="280"/>
-      <c r="AD5" s="280"/>
-      <c r="AE5" s="280"/>
-      <c r="AF5" s="280"/>
-      <c r="AG5" s="280"/>
-      <c r="AH5" s="281"/>
-      <c r="AI5" s="279" t="s">
+      <c r="AA5" s="288"/>
+      <c r="AB5" s="288"/>
+      <c r="AC5" s="288"/>
+      <c r="AD5" s="288"/>
+      <c r="AE5" s="288"/>
+      <c r="AF5" s="288"/>
+      <c r="AG5" s="288"/>
+      <c r="AH5" s="289"/>
+      <c r="AI5" s="287" t="s">
         <v>511</v>
       </c>
-      <c r="AJ5" s="280"/>
-      <c r="AK5" s="280"/>
-      <c r="AL5" s="280"/>
-      <c r="AM5" s="280"/>
-      <c r="AN5" s="280"/>
-      <c r="AO5" s="281"/>
+      <c r="AJ5" s="288"/>
+      <c r="AK5" s="288"/>
+      <c r="AL5" s="288"/>
+      <c r="AM5" s="288"/>
+      <c r="AN5" s="288"/>
+      <c r="AO5" s="289"/>
       <c r="AU5" s="113" t="s">
         <v>512</v>
       </c>
@@ -11262,67 +11324,67 @@
       <c r="BM5" s="106"/>
     </row>
     <row r="6" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="293"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="299"/>
-      <c r="N6" s="299"/>
-      <c r="O6" s="299"/>
-      <c r="P6" s="299"/>
-      <c r="Q6" s="299"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="298"/>
-      <c r="U6" s="299"/>
-      <c r="V6" s="299"/>
-      <c r="W6" s="299"/>
-      <c r="X6" s="299"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="298"/>
-      <c r="AA6" s="299"/>
-      <c r="AB6" s="299"/>
-      <c r="AC6" s="299"/>
-      <c r="AD6" s="299"/>
-      <c r="AE6" s="299"/>
-      <c r="AF6" s="299"/>
-      <c r="AG6" s="299"/>
-      <c r="AH6" s="300"/>
-      <c r="AI6" s="298"/>
-      <c r="AJ6" s="299"/>
-      <c r="AK6" s="299"/>
-      <c r="AL6" s="299"/>
-      <c r="AM6" s="299"/>
-      <c r="AN6" s="299"/>
-      <c r="AO6" s="300"/>
-      <c r="AU6" s="259" t="s">
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="307"/>
+      <c r="M6" s="307"/>
+      <c r="N6" s="307"/>
+      <c r="O6" s="307"/>
+      <c r="P6" s="307"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="307"/>
+      <c r="S6" s="308"/>
+      <c r="T6" s="306"/>
+      <c r="U6" s="307"/>
+      <c r="V6" s="307"/>
+      <c r="W6" s="307"/>
+      <c r="X6" s="307"/>
+      <c r="Y6" s="308"/>
+      <c r="Z6" s="306"/>
+      <c r="AA6" s="307"/>
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="307"/>
+      <c r="AD6" s="307"/>
+      <c r="AE6" s="307"/>
+      <c r="AF6" s="307"/>
+      <c r="AG6" s="307"/>
+      <c r="AH6" s="308"/>
+      <c r="AI6" s="306"/>
+      <c r="AJ6" s="307"/>
+      <c r="AK6" s="307"/>
+      <c r="AL6" s="307"/>
+      <c r="AM6" s="307"/>
+      <c r="AN6" s="307"/>
+      <c r="AO6" s="308"/>
+      <c r="AU6" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV6" s="260"/>
-      <c r="AW6" s="260"/>
-      <c r="AX6" s="260"/>
-      <c r="AY6" s="260"/>
-      <c r="AZ6" s="260"/>
-      <c r="BA6" s="260"/>
-      <c r="BB6" s="260"/>
-      <c r="BC6" s="260"/>
-      <c r="BD6" s="260"/>
-      <c r="BE6" s="260"/>
-      <c r="BF6" s="261"/>
-      <c r="BG6" s="279" t="s">
+      <c r="AV6" s="282"/>
+      <c r="AW6" s="282"/>
+      <c r="AX6" s="282"/>
+      <c r="AY6" s="282"/>
+      <c r="AZ6" s="282"/>
+      <c r="BA6" s="282"/>
+      <c r="BB6" s="282"/>
+      <c r="BC6" s="282"/>
+      <c r="BD6" s="282"/>
+      <c r="BE6" s="282"/>
+      <c r="BF6" s="283"/>
+      <c r="BG6" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="281"/>
+      <c r="BH6" s="288"/>
+      <c r="BI6" s="288"/>
+      <c r="BJ6" s="288"/>
+      <c r="BK6" s="288"/>
+      <c r="BL6" s="289"/>
       <c r="BM6" s="106"/>
     </row>
     <row r="7" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -11501,28 +11563,28 @@
       <c r="BM12" s="106"/>
     </row>
     <row r="13" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="AU13" s="259" t="s">
+      <c r="AU13" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV13" s="260"/>
-      <c r="AW13" s="260"/>
-      <c r="AX13" s="260"/>
-      <c r="AY13" s="260"/>
-      <c r="AZ13" s="260"/>
-      <c r="BA13" s="260"/>
-      <c r="BB13" s="260"/>
-      <c r="BC13" s="260"/>
-      <c r="BD13" s="260"/>
-      <c r="BE13" s="260"/>
-      <c r="BF13" s="261"/>
-      <c r="BG13" s="279" t="s">
+      <c r="AV13" s="282"/>
+      <c r="AW13" s="282"/>
+      <c r="AX13" s="282"/>
+      <c r="AY13" s="282"/>
+      <c r="AZ13" s="282"/>
+      <c r="BA13" s="282"/>
+      <c r="BB13" s="282"/>
+      <c r="BC13" s="282"/>
+      <c r="BD13" s="282"/>
+      <c r="BE13" s="282"/>
+      <c r="BF13" s="283"/>
+      <c r="BG13" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH13" s="280"/>
-      <c r="BI13" s="280"/>
-      <c r="BJ13" s="280"/>
-      <c r="BK13" s="280"/>
-      <c r="BL13" s="281"/>
+      <c r="BH13" s="288"/>
+      <c r="BI13" s="288"/>
+      <c r="BJ13" s="288"/>
+      <c r="BK13" s="288"/>
+      <c r="BL13" s="289"/>
       <c r="BM13" s="106"/>
     </row>
     <row r="14" spans="1:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -11708,28 +11770,28 @@
       <c r="BM21" s="106"/>
     </row>
     <row r="22" spans="3:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="AU22" s="259" t="s">
+      <c r="AU22" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV22" s="260"/>
-      <c r="AW22" s="260"/>
-      <c r="AX22" s="260"/>
-      <c r="AY22" s="260"/>
-      <c r="AZ22" s="260"/>
-      <c r="BA22" s="260"/>
-      <c r="BB22" s="260"/>
-      <c r="BC22" s="260"/>
-      <c r="BD22" s="260"/>
-      <c r="BE22" s="260"/>
-      <c r="BF22" s="261"/>
-      <c r="BG22" s="279" t="s">
+      <c r="AV22" s="282"/>
+      <c r="AW22" s="282"/>
+      <c r="AX22" s="282"/>
+      <c r="AY22" s="282"/>
+      <c r="AZ22" s="282"/>
+      <c r="BA22" s="282"/>
+      <c r="BB22" s="282"/>
+      <c r="BC22" s="282"/>
+      <c r="BD22" s="282"/>
+      <c r="BE22" s="282"/>
+      <c r="BF22" s="283"/>
+      <c r="BG22" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH22" s="280"/>
-      <c r="BI22" s="280"/>
-      <c r="BJ22" s="280"/>
-      <c r="BK22" s="280"/>
-      <c r="BL22" s="281"/>
+      <c r="BH22" s="288"/>
+      <c r="BI22" s="288"/>
+      <c r="BJ22" s="288"/>
+      <c r="BK22" s="288"/>
+      <c r="BL22" s="289"/>
       <c r="BM22" s="106"/>
     </row>
     <row r="23" spans="3:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -11936,28 +11998,28 @@
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
-      <c r="AU31" s="259" t="s">
+      <c r="AU31" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV31" s="260"/>
-      <c r="AW31" s="260"/>
-      <c r="AX31" s="260"/>
-      <c r="AY31" s="260"/>
-      <c r="AZ31" s="260"/>
-      <c r="BA31" s="260"/>
-      <c r="BB31" s="260"/>
-      <c r="BC31" s="260"/>
-      <c r="BD31" s="260"/>
-      <c r="BE31" s="260"/>
-      <c r="BF31" s="261"/>
-      <c r="BG31" s="279" t="s">
+      <c r="AV31" s="282"/>
+      <c r="AW31" s="282"/>
+      <c r="AX31" s="282"/>
+      <c r="AY31" s="282"/>
+      <c r="AZ31" s="282"/>
+      <c r="BA31" s="282"/>
+      <c r="BB31" s="282"/>
+      <c r="BC31" s="282"/>
+      <c r="BD31" s="282"/>
+      <c r="BE31" s="282"/>
+      <c r="BF31" s="283"/>
+      <c r="BG31" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH31" s="280"/>
-      <c r="BI31" s="280"/>
-      <c r="BJ31" s="280"/>
-      <c r="BK31" s="280"/>
-      <c r="BL31" s="281"/>
+      <c r="BH31" s="288"/>
+      <c r="BI31" s="288"/>
+      <c r="BJ31" s="288"/>
+      <c r="BK31" s="288"/>
+      <c r="BL31" s="289"/>
       <c r="BM31" s="106"/>
     </row>
     <row r="32" spans="3:65" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -12147,28 +12209,28 @@
       <c r="C39" s="85"/>
       <c r="D39" s="85"/>
       <c r="E39" s="85"/>
-      <c r="AU39" s="259" t="s">
+      <c r="AU39" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV39" s="260"/>
-      <c r="AW39" s="260"/>
-      <c r="AX39" s="260"/>
-      <c r="AY39" s="260"/>
-      <c r="AZ39" s="260"/>
-      <c r="BA39" s="260"/>
-      <c r="BB39" s="260"/>
-      <c r="BC39" s="260"/>
-      <c r="BD39" s="260"/>
-      <c r="BE39" s="260"/>
-      <c r="BF39" s="261"/>
-      <c r="BG39" s="279" t="s">
+      <c r="AV39" s="282"/>
+      <c r="AW39" s="282"/>
+      <c r="AX39" s="282"/>
+      <c r="AY39" s="282"/>
+      <c r="AZ39" s="282"/>
+      <c r="BA39" s="282"/>
+      <c r="BB39" s="282"/>
+      <c r="BC39" s="282"/>
+      <c r="BD39" s="282"/>
+      <c r="BE39" s="282"/>
+      <c r="BF39" s="283"/>
+      <c r="BG39" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH39" s="280"/>
-      <c r="BI39" s="280"/>
-      <c r="BJ39" s="280"/>
-      <c r="BK39" s="280"/>
-      <c r="BL39" s="281"/>
+      <c r="BH39" s="288"/>
+      <c r="BI39" s="288"/>
+      <c r="BJ39" s="288"/>
+      <c r="BK39" s="288"/>
+      <c r="BL39" s="289"/>
       <c r="BM39" s="106"/>
     </row>
     <row r="40" spans="2:65" x14ac:dyDescent="0.15">
@@ -12361,16 +12423,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AU31:BF31"/>
-    <mergeCell ref="BG31:BL31"/>
-    <mergeCell ref="AU39:BF39"/>
-    <mergeCell ref="BG39:BL39"/>
-    <mergeCell ref="AU6:BF6"/>
-    <mergeCell ref="BG6:BL6"/>
-    <mergeCell ref="AU13:BF13"/>
-    <mergeCell ref="BG13:BL13"/>
-    <mergeCell ref="AU22:BF22"/>
-    <mergeCell ref="BG22:BL22"/>
     <mergeCell ref="AI6:AO6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:J5"/>
@@ -12383,6 +12435,16 @@
     <mergeCell ref="K6:S6"/>
     <mergeCell ref="T6:Y6"/>
     <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="AU31:BF31"/>
+    <mergeCell ref="BG31:BL31"/>
+    <mergeCell ref="AU39:BF39"/>
+    <mergeCell ref="BG39:BL39"/>
+    <mergeCell ref="AU6:BF6"/>
+    <mergeCell ref="BG6:BL6"/>
+    <mergeCell ref="AU13:BF13"/>
+    <mergeCell ref="BG13:BL13"/>
+    <mergeCell ref="AU22:BF22"/>
+    <mergeCell ref="BG22:BL22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12533,77 +12595,77 @@
     </row>
     <row r="5" spans="1:65" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="109"/>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="281" t="s">
         <v>533</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="259" t="s">
+      <c r="D5" s="283"/>
+      <c r="E5" s="281" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="279" t="s">
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="287" t="s">
         <v>495</v>
       </c>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="279" t="s">
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="287" t="s">
         <v>503</v>
       </c>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="281"/>
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="289"/>
       <c r="AU5" s="113" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:65" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="C6" s="293">
+      <c r="C6" s="301">
         <v>1</v>
       </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="299"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="298"/>
-      <c r="P6" s="299"/>
-      <c r="Q6" s="299"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="300"/>
-      <c r="AU6" s="259" t="s">
+      <c r="D6" s="302"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="307"/>
+      <c r="M6" s="307"/>
+      <c r="N6" s="308"/>
+      <c r="O6" s="306"/>
+      <c r="P6" s="307"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="307"/>
+      <c r="S6" s="308"/>
+      <c r="AU6" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV6" s="260"/>
-      <c r="AW6" s="260"/>
-      <c r="AX6" s="260"/>
-      <c r="AY6" s="260"/>
-      <c r="AZ6" s="260"/>
-      <c r="BA6" s="260"/>
-      <c r="BB6" s="260"/>
-      <c r="BC6" s="260"/>
-      <c r="BD6" s="260"/>
-      <c r="BE6" s="260"/>
-      <c r="BF6" s="261"/>
-      <c r="BG6" s="279" t="s">
+      <c r="AV6" s="282"/>
+      <c r="AW6" s="282"/>
+      <c r="AX6" s="282"/>
+      <c r="AY6" s="282"/>
+      <c r="AZ6" s="282"/>
+      <c r="BA6" s="282"/>
+      <c r="BB6" s="282"/>
+      <c r="BC6" s="282"/>
+      <c r="BD6" s="282"/>
+      <c r="BE6" s="282"/>
+      <c r="BF6" s="283"/>
+      <c r="BG6" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="281"/>
+      <c r="BH6" s="288"/>
+      <c r="BI6" s="288"/>
+      <c r="BJ6" s="288"/>
+      <c r="BK6" s="288"/>
+      <c r="BL6" s="289"/>
     </row>
     <row r="7" spans="1:65" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="AU7" s="90" t="s">
@@ -12678,28 +12740,28 @@
       </c>
     </row>
     <row r="12" spans="1:65" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="AU12" s="259" t="s">
+      <c r="AU12" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV12" s="260"/>
-      <c r="AW12" s="260"/>
-      <c r="AX12" s="260"/>
-      <c r="AY12" s="260"/>
-      <c r="AZ12" s="260"/>
-      <c r="BA12" s="260"/>
-      <c r="BB12" s="260"/>
-      <c r="BC12" s="260"/>
-      <c r="BD12" s="260"/>
-      <c r="BE12" s="260"/>
-      <c r="BF12" s="261"/>
-      <c r="BG12" s="279" t="s">
+      <c r="AV12" s="282"/>
+      <c r="AW12" s="282"/>
+      <c r="AX12" s="282"/>
+      <c r="AY12" s="282"/>
+      <c r="AZ12" s="282"/>
+      <c r="BA12" s="282"/>
+      <c r="BB12" s="282"/>
+      <c r="BC12" s="282"/>
+      <c r="BD12" s="282"/>
+      <c r="BE12" s="282"/>
+      <c r="BF12" s="283"/>
+      <c r="BG12" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH12" s="280"/>
-      <c r="BI12" s="280"/>
-      <c r="BJ12" s="280"/>
-      <c r="BK12" s="280"/>
-      <c r="BL12" s="281"/>
+      <c r="BH12" s="288"/>
+      <c r="BI12" s="288"/>
+      <c r="BJ12" s="288"/>
+      <c r="BK12" s="288"/>
+      <c r="BL12" s="289"/>
     </row>
     <row r="13" spans="1:65" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="AU13" s="90" t="s">
@@ -12774,22 +12836,22 @@
       </c>
     </row>
     <row r="18" spans="3:58" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="AU18" s="279" t="s">
+      <c r="AU18" s="287" t="s">
         <v>540</v>
       </c>
-      <c r="AV18" s="280"/>
-      <c r="AW18" s="280"/>
-      <c r="AX18" s="280"/>
-      <c r="AY18" s="280"/>
-      <c r="AZ18" s="280"/>
-      <c r="BA18" s="280"/>
-      <c r="BB18" s="281"/>
-      <c r="BC18" s="279" t="s">
+      <c r="AV18" s="288"/>
+      <c r="AW18" s="288"/>
+      <c r="AX18" s="288"/>
+      <c r="AY18" s="288"/>
+      <c r="AZ18" s="288"/>
+      <c r="BA18" s="288"/>
+      <c r="BB18" s="289"/>
+      <c r="BC18" s="287" t="s">
         <v>541</v>
       </c>
-      <c r="BD18" s="280"/>
-      <c r="BE18" s="280"/>
-      <c r="BF18" s="281"/>
+      <c r="BD18" s="288"/>
+      <c r="BE18" s="288"/>
+      <c r="BF18" s="289"/>
     </row>
     <row r="19" spans="3:58" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C19" s="109"/>
@@ -13109,12 +13171,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AU6:BF6"/>
-    <mergeCell ref="BG6:BL6"/>
-    <mergeCell ref="AU12:BF12"/>
-    <mergeCell ref="BG12:BL12"/>
-    <mergeCell ref="AU18:BB18"/>
-    <mergeCell ref="BC18:BF18"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:N5"/>
@@ -13123,6 +13179,12 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="O6:S6"/>
+    <mergeCell ref="AU6:BF6"/>
+    <mergeCell ref="BG6:BL6"/>
+    <mergeCell ref="AU12:BF12"/>
+    <mergeCell ref="BG12:BL12"/>
+    <mergeCell ref="AU18:BB18"/>
+    <mergeCell ref="BC18:BF18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13296,46 +13358,46 @@
     </row>
     <row r="5" spans="1:66" s="153" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="85"/>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="281" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="261"/>
-      <c r="E5" s="259" t="s">
+      <c r="D5" s="283"/>
+      <c r="E5" s="281" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="279" t="s">
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="283"/>
+      <c r="K5" s="287" t="s">
         <v>542</v>
       </c>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="281"/>
-      <c r="O5" s="279" t="s">
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
+      <c r="O5" s="287" t="s">
         <v>543</v>
       </c>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="281"/>
-      <c r="T5" s="279" t="s">
+      <c r="P5" s="288"/>
+      <c r="Q5" s="288"/>
+      <c r="R5" s="288"/>
+      <c r="S5" s="289"/>
+      <c r="T5" s="287" t="s">
         <v>134</v>
       </c>
-      <c r="U5" s="280"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="280"/>
-      <c r="X5" s="281"/>
-      <c r="Y5" s="279" t="s">
+      <c r="U5" s="288"/>
+      <c r="V5" s="288"/>
+      <c r="W5" s="288"/>
+      <c r="X5" s="289"/>
+      <c r="Y5" s="287" t="s">
         <v>544</v>
       </c>
-      <c r="Z5" s="281"/>
-      <c r="AA5" s="279" t="s">
+      <c r="Z5" s="289"/>
+      <c r="AA5" s="287" t="s">
         <v>545</v>
       </c>
-      <c r="AB5" s="281"/>
+      <c r="AB5" s="289"/>
       <c r="AU5" s="113" t="s">
         <v>546</v>
       </c>
@@ -13360,66 +13422,66 @@
       <c r="BN5" s="106"/>
     </row>
     <row r="6" spans="1:66" s="153" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="293">
+      <c r="C6" s="301">
         <v>1</v>
       </c>
-      <c r="D6" s="294"/>
-      <c r="E6" s="295" t="s">
+      <c r="D6" s="302"/>
+      <c r="E6" s="303" t="s">
         <v>547</v>
       </c>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
-      <c r="H6" s="296"/>
-      <c r="I6" s="296"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298" t="s">
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="304"/>
+      <c r="I6" s="304"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="306" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="299"/>
-      <c r="M6" s="299"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="298"/>
-      <c r="P6" s="299"/>
-      <c r="Q6" s="299"/>
-      <c r="R6" s="299"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="298" t="s">
+      <c r="L6" s="307"/>
+      <c r="M6" s="307"/>
+      <c r="N6" s="308"/>
+      <c r="O6" s="306"/>
+      <c r="P6" s="307"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="307"/>
+      <c r="S6" s="308"/>
+      <c r="T6" s="306" t="s">
         <v>123</v>
       </c>
-      <c r="U6" s="299"/>
-      <c r="V6" s="299"/>
-      <c r="W6" s="299"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="298" t="s">
+      <c r="U6" s="307"/>
+      <c r="V6" s="307"/>
+      <c r="W6" s="307"/>
+      <c r="X6" s="308"/>
+      <c r="Y6" s="306" t="s">
         <v>548</v>
       </c>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="298">
+      <c r="Z6" s="308"/>
+      <c r="AA6" s="306">
         <v>1</v>
       </c>
-      <c r="AB6" s="300"/>
-      <c r="AU6" s="259" t="s">
+      <c r="AB6" s="308"/>
+      <c r="AU6" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV6" s="260"/>
-      <c r="AW6" s="260"/>
-      <c r="AX6" s="260"/>
-      <c r="AY6" s="260"/>
-      <c r="AZ6" s="260"/>
-      <c r="BA6" s="260"/>
-      <c r="BB6" s="260"/>
-      <c r="BC6" s="260"/>
-      <c r="BD6" s="260"/>
-      <c r="BE6" s="260"/>
-      <c r="BF6" s="261"/>
-      <c r="BG6" s="279" t="s">
+      <c r="AV6" s="282"/>
+      <c r="AW6" s="282"/>
+      <c r="AX6" s="282"/>
+      <c r="AY6" s="282"/>
+      <c r="AZ6" s="282"/>
+      <c r="BA6" s="282"/>
+      <c r="BB6" s="282"/>
+      <c r="BC6" s="282"/>
+      <c r="BD6" s="282"/>
+      <c r="BE6" s="282"/>
+      <c r="BF6" s="283"/>
+      <c r="BG6" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH6" s="280"/>
-      <c r="BI6" s="280"/>
-      <c r="BJ6" s="280"/>
-      <c r="BK6" s="280"/>
-      <c r="BL6" s="281"/>
+      <c r="BH6" s="288"/>
+      <c r="BI6" s="288"/>
+      <c r="BJ6" s="288"/>
+      <c r="BK6" s="288"/>
+      <c r="BL6" s="289"/>
       <c r="BM6" s="106"/>
       <c r="BN6" s="106"/>
     </row>
@@ -13474,28 +13536,28 @@
       <c r="BN7" s="106"/>
     </row>
     <row r="8" spans="1:66" s="153" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="260"/>
-      <c r="K8" s="260"/>
-      <c r="L8" s="260"/>
-      <c r="M8" s="260"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="279" t="s">
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="282"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="P8" s="280"/>
-      <c r="Q8" s="280"/>
-      <c r="R8" s="280"/>
-      <c r="S8" s="280"/>
-      <c r="T8" s="281"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="288"/>
+      <c r="R8" s="288"/>
+      <c r="S8" s="288"/>
+      <c r="T8" s="289"/>
       <c r="U8" s="154"/>
       <c r="V8" s="154"/>
       <c r="W8" s="154"/>
@@ -13870,46 +13932,46 @@
       <c r="BN15" s="106"/>
     </row>
     <row r="16" spans="1:66" s="153" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="259" t="s">
+      <c r="C16" s="281" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="261"/>
-      <c r="E16" s="259" t="s">
+      <c r="D16" s="283"/>
+      <c r="E16" s="281" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="260"/>
-      <c r="G16" s="260"/>
-      <c r="H16" s="260"/>
-      <c r="I16" s="260"/>
-      <c r="J16" s="261"/>
-      <c r="K16" s="279" t="s">
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="283"/>
+      <c r="K16" s="287" t="s">
         <v>542</v>
       </c>
-      <c r="L16" s="280"/>
-      <c r="M16" s="280"/>
-      <c r="N16" s="281"/>
-      <c r="O16" s="279" t="s">
+      <c r="L16" s="288"/>
+      <c r="M16" s="288"/>
+      <c r="N16" s="289"/>
+      <c r="O16" s="287" t="s">
         <v>233</v>
       </c>
-      <c r="P16" s="280"/>
-      <c r="Q16" s="280"/>
-      <c r="R16" s="280"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="279" t="s">
+      <c r="P16" s="288"/>
+      <c r="Q16" s="288"/>
+      <c r="R16" s="288"/>
+      <c r="S16" s="289"/>
+      <c r="T16" s="287" t="s">
         <v>562</v>
       </c>
-      <c r="U16" s="280"/>
-      <c r="V16" s="280"/>
-      <c r="W16" s="280"/>
-      <c r="X16" s="281"/>
-      <c r="Y16" s="279" t="s">
+      <c r="U16" s="288"/>
+      <c r="V16" s="288"/>
+      <c r="W16" s="288"/>
+      <c r="X16" s="289"/>
+      <c r="Y16" s="287" t="s">
         <v>544</v>
       </c>
-      <c r="Z16" s="281"/>
-      <c r="AA16" s="279" t="s">
+      <c r="Z16" s="289"/>
+      <c r="AA16" s="287" t="s">
         <v>563</v>
       </c>
-      <c r="AB16" s="281"/>
+      <c r="AB16" s="289"/>
       <c r="AU16" s="138"/>
       <c r="AV16" s="138"/>
       <c r="AW16" s="138"/>
@@ -13932,44 +13994,44 @@
       <c r="BN16" s="106"/>
     </row>
     <row r="17" spans="2:66" s="153" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="293">
+      <c r="C17" s="301">
         <v>2</v>
       </c>
-      <c r="D17" s="294"/>
-      <c r="E17" s="295" t="s">
+      <c r="D17" s="302"/>
+      <c r="E17" s="303" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="296"/>
-      <c r="I17" s="296"/>
-      <c r="J17" s="297"/>
-      <c r="K17" s="298" t="s">
+      <c r="F17" s="304"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="304"/>
+      <c r="I17" s="304"/>
+      <c r="J17" s="305"/>
+      <c r="K17" s="306" t="s">
         <v>564</v>
       </c>
-      <c r="L17" s="299"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="300"/>
-      <c r="O17" s="298"/>
-      <c r="P17" s="299"/>
-      <c r="Q17" s="299"/>
-      <c r="R17" s="299"/>
-      <c r="S17" s="300"/>
-      <c r="T17" s="298" t="s">
+      <c r="L17" s="307"/>
+      <c r="M17" s="307"/>
+      <c r="N17" s="308"/>
+      <c r="O17" s="306"/>
+      <c r="P17" s="307"/>
+      <c r="Q17" s="307"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="306" t="s">
         <v>565</v>
       </c>
-      <c r="U17" s="299"/>
-      <c r="V17" s="299"/>
-      <c r="W17" s="299"/>
-      <c r="X17" s="300"/>
-      <c r="Y17" s="298" t="s">
+      <c r="U17" s="307"/>
+      <c r="V17" s="307"/>
+      <c r="W17" s="307"/>
+      <c r="X17" s="308"/>
+      <c r="Y17" s="306" t="s">
         <v>566</v>
       </c>
-      <c r="Z17" s="300"/>
-      <c r="AA17" s="298">
+      <c r="Z17" s="308"/>
+      <c r="AA17" s="306">
         <v>1</v>
       </c>
-      <c r="AB17" s="300"/>
+      <c r="AB17" s="308"/>
       <c r="AU17" s="113" t="s">
         <v>567</v>
       </c>
@@ -14020,54 +14082,54 @@
       <c r="Z18" s="154"/>
       <c r="AA18" s="154"/>
       <c r="AB18" s="154"/>
-      <c r="AU18" s="259" t="s">
+      <c r="AU18" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV18" s="260"/>
-      <c r="AW18" s="260"/>
-      <c r="AX18" s="260"/>
-      <c r="AY18" s="260"/>
-      <c r="AZ18" s="260"/>
-      <c r="BA18" s="260"/>
-      <c r="BB18" s="260"/>
-      <c r="BC18" s="260"/>
-      <c r="BD18" s="260"/>
-      <c r="BE18" s="260"/>
-      <c r="BF18" s="261"/>
-      <c r="BG18" s="279" t="s">
+      <c r="AV18" s="282"/>
+      <c r="AW18" s="282"/>
+      <c r="AX18" s="282"/>
+      <c r="AY18" s="282"/>
+      <c r="AZ18" s="282"/>
+      <c r="BA18" s="282"/>
+      <c r="BB18" s="282"/>
+      <c r="BC18" s="282"/>
+      <c r="BD18" s="282"/>
+      <c r="BE18" s="282"/>
+      <c r="BF18" s="283"/>
+      <c r="BG18" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH18" s="280"/>
-      <c r="BI18" s="280"/>
-      <c r="BJ18" s="280"/>
-      <c r="BK18" s="280"/>
-      <c r="BL18" s="281"/>
+      <c r="BH18" s="288"/>
+      <c r="BI18" s="288"/>
+      <c r="BJ18" s="288"/>
+      <c r="BK18" s="288"/>
+      <c r="BL18" s="289"/>
       <c r="BM18" s="106"/>
       <c r="BN18" s="106"/>
     </row>
     <row r="19" spans="2:66" s="153" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="259" t="s">
+      <c r="C19" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="260"/>
-      <c r="K19" s="260"/>
-      <c r="L19" s="260"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="279" t="s">
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="282"/>
+      <c r="M19" s="282"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="280"/>
-      <c r="Q19" s="280"/>
-      <c r="R19" s="280"/>
-      <c r="S19" s="280"/>
-      <c r="T19" s="281"/>
+      <c r="P19" s="288"/>
+      <c r="Q19" s="288"/>
+      <c r="R19" s="288"/>
+      <c r="S19" s="288"/>
+      <c r="T19" s="289"/>
       <c r="U19" s="154"/>
       <c r="V19" s="154"/>
       <c r="W19" s="154"/>
@@ -14456,28 +14518,28 @@
       <c r="AC27" s="154"/>
       <c r="AD27" s="154"/>
       <c r="AE27" s="154"/>
-      <c r="AU27" s="259" t="s">
+      <c r="AU27" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV27" s="260"/>
-      <c r="AW27" s="260"/>
-      <c r="AX27" s="260"/>
-      <c r="AY27" s="260"/>
-      <c r="AZ27" s="260"/>
-      <c r="BA27" s="260"/>
-      <c r="BB27" s="260"/>
-      <c r="BC27" s="260"/>
-      <c r="BD27" s="260"/>
-      <c r="BE27" s="260"/>
-      <c r="BF27" s="261"/>
-      <c r="BG27" s="279" t="s">
+      <c r="AV27" s="282"/>
+      <c r="AW27" s="282"/>
+      <c r="AX27" s="282"/>
+      <c r="AY27" s="282"/>
+      <c r="AZ27" s="282"/>
+      <c r="BA27" s="282"/>
+      <c r="BB27" s="282"/>
+      <c r="BC27" s="282"/>
+      <c r="BD27" s="282"/>
+      <c r="BE27" s="282"/>
+      <c r="BF27" s="283"/>
+      <c r="BG27" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH27" s="280"/>
-      <c r="BI27" s="280"/>
-      <c r="BJ27" s="280"/>
-      <c r="BK27" s="280"/>
-      <c r="BL27" s="281"/>
+      <c r="BH27" s="288"/>
+      <c r="BI27" s="288"/>
+      <c r="BJ27" s="288"/>
+      <c r="BK27" s="288"/>
+      <c r="BL27" s="289"/>
       <c r="BM27" s="106"/>
       <c r="BN27" s="106"/>
     </row>
@@ -14758,28 +14820,28 @@
       <c r="B35" s="154"/>
       <c r="C35" s="154"/>
       <c r="D35" s="154"/>
-      <c r="AU35" s="259" t="s">
+      <c r="AU35" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV35" s="260"/>
-      <c r="AW35" s="260"/>
-      <c r="AX35" s="260"/>
-      <c r="AY35" s="260"/>
-      <c r="AZ35" s="260"/>
-      <c r="BA35" s="260"/>
-      <c r="BB35" s="260"/>
-      <c r="BC35" s="260"/>
-      <c r="BD35" s="260"/>
-      <c r="BE35" s="260"/>
-      <c r="BF35" s="261"/>
-      <c r="BG35" s="279" t="s">
+      <c r="AV35" s="282"/>
+      <c r="AW35" s="282"/>
+      <c r="AX35" s="282"/>
+      <c r="AY35" s="282"/>
+      <c r="AZ35" s="282"/>
+      <c r="BA35" s="282"/>
+      <c r="BB35" s="282"/>
+      <c r="BC35" s="282"/>
+      <c r="BD35" s="282"/>
+      <c r="BE35" s="282"/>
+      <c r="BF35" s="283"/>
+      <c r="BG35" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH35" s="280"/>
-      <c r="BI35" s="280"/>
-      <c r="BJ35" s="280"/>
-      <c r="BK35" s="280"/>
-      <c r="BL35" s="281"/>
+      <c r="BH35" s="288"/>
+      <c r="BI35" s="288"/>
+      <c r="BJ35" s="288"/>
+      <c r="BK35" s="288"/>
+      <c r="BL35" s="289"/>
       <c r="BM35" s="106"/>
       <c r="BN35" s="106"/>
     </row>
@@ -14890,28 +14952,28 @@
       <c r="BN39" s="106"/>
     </row>
     <row r="40" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AU40" s="259" t="s">
+      <c r="AU40" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="AV40" s="260"/>
-      <c r="AW40" s="260"/>
-      <c r="AX40" s="260"/>
-      <c r="AY40" s="260"/>
-      <c r="AZ40" s="260"/>
-      <c r="BA40" s="260"/>
-      <c r="BB40" s="260"/>
-      <c r="BC40" s="260"/>
-      <c r="BD40" s="260"/>
-      <c r="BE40" s="260"/>
-      <c r="BF40" s="261"/>
-      <c r="BG40" s="279" t="s">
+      <c r="AV40" s="282"/>
+      <c r="AW40" s="282"/>
+      <c r="AX40" s="282"/>
+      <c r="AY40" s="282"/>
+      <c r="AZ40" s="282"/>
+      <c r="BA40" s="282"/>
+      <c r="BB40" s="282"/>
+      <c r="BC40" s="282"/>
+      <c r="BD40" s="282"/>
+      <c r="BE40" s="282"/>
+      <c r="BF40" s="283"/>
+      <c r="BG40" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="BH40" s="280"/>
-      <c r="BI40" s="280"/>
-      <c r="BJ40" s="280"/>
-      <c r="BK40" s="280"/>
-      <c r="BL40" s="281"/>
+      <c r="BH40" s="288"/>
+      <c r="BI40" s="288"/>
+      <c r="BJ40" s="288"/>
+      <c r="BK40" s="288"/>
+      <c r="BL40" s="289"/>
     </row>
     <row r="41" spans="2:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AU41" s="156" t="s">
@@ -15042,34 +15104,6 @@
     <row r="65" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AU35:BF35"/>
-    <mergeCell ref="BG35:BL35"/>
-    <mergeCell ref="AU40:BF40"/>
-    <mergeCell ref="BG40:BL40"/>
-    <mergeCell ref="AU18:BF18"/>
-    <mergeCell ref="BG18:BL18"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="AU27:BF27"/>
-    <mergeCell ref="BG27:BL27"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AU6:BF6"/>
-    <mergeCell ref="BG6:BL6"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
@@ -15084,6 +15118,34 @@
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="T5:X5"/>
     <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AU6:BF6"/>
+    <mergeCell ref="BG6:BL6"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="AU27:BF27"/>
+    <mergeCell ref="BG27:BL27"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AU35:BF35"/>
+    <mergeCell ref="BG35:BL35"/>
+    <mergeCell ref="AU40:BF40"/>
+    <mergeCell ref="BG40:BL40"/>
+    <mergeCell ref="AU18:BF18"/>
+    <mergeCell ref="BG18:BL18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15712,7 +15774,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -16170,28 +16232,28 @@
   <sheetData>
     <row r="1" spans="2:5" s="15" customFormat="1" ht="10.5" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:5" s="17" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="2:5" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="195"/>
+      <c r="C3" s="203"/>
     </row>
     <row r="4" spans="2:5" s="17" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="202"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="196"/>
+      <c r="C5" s="204"/>
     </row>
     <row r="6" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -16288,29 +16350,49 @@
         <v>589</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E13" s="164" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="161">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="162">
         <v>45007</v>
       </c>
-      <c r="C14" s="301" t="s">
-        <v>595</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>598</v>
+      <c r="C14" s="163" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="160" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="164" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="302"/>
+      <c r="B15" s="162">
+        <v>45432</v>
+      </c>
+      <c r="C15" s="163" t="s">
+        <v>601</v>
+      </c>
+      <c r="D15" s="160" t="s">
+        <v>602</v>
+      </c>
+      <c r="E15" s="164" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="161"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18170,172 +18252,166 @@
       </c>
     </row>
     <row r="12" spans="1:46" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="F12" s="197" t="s">
+      <c r="F12" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="198"/>
-      <c r="H12" s="201" t="s">
+      <c r="G12" s="213"/>
+      <c r="H12" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="198"/>
-      <c r="J12" s="201" t="s">
+      <c r="I12" s="213"/>
+      <c r="J12" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="198"/>
-      <c r="L12" s="202" t="s">
+      <c r="K12" s="213"/>
+      <c r="L12" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="203"/>
-      <c r="N12" s="203"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="205" t="s">
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="217" t="s">
         <v>119</v>
       </c>
-      <c r="R12" s="206"/>
-      <c r="S12" s="206"/>
-      <c r="T12" s="206"/>
-      <c r="U12" s="206"/>
-      <c r="V12" s="206"/>
-      <c r="W12" s="206"/>
-      <c r="X12" s="206"/>
-      <c r="Y12" s="206"/>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="206"/>
-      <c r="AB12" s="206"/>
-      <c r="AC12" s="206"/>
-      <c r="AD12" s="206"/>
-      <c r="AE12" s="207"/>
-      <c r="AF12" s="208" t="s">
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="218"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="218"/>
+      <c r="Y12" s="218"/>
+      <c r="Z12" s="218"/>
+      <c r="AA12" s="218"/>
+      <c r="AB12" s="218"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="218"/>
+      <c r="AE12" s="219"/>
+      <c r="AF12" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="203"/>
-      <c r="AI12" s="198"/>
-      <c r="AJ12" s="208" t="s">
+      <c r="AG12" s="212"/>
+      <c r="AH12" s="212"/>
+      <c r="AI12" s="213"/>
+      <c r="AJ12" s="211" t="s">
         <v>121</v>
       </c>
-      <c r="AK12" s="203"/>
-      <c r="AL12" s="203"/>
-      <c r="AM12" s="198"/>
+      <c r="AK12" s="212"/>
+      <c r="AL12" s="212"/>
+      <c r="AM12" s="213"/>
     </row>
     <row r="13" spans="1:46" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="F13" s="199"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="200"/>
-      <c r="Q13" s="205" t="s">
+      <c r="F13" s="214"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="216"/>
+      <c r="Q13" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="206"/>
-      <c r="S13" s="207"/>
-      <c r="T13" s="205" t="s">
+      <c r="R13" s="218"/>
+      <c r="S13" s="219"/>
+      <c r="T13" s="217" t="s">
         <v>123</v>
       </c>
-      <c r="U13" s="206"/>
-      <c r="V13" s="207"/>
-      <c r="W13" s="205" t="s">
+      <c r="U13" s="218"/>
+      <c r="V13" s="219"/>
+      <c r="W13" s="217" t="s">
         <v>124</v>
       </c>
-      <c r="X13" s="206"/>
-      <c r="Y13" s="207"/>
-      <c r="Z13" s="205" t="s">
+      <c r="X13" s="218"/>
+      <c r="Y13" s="219"/>
+      <c r="Z13" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="AA13" s="206"/>
-      <c r="AB13" s="207"/>
-      <c r="AC13" s="205" t="s">
+      <c r="AA13" s="218"/>
+      <c r="AB13" s="219"/>
+      <c r="AC13" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="AD13" s="206"/>
-      <c r="AE13" s="207"/>
-      <c r="AF13" s="199"/>
-      <c r="AG13" s="204"/>
-      <c r="AH13" s="204"/>
-      <c r="AI13" s="200"/>
-      <c r="AJ13" s="199"/>
-      <c r="AK13" s="204"/>
-      <c r="AL13" s="204"/>
-      <c r="AM13" s="200"/>
+      <c r="AD13" s="218"/>
+      <c r="AE13" s="219"/>
+      <c r="AF13" s="214"/>
+      <c r="AG13" s="215"/>
+      <c r="AH13" s="215"/>
+      <c r="AI13" s="216"/>
+      <c r="AJ13" s="214"/>
+      <c r="AK13" s="215"/>
+      <c r="AL13" s="215"/>
+      <c r="AM13" s="216"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="F14" s="209" t="s">
+      <c r="F14" s="208" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="210"/>
-      <c r="H14" s="211" t="s">
+      <c r="H14" s="205" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="212"/>
-      <c r="J14" s="211" t="s">
+      <c r="I14" s="207"/>
+      <c r="J14" s="205" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="212"/>
-      <c r="L14" s="209" t="s">
+      <c r="K14" s="207"/>
+      <c r="L14" s="208" t="s">
         <v>182</v>
       </c>
-      <c r="M14" s="213"/>
-      <c r="N14" s="213"/>
-      <c r="O14" s="213"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="209"/>
       <c r="P14" s="210"/>
-      <c r="Q14" s="209" t="s">
+      <c r="Q14" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="R14" s="213"/>
+      <c r="R14" s="209"/>
       <c r="S14" s="210"/>
-      <c r="T14" s="209" t="s">
+      <c r="T14" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="U14" s="213"/>
+      <c r="U14" s="209"/>
       <c r="V14" s="210"/>
-      <c r="W14" s="209" t="s">
+      <c r="W14" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="X14" s="213"/>
+      <c r="X14" s="209"/>
       <c r="Y14" s="210"/>
-      <c r="Z14" s="209" t="s">
+      <c r="Z14" s="208" t="s">
         <v>184</v>
       </c>
-      <c r="AA14" s="213"/>
+      <c r="AA14" s="209"/>
       <c r="AB14" s="210"/>
-      <c r="AC14" s="209" t="s">
+      <c r="AC14" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="AD14" s="213"/>
+      <c r="AD14" s="209"/>
       <c r="AE14" s="210"/>
-      <c r="AF14" s="211" t="s">
+      <c r="AF14" s="205" t="s">
         <v>101</v>
       </c>
-      <c r="AG14" s="214"/>
-      <c r="AH14" s="214"/>
-      <c r="AI14" s="212"/>
-      <c r="AJ14" s="211" t="s">
+      <c r="AG14" s="206"/>
+      <c r="AH14" s="206"/>
+      <c r="AI14" s="207"/>
+      <c r="AJ14" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="AK14" s="214"/>
-      <c r="AL14" s="214"/>
-      <c r="AM14" s="212"/>
+      <c r="AK14" s="206"/>
+      <c r="AL14" s="206"/>
+      <c r="AM14" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:AE12"/>
     <mergeCell ref="AF12:AI13"/>
     <mergeCell ref="AJ12:AM13"/>
     <mergeCell ref="Q13:S13"/>
@@ -18343,11 +18419,17 @@
     <mergeCell ref="W13:Y13"/>
     <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18362,6 +18444,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BH63"/>
@@ -18501,150 +18584,150 @@
       </c>
     </row>
     <row r="17" spans="2:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="218" t="s">
+      <c r="D17" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="241"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="241"/>
-      <c r="I17" s="241"/>
-      <c r="J17" s="242"/>
-      <c r="K17" s="240" t="s">
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="242"/>
-      <c r="M17" s="240" t="s">
+      <c r="L17" s="225"/>
+      <c r="M17" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="242"/>
-      <c r="O17" s="246" t="s">
+      <c r="N17" s="225"/>
+      <c r="O17" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="248"/>
-      <c r="Q17" s="248"/>
-      <c r="R17" s="248"/>
-      <c r="S17" s="248"/>
-      <c r="T17" s="248"/>
-      <c r="U17" s="248"/>
-      <c r="V17" s="248"/>
-      <c r="W17" s="248"/>
-      <c r="X17" s="248"/>
-      <c r="Y17" s="248"/>
-      <c r="Z17" s="248"/>
-      <c r="AA17" s="248"/>
-      <c r="AB17" s="248"/>
-      <c r="AC17" s="248"/>
-      <c r="AD17" s="248"/>
-      <c r="AE17" s="248"/>
-      <c r="AF17" s="248"/>
-      <c r="AG17" s="248"/>
-      <c r="AH17" s="248"/>
-      <c r="AI17" s="248"/>
-      <c r="AJ17" s="248"/>
-      <c r="AK17" s="248"/>
-      <c r="AL17" s="248"/>
-      <c r="AM17" s="247"/>
-      <c r="AN17" s="251" t="s">
+      <c r="P17" s="231"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="231"/>
+      <c r="S17" s="231"/>
+      <c r="T17" s="231"/>
+      <c r="U17" s="231"/>
+      <c r="V17" s="231"/>
+      <c r="W17" s="231"/>
+      <c r="X17" s="231"/>
+      <c r="Y17" s="231"/>
+      <c r="Z17" s="231"/>
+      <c r="AA17" s="231"/>
+      <c r="AB17" s="231"/>
+      <c r="AC17" s="231"/>
+      <c r="AD17" s="231"/>
+      <c r="AE17" s="231"/>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="231"/>
+      <c r="AH17" s="231"/>
+      <c r="AI17" s="231"/>
+      <c r="AJ17" s="231"/>
+      <c r="AK17" s="231"/>
+      <c r="AL17" s="231"/>
+      <c r="AM17" s="230"/>
+      <c r="AN17" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="AO17" s="253"/>
-      <c r="AP17" s="253"/>
-      <c r="AQ17" s="253"/>
-      <c r="AR17" s="253"/>
-      <c r="AS17" s="253"/>
-      <c r="AT17" s="253"/>
-      <c r="AU17" s="253"/>
-      <c r="AV17" s="240" t="s">
+      <c r="AO17" s="236"/>
+      <c r="AP17" s="236"/>
+      <c r="AQ17" s="236"/>
+      <c r="AR17" s="236"/>
+      <c r="AS17" s="236"/>
+      <c r="AT17" s="236"/>
+      <c r="AU17" s="236"/>
+      <c r="AV17" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="AW17" s="241"/>
-      <c r="AX17" s="241"/>
-      <c r="AY17" s="241"/>
-      <c r="AZ17" s="241"/>
-      <c r="BA17" s="241"/>
-      <c r="BB17" s="241"/>
-      <c r="BC17" s="241"/>
-      <c r="BD17" s="241"/>
-      <c r="BE17" s="241"/>
-      <c r="BF17" s="241"/>
-      <c r="BG17" s="241"/>
-      <c r="BH17" s="242"/>
+      <c r="AW17" s="224"/>
+      <c r="AX17" s="224"/>
+      <c r="AY17" s="224"/>
+      <c r="AZ17" s="224"/>
+      <c r="BA17" s="224"/>
+      <c r="BB17" s="224"/>
+      <c r="BC17" s="224"/>
+      <c r="BD17" s="224"/>
+      <c r="BE17" s="224"/>
+      <c r="BF17" s="224"/>
+      <c r="BG17" s="224"/>
+      <c r="BH17" s="225"/>
     </row>
     <row r="18" spans="2:60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="254"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="244"/>
-      <c r="J18" s="245"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="245"/>
-      <c r="M18" s="243"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="246" t="s">
+      <c r="D18" s="238"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
+      <c r="H18" s="227"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="228"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="228"/>
+      <c r="O18" s="229" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="246" t="s">
+      <c r="P18" s="230"/>
+      <c r="Q18" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="R18" s="248"/>
-      <c r="S18" s="248"/>
-      <c r="T18" s="248"/>
-      <c r="U18" s="248"/>
-      <c r="V18" s="248"/>
-      <c r="W18" s="248"/>
-      <c r="X18" s="247"/>
-      <c r="Y18" s="246" t="s">
+      <c r="R18" s="231"/>
+      <c r="S18" s="231"/>
+      <c r="T18" s="231"/>
+      <c r="U18" s="231"/>
+      <c r="V18" s="231"/>
+      <c r="W18" s="231"/>
+      <c r="X18" s="230"/>
+      <c r="Y18" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="Z18" s="248"/>
-      <c r="AA18" s="248"/>
-      <c r="AB18" s="248"/>
-      <c r="AC18" s="247"/>
-      <c r="AD18" s="248" t="s">
+      <c r="Z18" s="231"/>
+      <c r="AA18" s="231"/>
+      <c r="AB18" s="231"/>
+      <c r="AC18" s="230"/>
+      <c r="AD18" s="231" t="s">
         <v>205</v>
       </c>
-      <c r="AE18" s="248"/>
-      <c r="AF18" s="248"/>
-      <c r="AG18" s="248"/>
-      <c r="AH18" s="248"/>
-      <c r="AI18" s="248"/>
-      <c r="AJ18" s="248"/>
-      <c r="AK18" s="248"/>
-      <c r="AL18" s="248"/>
-      <c r="AM18" s="247"/>
-      <c r="AN18" s="249" t="s">
+      <c r="AE18" s="231"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="231"/>
+      <c r="AH18" s="231"/>
+      <c r="AI18" s="231"/>
+      <c r="AJ18" s="231"/>
+      <c r="AK18" s="231"/>
+      <c r="AL18" s="231"/>
+      <c r="AM18" s="230"/>
+      <c r="AN18" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="AO18" s="250"/>
-      <c r="AP18" s="251" t="s">
+      <c r="AO18" s="233"/>
+      <c r="AP18" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="AQ18" s="252"/>
-      <c r="AR18" s="253" t="s">
+      <c r="AQ18" s="235"/>
+      <c r="AR18" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="AS18" s="253"/>
-      <c r="AT18" s="253"/>
-      <c r="AU18" s="252"/>
-      <c r="AV18" s="243"/>
-      <c r="AW18" s="244"/>
-      <c r="AX18" s="244"/>
-      <c r="AY18" s="244"/>
-      <c r="AZ18" s="244"/>
-      <c r="BA18" s="244"/>
-      <c r="BB18" s="244"/>
-      <c r="BC18" s="244"/>
-      <c r="BD18" s="244"/>
-      <c r="BE18" s="244"/>
-      <c r="BF18" s="244"/>
-      <c r="BG18" s="244"/>
-      <c r="BH18" s="245"/>
+      <c r="AS18" s="236"/>
+      <c r="AT18" s="236"/>
+      <c r="AU18" s="235"/>
+      <c r="AV18" s="226"/>
+      <c r="AW18" s="227"/>
+      <c r="AX18" s="227"/>
+      <c r="AY18" s="227"/>
+      <c r="AZ18" s="227"/>
+      <c r="BA18" s="227"/>
+      <c r="BB18" s="227"/>
+      <c r="BC18" s="227"/>
+      <c r="BD18" s="227"/>
+      <c r="BE18" s="227"/>
+      <c r="BF18" s="227"/>
+      <c r="BG18" s="227"/>
+      <c r="BH18" s="228"/>
     </row>
     <row r="19" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="169">
@@ -18666,64 +18749,66 @@
         <v>1</v>
       </c>
       <c r="N19" s="174"/>
-      <c r="O19" s="231" t="s">
+      <c r="O19" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="233" t="s">
+      <c r="P19" s="243"/>
+      <c r="Q19" s="244" t="s">
         <v>160</v>
       </c>
-      <c r="R19" s="216"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="216"/>
-      <c r="U19" s="216"/>
-      <c r="V19" s="216"/>
-      <c r="W19" s="216"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="234" t="s">
+      <c r="R19" s="245"/>
+      <c r="S19" s="245"/>
+      <c r="T19" s="245"/>
+      <c r="U19" s="245"/>
+      <c r="V19" s="245"/>
+      <c r="W19" s="245"/>
+      <c r="X19" s="246"/>
+      <c r="Y19" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Z19" s="216"/>
-      <c r="AA19" s="216"/>
-      <c r="AB19" s="216"/>
-      <c r="AC19" s="217"/>
-      <c r="AD19" s="225" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE19" s="226"/>
-      <c r="AF19" s="226"/>
-      <c r="AG19" s="226"/>
-      <c r="AH19" s="226"/>
-      <c r="AI19" s="226"/>
-      <c r="AJ19" s="226"/>
-      <c r="AK19" s="226"/>
-      <c r="AL19" s="226"/>
-      <c r="AM19" s="227"/>
-      <c r="AN19" s="225" t="s">
+      <c r="Z19" s="245"/>
+      <c r="AA19" s="245"/>
+      <c r="AB19" s="245"/>
+      <c r="AC19" s="246"/>
+      <c r="AD19" s="309" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE19" s="310"/>
+      <c r="AF19" s="310"/>
+      <c r="AG19" s="310"/>
+      <c r="AH19" s="310"/>
+      <c r="AI19" s="310"/>
+      <c r="AJ19" s="310"/>
+      <c r="AK19" s="310"/>
+      <c r="AL19" s="310"/>
+      <c r="AM19" s="311"/>
+      <c r="AN19" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO19" s="227"/>
-      <c r="AP19" s="225">
+      <c r="AO19" s="250"/>
+      <c r="AP19" s="248">
         <v>25</v>
       </c>
-      <c r="AQ19" s="227"/>
-      <c r="AR19" s="236"/>
-      <c r="AS19" s="237"/>
-      <c r="AT19" s="237"/>
-      <c r="AU19" s="238"/>
-      <c r="AV19" s="228"/>
-      <c r="AW19" s="229"/>
-      <c r="AX19" s="229"/>
-      <c r="AY19" s="229"/>
-      <c r="AZ19" s="229"/>
-      <c r="BA19" s="229"/>
-      <c r="BB19" s="229"/>
-      <c r="BC19" s="229"/>
-      <c r="BD19" s="229"/>
-      <c r="BE19" s="229"/>
-      <c r="BF19" s="229"/>
-      <c r="BG19" s="229"/>
-      <c r="BH19" s="230"/>
+      <c r="AQ19" s="250"/>
+      <c r="AR19" s="239"/>
+      <c r="AS19" s="240"/>
+      <c r="AT19" s="240"/>
+      <c r="AU19" s="241"/>
+      <c r="AV19" s="312" t="s">
+        <v>605</v>
+      </c>
+      <c r="AW19" s="313"/>
+      <c r="AX19" s="313"/>
+      <c r="AY19" s="313"/>
+      <c r="AZ19" s="313"/>
+      <c r="BA19" s="313"/>
+      <c r="BB19" s="313"/>
+      <c r="BC19" s="313"/>
+      <c r="BD19" s="313"/>
+      <c r="BE19" s="313"/>
+      <c r="BF19" s="313"/>
+      <c r="BG19" s="313"/>
+      <c r="BH19" s="314"/>
     </row>
     <row r="20" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="169">
@@ -18745,66 +18830,66 @@
         <v>2</v>
       </c>
       <c r="N20" s="174"/>
-      <c r="O20" s="231" t="s">
+      <c r="O20" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="232"/>
-      <c r="Q20" s="233" t="s">
+      <c r="P20" s="243"/>
+      <c r="Q20" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="R20" s="216"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="216"/>
-      <c r="U20" s="216"/>
-      <c r="V20" s="216"/>
-      <c r="W20" s="216"/>
-      <c r="X20" s="217"/>
-      <c r="Y20" s="234" t="s">
+      <c r="R20" s="245"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="245"/>
+      <c r="W20" s="245"/>
+      <c r="X20" s="246"/>
+      <c r="Y20" s="247" t="s">
         <v>163</v>
       </c>
-      <c r="Z20" s="216"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="225" t="s">
+      <c r="Z20" s="245"/>
+      <c r="AA20" s="245"/>
+      <c r="AB20" s="245"/>
+      <c r="AC20" s="246"/>
+      <c r="AD20" s="248" t="s">
         <v>191</v>
       </c>
-      <c r="AE20" s="226"/>
-      <c r="AF20" s="226"/>
-      <c r="AG20" s="226"/>
-      <c r="AH20" s="226"/>
-      <c r="AI20" s="226"/>
-      <c r="AJ20" s="226"/>
-      <c r="AK20" s="226"/>
-      <c r="AL20" s="226"/>
-      <c r="AM20" s="227"/>
-      <c r="AN20" s="225" t="s">
+      <c r="AE20" s="249"/>
+      <c r="AF20" s="249"/>
+      <c r="AG20" s="249"/>
+      <c r="AH20" s="249"/>
+      <c r="AI20" s="249"/>
+      <c r="AJ20" s="249"/>
+      <c r="AK20" s="249"/>
+      <c r="AL20" s="249"/>
+      <c r="AM20" s="250"/>
+      <c r="AN20" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="AO20" s="227"/>
-      <c r="AP20" s="225">
+      <c r="AO20" s="250"/>
+      <c r="AP20" s="248">
         <v>8</v>
       </c>
-      <c r="AQ20" s="227"/>
-      <c r="AR20" s="239" t="s">
+      <c r="AQ20" s="250"/>
+      <c r="AR20" s="251" t="s">
         <v>192</v>
       </c>
-      <c r="AS20" s="226"/>
-      <c r="AT20" s="226"/>
-      <c r="AU20" s="227"/>
-      <c r="AV20" s="228"/>
-      <c r="AW20" s="229"/>
-      <c r="AX20" s="229"/>
-      <c r="AY20" s="229"/>
-      <c r="AZ20" s="229"/>
-      <c r="BA20" s="229"/>
-      <c r="BB20" s="229"/>
-      <c r="BC20" s="229"/>
-      <c r="BD20" s="229"/>
-      <c r="BE20" s="229"/>
-      <c r="BF20" s="229"/>
-      <c r="BG20" s="229"/>
-      <c r="BH20" s="230"/>
+      <c r="AS20" s="249"/>
+      <c r="AT20" s="249"/>
+      <c r="AU20" s="250"/>
+      <c r="AV20" s="252"/>
+      <c r="AW20" s="253"/>
+      <c r="AX20" s="253"/>
+      <c r="AY20" s="253"/>
+      <c r="AZ20" s="253"/>
+      <c r="BA20" s="253"/>
+      <c r="BB20" s="253"/>
+      <c r="BC20" s="253"/>
+      <c r="BD20" s="253"/>
+      <c r="BE20" s="253"/>
+      <c r="BF20" s="253"/>
+      <c r="BG20" s="253"/>
+      <c r="BH20" s="254"/>
     </row>
     <row r="21" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="169">
@@ -18826,64 +18911,64 @@
         <v>3</v>
       </c>
       <c r="N21" s="174"/>
-      <c r="O21" s="231" t="s">
+      <c r="O21" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P21" s="232"/>
-      <c r="Q21" s="233" t="s">
+      <c r="P21" s="243"/>
+      <c r="Q21" s="244" t="s">
         <v>170</v>
       </c>
-      <c r="R21" s="216"/>
-      <c r="S21" s="216"/>
-      <c r="T21" s="216"/>
-      <c r="U21" s="216"/>
-      <c r="V21" s="216"/>
-      <c r="W21" s="216"/>
-      <c r="X21" s="217"/>
-      <c r="Y21" s="235" t="s">
+      <c r="R21" s="245"/>
+      <c r="S21" s="245"/>
+      <c r="T21" s="245"/>
+      <c r="U21" s="245"/>
+      <c r="V21" s="245"/>
+      <c r="W21" s="245"/>
+      <c r="X21" s="246"/>
+      <c r="Y21" s="255" t="s">
         <v>164</v>
       </c>
-      <c r="Z21" s="216"/>
-      <c r="AA21" s="216"/>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="217"/>
-      <c r="AD21" s="225" t="s">
+      <c r="Z21" s="245"/>
+      <c r="AA21" s="245"/>
+      <c r="AB21" s="245"/>
+      <c r="AC21" s="246"/>
+      <c r="AD21" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="AE21" s="226"/>
-      <c r="AF21" s="226"/>
-      <c r="AG21" s="226"/>
-      <c r="AH21" s="226"/>
-      <c r="AI21" s="226"/>
-      <c r="AJ21" s="226"/>
-      <c r="AK21" s="226"/>
-      <c r="AL21" s="226"/>
-      <c r="AM21" s="227"/>
-      <c r="AN21" s="225" t="s">
+      <c r="AE21" s="249"/>
+      <c r="AF21" s="249"/>
+      <c r="AG21" s="249"/>
+      <c r="AH21" s="249"/>
+      <c r="AI21" s="249"/>
+      <c r="AJ21" s="249"/>
+      <c r="AK21" s="249"/>
+      <c r="AL21" s="249"/>
+      <c r="AM21" s="250"/>
+      <c r="AN21" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO21" s="227"/>
-      <c r="AP21" s="225">
+      <c r="AO21" s="250"/>
+      <c r="AP21" s="248">
         <v>25</v>
       </c>
-      <c r="AQ21" s="227"/>
-      <c r="AR21" s="225"/>
-      <c r="AS21" s="226"/>
-      <c r="AT21" s="226"/>
-      <c r="AU21" s="227"/>
-      <c r="AV21" s="228"/>
-      <c r="AW21" s="229"/>
-      <c r="AX21" s="229"/>
-      <c r="AY21" s="229"/>
-      <c r="AZ21" s="229"/>
-      <c r="BA21" s="229"/>
-      <c r="BB21" s="229"/>
-      <c r="BC21" s="229"/>
-      <c r="BD21" s="229"/>
-      <c r="BE21" s="229"/>
-      <c r="BF21" s="229"/>
-      <c r="BG21" s="229"/>
-      <c r="BH21" s="230"/>
+      <c r="AQ21" s="250"/>
+      <c r="AR21" s="248"/>
+      <c r="AS21" s="249"/>
+      <c r="AT21" s="249"/>
+      <c r="AU21" s="250"/>
+      <c r="AV21" s="252"/>
+      <c r="AW21" s="253"/>
+      <c r="AX21" s="253"/>
+      <c r="AY21" s="253"/>
+      <c r="AZ21" s="253"/>
+      <c r="BA21" s="253"/>
+      <c r="BB21" s="253"/>
+      <c r="BC21" s="253"/>
+      <c r="BD21" s="253"/>
+      <c r="BE21" s="253"/>
+      <c r="BF21" s="253"/>
+      <c r="BG21" s="253"/>
+      <c r="BH21" s="254"/>
     </row>
     <row r="22" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="169">
@@ -18905,64 +18990,64 @@
         <v>4</v>
       </c>
       <c r="N22" s="174"/>
-      <c r="O22" s="231" t="s">
+      <c r="O22" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="232"/>
-      <c r="Q22" s="233" t="s">
+      <c r="P22" s="243"/>
+      <c r="Q22" s="244" t="s">
         <v>160</v>
       </c>
-      <c r="R22" s="216"/>
-      <c r="S22" s="216"/>
-      <c r="T22" s="216"/>
-      <c r="U22" s="216"/>
-      <c r="V22" s="216"/>
-      <c r="W22" s="216"/>
-      <c r="X22" s="217"/>
-      <c r="Y22" s="234" t="s">
+      <c r="R22" s="245"/>
+      <c r="S22" s="245"/>
+      <c r="T22" s="245"/>
+      <c r="U22" s="245"/>
+      <c r="V22" s="245"/>
+      <c r="W22" s="245"/>
+      <c r="X22" s="246"/>
+      <c r="Y22" s="247" t="s">
         <v>165</v>
       </c>
-      <c r="Z22" s="216"/>
-      <c r="AA22" s="216"/>
-      <c r="AB22" s="216"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="225" t="s">
+      <c r="Z22" s="245"/>
+      <c r="AA22" s="245"/>
+      <c r="AB22" s="245"/>
+      <c r="AC22" s="246"/>
+      <c r="AD22" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="AE22" s="226"/>
-      <c r="AF22" s="226"/>
-      <c r="AG22" s="226"/>
-      <c r="AH22" s="226"/>
-      <c r="AI22" s="226"/>
-      <c r="AJ22" s="226"/>
-      <c r="AK22" s="226"/>
-      <c r="AL22" s="226"/>
-      <c r="AM22" s="227"/>
-      <c r="AN22" s="225" t="s">
+      <c r="AE22" s="249"/>
+      <c r="AF22" s="249"/>
+      <c r="AG22" s="249"/>
+      <c r="AH22" s="249"/>
+      <c r="AI22" s="249"/>
+      <c r="AJ22" s="249"/>
+      <c r="AK22" s="249"/>
+      <c r="AL22" s="249"/>
+      <c r="AM22" s="250"/>
+      <c r="AN22" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO22" s="227"/>
-      <c r="AP22" s="225">
+      <c r="AO22" s="250"/>
+      <c r="AP22" s="248">
         <v>25</v>
       </c>
-      <c r="AQ22" s="227"/>
-      <c r="AR22" s="225"/>
-      <c r="AS22" s="226"/>
-      <c r="AT22" s="226"/>
-      <c r="AU22" s="227"/>
-      <c r="AV22" s="228"/>
-      <c r="AW22" s="229"/>
-      <c r="AX22" s="229"/>
-      <c r="AY22" s="229"/>
-      <c r="AZ22" s="229"/>
-      <c r="BA22" s="229"/>
-      <c r="BB22" s="229"/>
-      <c r="BC22" s="229"/>
-      <c r="BD22" s="229"/>
-      <c r="BE22" s="229"/>
-      <c r="BF22" s="229"/>
-      <c r="BG22" s="229"/>
-      <c r="BH22" s="230"/>
+      <c r="AQ22" s="250"/>
+      <c r="AR22" s="248"/>
+      <c r="AS22" s="249"/>
+      <c r="AT22" s="249"/>
+      <c r="AU22" s="250"/>
+      <c r="AV22" s="252"/>
+      <c r="AW22" s="253"/>
+      <c r="AX22" s="253"/>
+      <c r="AY22" s="253"/>
+      <c r="AZ22" s="253"/>
+      <c r="BA22" s="253"/>
+      <c r="BB22" s="253"/>
+      <c r="BC22" s="253"/>
+      <c r="BD22" s="253"/>
+      <c r="BE22" s="253"/>
+      <c r="BF22" s="253"/>
+      <c r="BG22" s="253"/>
+      <c r="BH22" s="254"/>
     </row>
     <row r="23" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="169">
@@ -18984,64 +19069,64 @@
         <v>5</v>
       </c>
       <c r="N23" s="174"/>
-      <c r="O23" s="231" t="s">
+      <c r="O23" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="233" t="s">
+      <c r="P23" s="243"/>
+      <c r="Q23" s="244" t="s">
         <v>160</v>
       </c>
-      <c r="R23" s="216"/>
-      <c r="S23" s="216"/>
-      <c r="T23" s="216"/>
-      <c r="U23" s="216"/>
-      <c r="V23" s="216"/>
-      <c r="W23" s="216"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="234" t="s">
+      <c r="R23" s="245"/>
+      <c r="S23" s="245"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="245"/>
+      <c r="V23" s="245"/>
+      <c r="W23" s="245"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="247" t="s">
         <v>166</v>
       </c>
-      <c r="Z23" s="216"/>
-      <c r="AA23" s="216"/>
-      <c r="AB23" s="216"/>
-      <c r="AC23" s="217"/>
-      <c r="AD23" s="225" t="s">
+      <c r="Z23" s="245"/>
+      <c r="AA23" s="245"/>
+      <c r="AB23" s="245"/>
+      <c r="AC23" s="246"/>
+      <c r="AD23" s="248" t="s">
         <v>204</v>
       </c>
-      <c r="AE23" s="226"/>
-      <c r="AF23" s="226"/>
-      <c r="AG23" s="226"/>
-      <c r="AH23" s="226"/>
-      <c r="AI23" s="226"/>
-      <c r="AJ23" s="226"/>
-      <c r="AK23" s="226"/>
-      <c r="AL23" s="226"/>
-      <c r="AM23" s="227"/>
-      <c r="AN23" s="225" t="s">
+      <c r="AE23" s="249"/>
+      <c r="AF23" s="249"/>
+      <c r="AG23" s="249"/>
+      <c r="AH23" s="249"/>
+      <c r="AI23" s="249"/>
+      <c r="AJ23" s="249"/>
+      <c r="AK23" s="249"/>
+      <c r="AL23" s="249"/>
+      <c r="AM23" s="250"/>
+      <c r="AN23" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO23" s="227"/>
-      <c r="AP23" s="225">
+      <c r="AO23" s="250"/>
+      <c r="AP23" s="248">
         <v>25</v>
       </c>
-      <c r="AQ23" s="227"/>
-      <c r="AR23" s="225"/>
-      <c r="AS23" s="226"/>
-      <c r="AT23" s="226"/>
-      <c r="AU23" s="227"/>
-      <c r="AV23" s="228"/>
-      <c r="AW23" s="229"/>
-      <c r="AX23" s="229"/>
-      <c r="AY23" s="229"/>
-      <c r="AZ23" s="229"/>
-      <c r="BA23" s="229"/>
-      <c r="BB23" s="229"/>
-      <c r="BC23" s="229"/>
-      <c r="BD23" s="229"/>
-      <c r="BE23" s="229"/>
-      <c r="BF23" s="229"/>
-      <c r="BG23" s="229"/>
-      <c r="BH23" s="230"/>
+      <c r="AQ23" s="250"/>
+      <c r="AR23" s="248"/>
+      <c r="AS23" s="249"/>
+      <c r="AT23" s="249"/>
+      <c r="AU23" s="250"/>
+      <c r="AV23" s="252"/>
+      <c r="AW23" s="253"/>
+      <c r="AX23" s="253"/>
+      <c r="AY23" s="253"/>
+      <c r="AZ23" s="253"/>
+      <c r="BA23" s="253"/>
+      <c r="BB23" s="253"/>
+      <c r="BC23" s="253"/>
+      <c r="BD23" s="253"/>
+      <c r="BE23" s="253"/>
+      <c r="BF23" s="253"/>
+      <c r="BG23" s="253"/>
+      <c r="BH23" s="254"/>
     </row>
     <row r="24" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="169">
@@ -19063,64 +19148,64 @@
         <v>6</v>
       </c>
       <c r="N24" s="174"/>
-      <c r="O24" s="231" t="s">
+      <c r="O24" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="233" t="s">
+      <c r="P24" s="243"/>
+      <c r="Q24" s="244" t="s">
         <v>160</v>
       </c>
-      <c r="R24" s="216"/>
-      <c r="S24" s="216"/>
-      <c r="T24" s="216"/>
-      <c r="U24" s="216"/>
-      <c r="V24" s="216"/>
-      <c r="W24" s="216"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="234" t="s">
+      <c r="R24" s="245"/>
+      <c r="S24" s="245"/>
+      <c r="T24" s="245"/>
+      <c r="U24" s="245"/>
+      <c r="V24" s="245"/>
+      <c r="W24" s="245"/>
+      <c r="X24" s="246"/>
+      <c r="Y24" s="247" t="s">
         <v>167</v>
       </c>
-      <c r="Z24" s="216"/>
-      <c r="AA24" s="216"/>
-      <c r="AB24" s="216"/>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="225" t="s">
+      <c r="Z24" s="245"/>
+      <c r="AA24" s="245"/>
+      <c r="AB24" s="245"/>
+      <c r="AC24" s="246"/>
+      <c r="AD24" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="AE24" s="226"/>
-      <c r="AF24" s="226"/>
-      <c r="AG24" s="226"/>
-      <c r="AH24" s="226"/>
-      <c r="AI24" s="226"/>
-      <c r="AJ24" s="226"/>
-      <c r="AK24" s="226"/>
-      <c r="AL24" s="226"/>
-      <c r="AM24" s="227"/>
-      <c r="AN24" s="225" t="s">
+      <c r="AE24" s="249"/>
+      <c r="AF24" s="249"/>
+      <c r="AG24" s="249"/>
+      <c r="AH24" s="249"/>
+      <c r="AI24" s="249"/>
+      <c r="AJ24" s="249"/>
+      <c r="AK24" s="249"/>
+      <c r="AL24" s="249"/>
+      <c r="AM24" s="250"/>
+      <c r="AN24" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO24" s="227"/>
-      <c r="AP24" s="225">
+      <c r="AO24" s="250"/>
+      <c r="AP24" s="248">
         <v>25</v>
       </c>
-      <c r="AQ24" s="227"/>
-      <c r="AR24" s="225"/>
-      <c r="AS24" s="226"/>
-      <c r="AT24" s="226"/>
-      <c r="AU24" s="227"/>
-      <c r="AV24" s="228"/>
-      <c r="AW24" s="229"/>
-      <c r="AX24" s="229"/>
-      <c r="AY24" s="229"/>
-      <c r="AZ24" s="229"/>
-      <c r="BA24" s="229"/>
-      <c r="BB24" s="229"/>
-      <c r="BC24" s="229"/>
-      <c r="BD24" s="229"/>
-      <c r="BE24" s="229"/>
-      <c r="BF24" s="229"/>
-      <c r="BG24" s="229"/>
-      <c r="BH24" s="230"/>
+      <c r="AQ24" s="250"/>
+      <c r="AR24" s="248"/>
+      <c r="AS24" s="249"/>
+      <c r="AT24" s="249"/>
+      <c r="AU24" s="250"/>
+      <c r="AV24" s="252"/>
+      <c r="AW24" s="253"/>
+      <c r="AX24" s="253"/>
+      <c r="AY24" s="253"/>
+      <c r="AZ24" s="253"/>
+      <c r="BA24" s="253"/>
+      <c r="BB24" s="253"/>
+      <c r="BC24" s="253"/>
+      <c r="BD24" s="253"/>
+      <c r="BE24" s="253"/>
+      <c r="BF24" s="253"/>
+      <c r="BG24" s="253"/>
+      <c r="BH24" s="254"/>
     </row>
     <row r="25" spans="2:60" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="169">
@@ -19142,64 +19227,64 @@
         <v>7</v>
       </c>
       <c r="N25" s="174"/>
-      <c r="O25" s="231" t="s">
+      <c r="O25" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="233" t="s">
+      <c r="P25" s="243"/>
+      <c r="Q25" s="244" t="s">
         <v>160</v>
       </c>
-      <c r="R25" s="216"/>
-      <c r="S25" s="216"/>
-      <c r="T25" s="216"/>
-      <c r="U25" s="216"/>
-      <c r="V25" s="216"/>
-      <c r="W25" s="216"/>
-      <c r="X25" s="217"/>
-      <c r="Y25" s="234" t="s">
+      <c r="R25" s="245"/>
+      <c r="S25" s="245"/>
+      <c r="T25" s="245"/>
+      <c r="U25" s="245"/>
+      <c r="V25" s="245"/>
+      <c r="W25" s="245"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="247" t="s">
         <v>168</v>
       </c>
-      <c r="Z25" s="216"/>
-      <c r="AA25" s="216"/>
-      <c r="AB25" s="216"/>
-      <c r="AC25" s="217"/>
-      <c r="AD25" s="225" t="s">
+      <c r="Z25" s="245"/>
+      <c r="AA25" s="245"/>
+      <c r="AB25" s="245"/>
+      <c r="AC25" s="246"/>
+      <c r="AD25" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="AE25" s="226"/>
-      <c r="AF25" s="226"/>
-      <c r="AG25" s="226"/>
-      <c r="AH25" s="226"/>
-      <c r="AI25" s="226"/>
-      <c r="AJ25" s="226"/>
-      <c r="AK25" s="226"/>
-      <c r="AL25" s="226"/>
-      <c r="AM25" s="227"/>
-      <c r="AN25" s="225" t="s">
+      <c r="AE25" s="249"/>
+      <c r="AF25" s="249"/>
+      <c r="AG25" s="249"/>
+      <c r="AH25" s="249"/>
+      <c r="AI25" s="249"/>
+      <c r="AJ25" s="249"/>
+      <c r="AK25" s="249"/>
+      <c r="AL25" s="249"/>
+      <c r="AM25" s="250"/>
+      <c r="AN25" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO25" s="227"/>
-      <c r="AP25" s="225">
+      <c r="AO25" s="250"/>
+      <c r="AP25" s="248">
         <v>25</v>
       </c>
-      <c r="AQ25" s="227"/>
-      <c r="AR25" s="225"/>
-      <c r="AS25" s="226"/>
-      <c r="AT25" s="226"/>
-      <c r="AU25" s="227"/>
-      <c r="AV25" s="228"/>
-      <c r="AW25" s="229"/>
-      <c r="AX25" s="229"/>
-      <c r="AY25" s="229"/>
-      <c r="AZ25" s="229"/>
-      <c r="BA25" s="229"/>
-      <c r="BB25" s="229"/>
-      <c r="BC25" s="229"/>
-      <c r="BD25" s="229"/>
-      <c r="BE25" s="229"/>
-      <c r="BF25" s="229"/>
-      <c r="BG25" s="229"/>
-      <c r="BH25" s="230"/>
+      <c r="AQ25" s="250"/>
+      <c r="AR25" s="248"/>
+      <c r="AS25" s="249"/>
+      <c r="AT25" s="249"/>
+      <c r="AU25" s="250"/>
+      <c r="AV25" s="252"/>
+      <c r="AW25" s="253"/>
+      <c r="AX25" s="253"/>
+      <c r="AY25" s="253"/>
+      <c r="AZ25" s="253"/>
+      <c r="BA25" s="253"/>
+      <c r="BB25" s="253"/>
+      <c r="BC25" s="253"/>
+      <c r="BD25" s="253"/>
+      <c r="BE25" s="253"/>
+      <c r="BF25" s="253"/>
+      <c r="BG25" s="253"/>
+      <c r="BH25" s="254"/>
     </row>
     <row r="26" spans="2:60" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="169">
@@ -19217,62 +19302,62 @@
       <c r="L26" s="174"/>
       <c r="M26" s="171"/>
       <c r="N26" s="174"/>
-      <c r="O26" s="231" t="s">
+      <c r="O26" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="233" t="s">
+      <c r="P26" s="243"/>
+      <c r="Q26" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="R26" s="216"/>
-      <c r="S26" s="216"/>
-      <c r="T26" s="216"/>
-      <c r="U26" s="216"/>
-      <c r="V26" s="216"/>
-      <c r="W26" s="216"/>
-      <c r="X26" s="217"/>
-      <c r="Y26" s="234" t="s">
+      <c r="R26" s="245"/>
+      <c r="S26" s="245"/>
+      <c r="T26" s="245"/>
+      <c r="U26" s="245"/>
+      <c r="V26" s="245"/>
+      <c r="W26" s="245"/>
+      <c r="X26" s="246"/>
+      <c r="Y26" s="247" t="s">
         <v>171</v>
       </c>
-      <c r="Z26" s="216"/>
-      <c r="AA26" s="216"/>
-      <c r="AB26" s="216"/>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="225" t="s">
+      <c r="Z26" s="245"/>
+      <c r="AA26" s="245"/>
+      <c r="AB26" s="245"/>
+      <c r="AC26" s="246"/>
+      <c r="AD26" s="248" t="s">
         <v>169</v>
       </c>
-      <c r="AE26" s="226"/>
-      <c r="AF26" s="226"/>
-      <c r="AG26" s="226"/>
-      <c r="AH26" s="226"/>
-      <c r="AI26" s="226"/>
-      <c r="AJ26" s="226"/>
-      <c r="AK26" s="226"/>
-      <c r="AL26" s="226"/>
-      <c r="AM26" s="227"/>
-      <c r="AN26" s="225" t="s">
+      <c r="AE26" s="249"/>
+      <c r="AF26" s="249"/>
+      <c r="AG26" s="249"/>
+      <c r="AH26" s="249"/>
+      <c r="AI26" s="249"/>
+      <c r="AJ26" s="249"/>
+      <c r="AK26" s="249"/>
+      <c r="AL26" s="249"/>
+      <c r="AM26" s="250"/>
+      <c r="AN26" s="248" t="s">
         <v>173</v>
       </c>
-      <c r="AO26" s="227"/>
-      <c r="AP26" s="225"/>
-      <c r="AQ26" s="227"/>
-      <c r="AR26" s="225"/>
-      <c r="AS26" s="226"/>
-      <c r="AT26" s="226"/>
-      <c r="AU26" s="227"/>
-      <c r="AV26" s="228"/>
-      <c r="AW26" s="229"/>
-      <c r="AX26" s="229"/>
-      <c r="AY26" s="229"/>
-      <c r="AZ26" s="229"/>
-      <c r="BA26" s="229"/>
-      <c r="BB26" s="229"/>
-      <c r="BC26" s="229"/>
-      <c r="BD26" s="229"/>
-      <c r="BE26" s="229"/>
-      <c r="BF26" s="229"/>
-      <c r="BG26" s="229"/>
-      <c r="BH26" s="230"/>
+      <c r="AO26" s="250"/>
+      <c r="AP26" s="248"/>
+      <c r="AQ26" s="250"/>
+      <c r="AR26" s="248"/>
+      <c r="AS26" s="249"/>
+      <c r="AT26" s="249"/>
+      <c r="AU26" s="250"/>
+      <c r="AV26" s="252"/>
+      <c r="AW26" s="253"/>
+      <c r="AX26" s="253"/>
+      <c r="AY26" s="253"/>
+      <c r="AZ26" s="253"/>
+      <c r="BA26" s="253"/>
+      <c r="BB26" s="253"/>
+      <c r="BC26" s="253"/>
+      <c r="BD26" s="253"/>
+      <c r="BE26" s="253"/>
+      <c r="BF26" s="253"/>
+      <c r="BG26" s="253"/>
+      <c r="BH26" s="254"/>
     </row>
     <row r="27" spans="2:60" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="169">
@@ -19294,64 +19379,64 @@
         <v>8</v>
       </c>
       <c r="N27" s="174"/>
-      <c r="O27" s="231" t="s">
+      <c r="O27" s="242" t="s">
         <v>110</v>
       </c>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="233" t="s">
+      <c r="P27" s="243"/>
+      <c r="Q27" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="R27" s="216"/>
-      <c r="S27" s="216"/>
-      <c r="T27" s="216"/>
-      <c r="U27" s="216"/>
-      <c r="V27" s="216"/>
-      <c r="W27" s="216"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="234" t="s">
+      <c r="R27" s="245"/>
+      <c r="S27" s="245"/>
+      <c r="T27" s="245"/>
+      <c r="U27" s="245"/>
+      <c r="V27" s="245"/>
+      <c r="W27" s="245"/>
+      <c r="X27" s="246"/>
+      <c r="Y27" s="247" t="s">
         <v>174</v>
       </c>
-      <c r="Z27" s="216"/>
-      <c r="AA27" s="216"/>
-      <c r="AB27" s="216"/>
-      <c r="AC27" s="217"/>
-      <c r="AD27" s="225" t="s">
+      <c r="Z27" s="245"/>
+      <c r="AA27" s="245"/>
+      <c r="AB27" s="245"/>
+      <c r="AC27" s="246"/>
+      <c r="AD27" s="248" t="s">
         <v>197</v>
       </c>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="226"/>
-      <c r="AH27" s="226"/>
-      <c r="AI27" s="226"/>
-      <c r="AJ27" s="226"/>
-      <c r="AK27" s="226"/>
-      <c r="AL27" s="226"/>
-      <c r="AM27" s="227"/>
-      <c r="AN27" s="225" t="s">
+      <c r="AE27" s="249"/>
+      <c r="AF27" s="249"/>
+      <c r="AG27" s="249"/>
+      <c r="AH27" s="249"/>
+      <c r="AI27" s="249"/>
+      <c r="AJ27" s="249"/>
+      <c r="AK27" s="249"/>
+      <c r="AL27" s="249"/>
+      <c r="AM27" s="250"/>
+      <c r="AN27" s="248" t="s">
         <v>172</v>
       </c>
-      <c r="AO27" s="227"/>
-      <c r="AP27" s="225">
+      <c r="AO27" s="250"/>
+      <c r="AP27" s="248">
         <v>1</v>
       </c>
-      <c r="AQ27" s="227"/>
-      <c r="AR27" s="225"/>
-      <c r="AS27" s="226"/>
-      <c r="AT27" s="226"/>
-      <c r="AU27" s="227"/>
-      <c r="AV27" s="228"/>
-      <c r="AW27" s="229"/>
-      <c r="AX27" s="229"/>
-      <c r="AY27" s="229"/>
-      <c r="AZ27" s="229"/>
-      <c r="BA27" s="229"/>
-      <c r="BB27" s="229"/>
-      <c r="BC27" s="229"/>
-      <c r="BD27" s="229"/>
-      <c r="BE27" s="229"/>
-      <c r="BF27" s="229"/>
-      <c r="BG27" s="229"/>
-      <c r="BH27" s="230"/>
+      <c r="AQ27" s="250"/>
+      <c r="AR27" s="248"/>
+      <c r="AS27" s="249"/>
+      <c r="AT27" s="249"/>
+      <c r="AU27" s="250"/>
+      <c r="AV27" s="252"/>
+      <c r="AW27" s="253"/>
+      <c r="AX27" s="253"/>
+      <c r="AY27" s="253"/>
+      <c r="AZ27" s="253"/>
+      <c r="BA27" s="253"/>
+      <c r="BB27" s="253"/>
+      <c r="BC27" s="253"/>
+      <c r="BD27" s="253"/>
+      <c r="BE27" s="253"/>
+      <c r="BF27" s="253"/>
+      <c r="BG27" s="253"/>
+      <c r="BH27" s="254"/>
     </row>
     <row r="28" spans="2:60" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="169">
@@ -19369,60 +19454,60 @@
       <c r="L28" s="174"/>
       <c r="M28" s="171"/>
       <c r="N28" s="174"/>
-      <c r="O28" s="231"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="233"/>
-      <c r="R28" s="216"/>
-      <c r="S28" s="216"/>
-      <c r="T28" s="216"/>
-      <c r="U28" s="216"/>
-      <c r="V28" s="216"/>
-      <c r="W28" s="216"/>
-      <c r="X28" s="217"/>
-      <c r="Y28" s="234"/>
-      <c r="Z28" s="216"/>
-      <c r="AA28" s="216"/>
-      <c r="AB28" s="216"/>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="225" t="s">
+      <c r="O28" s="242"/>
+      <c r="P28" s="243"/>
+      <c r="Q28" s="244"/>
+      <c r="R28" s="245"/>
+      <c r="S28" s="245"/>
+      <c r="T28" s="245"/>
+      <c r="U28" s="245"/>
+      <c r="V28" s="245"/>
+      <c r="W28" s="245"/>
+      <c r="X28" s="246"/>
+      <c r="Y28" s="247"/>
+      <c r="Z28" s="245"/>
+      <c r="AA28" s="245"/>
+      <c r="AB28" s="245"/>
+      <c r="AC28" s="246"/>
+      <c r="AD28" s="248" t="s">
         <v>181</v>
       </c>
-      <c r="AE28" s="226"/>
-      <c r="AF28" s="226"/>
-      <c r="AG28" s="226"/>
-      <c r="AH28" s="226"/>
-      <c r="AI28" s="226"/>
-      <c r="AJ28" s="226"/>
-      <c r="AK28" s="226"/>
-      <c r="AL28" s="226"/>
-      <c r="AM28" s="227"/>
-      <c r="AN28" s="225" t="s">
+      <c r="AE28" s="249"/>
+      <c r="AF28" s="249"/>
+      <c r="AG28" s="249"/>
+      <c r="AH28" s="249"/>
+      <c r="AI28" s="249"/>
+      <c r="AJ28" s="249"/>
+      <c r="AK28" s="249"/>
+      <c r="AL28" s="249"/>
+      <c r="AM28" s="250"/>
+      <c r="AN28" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="AO28" s="227"/>
-      <c r="AP28" s="225">
+      <c r="AO28" s="250"/>
+      <c r="AP28" s="248">
         <v>14</v>
       </c>
-      <c r="AQ28" s="227"/>
-      <c r="AR28" s="225" t="s">
+      <c r="AQ28" s="250"/>
+      <c r="AR28" s="248" t="s">
         <v>175</v>
       </c>
-      <c r="AS28" s="226"/>
-      <c r="AT28" s="226"/>
-      <c r="AU28" s="227"/>
-      <c r="AV28" s="228"/>
-      <c r="AW28" s="229"/>
-      <c r="AX28" s="229"/>
-      <c r="AY28" s="229"/>
-      <c r="AZ28" s="229"/>
-      <c r="BA28" s="229"/>
-      <c r="BB28" s="229"/>
-      <c r="BC28" s="229"/>
-      <c r="BD28" s="229"/>
-      <c r="BE28" s="229"/>
-      <c r="BF28" s="229"/>
-      <c r="BG28" s="229"/>
-      <c r="BH28" s="230"/>
+      <c r="AS28" s="249"/>
+      <c r="AT28" s="249"/>
+      <c r="AU28" s="250"/>
+      <c r="AV28" s="252"/>
+      <c r="AW28" s="253"/>
+      <c r="AX28" s="253"/>
+      <c r="AY28" s="253"/>
+      <c r="AZ28" s="253"/>
+      <c r="BA28" s="253"/>
+      <c r="BB28" s="253"/>
+      <c r="BC28" s="253"/>
+      <c r="BD28" s="253"/>
+      <c r="BE28" s="253"/>
+      <c r="BF28" s="253"/>
+      <c r="BG28" s="253"/>
+      <c r="BH28" s="254"/>
     </row>
     <row r="31" spans="2:60" x14ac:dyDescent="0.15">
       <c r="B31" s="168"/>
@@ -19431,7 +19516,7 @@
       </c>
     </row>
     <row r="33" spans="2:60" x14ac:dyDescent="0.15">
-      <c r="D33" s="218" t="s">
+      <c r="D33" s="237" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="176"/>
@@ -19492,7 +19577,7 @@
       <c r="BH33" s="180"/>
     </row>
     <row r="34" spans="2:60" x14ac:dyDescent="0.15">
-      <c r="D34" s="219"/>
+      <c r="D34" s="256"/>
       <c r="E34" s="181"/>
       <c r="F34" s="182"/>
       <c r="G34" s="182"/>
@@ -19554,35 +19639,35 @@
       <c r="D35" s="169">
         <v>1</v>
       </c>
-      <c r="E35" s="215" t="s">
+      <c r="E35" s="257" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="216"/>
-      <c r="L35" s="216"/>
-      <c r="M35" s="216"/>
-      <c r="N35" s="216"/>
-      <c r="O35" s="216"/>
-      <c r="P35" s="216"/>
-      <c r="Q35" s="216"/>
-      <c r="R35" s="216"/>
-      <c r="S35" s="216"/>
-      <c r="T35" s="216"/>
-      <c r="U35" s="216"/>
-      <c r="V35" s="216"/>
-      <c r="W35" s="216"/>
-      <c r="X35" s="216"/>
-      <c r="Y35" s="216"/>
-      <c r="Z35" s="216"/>
-      <c r="AA35" s="216"/>
-      <c r="AB35" s="216"/>
-      <c r="AC35" s="216"/>
-      <c r="AD35" s="216"/>
-      <c r="AE35" s="217"/>
+      <c r="F35" s="245"/>
+      <c r="G35" s="245"/>
+      <c r="H35" s="245"/>
+      <c r="I35" s="245"/>
+      <c r="J35" s="245"/>
+      <c r="K35" s="245"/>
+      <c r="L35" s="245"/>
+      <c r="M35" s="245"/>
+      <c r="N35" s="245"/>
+      <c r="O35" s="245"/>
+      <c r="P35" s="245"/>
+      <c r="Q35" s="245"/>
+      <c r="R35" s="245"/>
+      <c r="S35" s="245"/>
+      <c r="T35" s="245"/>
+      <c r="U35" s="245"/>
+      <c r="V35" s="245"/>
+      <c r="W35" s="245"/>
+      <c r="X35" s="245"/>
+      <c r="Y35" s="245"/>
+      <c r="Z35" s="245"/>
+      <c r="AA35" s="245"/>
+      <c r="AB35" s="245"/>
+      <c r="AC35" s="245"/>
+      <c r="AD35" s="245"/>
+      <c r="AE35" s="246"/>
       <c r="AF35" s="80"/>
       <c r="AG35" s="80"/>
       <c r="AH35" s="80"/>
@@ -19617,35 +19702,35 @@
       <c r="D36" s="169">
         <v>2</v>
       </c>
-      <c r="E36" s="215" t="s">
+      <c r="E36" s="257" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="216"/>
-      <c r="L36" s="216"/>
-      <c r="M36" s="216"/>
-      <c r="N36" s="216"/>
-      <c r="O36" s="216"/>
-      <c r="P36" s="216"/>
-      <c r="Q36" s="216"/>
-      <c r="R36" s="216"/>
-      <c r="S36" s="216"/>
-      <c r="T36" s="216"/>
-      <c r="U36" s="216"/>
-      <c r="V36" s="216"/>
-      <c r="W36" s="216"/>
-      <c r="X36" s="216"/>
-      <c r="Y36" s="216"/>
-      <c r="Z36" s="216"/>
-      <c r="AA36" s="216"/>
-      <c r="AB36" s="216"/>
-      <c r="AC36" s="216"/>
-      <c r="AD36" s="216"/>
-      <c r="AE36" s="217"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="245"/>
+      <c r="H36" s="245"/>
+      <c r="I36" s="245"/>
+      <c r="J36" s="245"/>
+      <c r="K36" s="245"/>
+      <c r="L36" s="245"/>
+      <c r="M36" s="245"/>
+      <c r="N36" s="245"/>
+      <c r="O36" s="245"/>
+      <c r="P36" s="245"/>
+      <c r="Q36" s="245"/>
+      <c r="R36" s="245"/>
+      <c r="S36" s="245"/>
+      <c r="T36" s="245"/>
+      <c r="U36" s="245"/>
+      <c r="V36" s="245"/>
+      <c r="W36" s="245"/>
+      <c r="X36" s="245"/>
+      <c r="Y36" s="245"/>
+      <c r="Z36" s="245"/>
+      <c r="AA36" s="245"/>
+      <c r="AB36" s="245"/>
+      <c r="AC36" s="245"/>
+      <c r="AD36" s="245"/>
+      <c r="AE36" s="246"/>
       <c r="AF36" s="80"/>
       <c r="AG36" s="80"/>
       <c r="AH36" s="80"/>
@@ -19680,35 +19765,35 @@
       <c r="D37" s="169">
         <v>3</v>
       </c>
-      <c r="E37" s="215" t="s">
+      <c r="E37" s="257" t="s">
         <v>580</v>
       </c>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-      <c r="K37" s="223"/>
-      <c r="L37" s="223"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="223"/>
-      <c r="O37" s="223"/>
-      <c r="P37" s="223"/>
-      <c r="Q37" s="223"/>
-      <c r="R37" s="223"/>
-      <c r="S37" s="223"/>
-      <c r="T37" s="223"/>
-      <c r="U37" s="223"/>
-      <c r="V37" s="223"/>
-      <c r="W37" s="223"/>
-      <c r="X37" s="223"/>
-      <c r="Y37" s="223"/>
-      <c r="Z37" s="223"/>
-      <c r="AA37" s="223"/>
-      <c r="AB37" s="223"/>
-      <c r="AC37" s="223"/>
-      <c r="AD37" s="223"/>
-      <c r="AE37" s="224"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="258"/>
+      <c r="H37" s="258"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="258"/>
+      <c r="M37" s="258"/>
+      <c r="N37" s="258"/>
+      <c r="O37" s="258"/>
+      <c r="P37" s="258"/>
+      <c r="Q37" s="258"/>
+      <c r="R37" s="258"/>
+      <c r="S37" s="258"/>
+      <c r="T37" s="258"/>
+      <c r="U37" s="258"/>
+      <c r="V37" s="258"/>
+      <c r="W37" s="258"/>
+      <c r="X37" s="258"/>
+      <c r="Y37" s="258"/>
+      <c r="Z37" s="258"/>
+      <c r="AA37" s="258"/>
+      <c r="AB37" s="258"/>
+      <c r="AC37" s="258"/>
+      <c r="AD37" s="258"/>
+      <c r="AE37" s="259"/>
       <c r="AF37" s="80"/>
       <c r="AG37" s="80"/>
       <c r="AH37" s="80"/>
@@ -19743,35 +19828,35 @@
       <c r="D38" s="169">
         <v>4</v>
       </c>
-      <c r="E38" s="215" t="s">
+      <c r="E38" s="257" t="s">
         <v>579</v>
       </c>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="216"/>
-      <c r="K38" s="216"/>
-      <c r="L38" s="216"/>
-      <c r="M38" s="216"/>
-      <c r="N38" s="216"/>
-      <c r="O38" s="216"/>
-      <c r="P38" s="216"/>
-      <c r="Q38" s="216"/>
-      <c r="R38" s="216"/>
-      <c r="S38" s="216"/>
-      <c r="T38" s="216"/>
-      <c r="U38" s="216"/>
-      <c r="V38" s="216"/>
-      <c r="W38" s="216"/>
-      <c r="X38" s="216"/>
-      <c r="Y38" s="216"/>
-      <c r="Z38" s="216"/>
-      <c r="AA38" s="216"/>
-      <c r="AB38" s="216"/>
-      <c r="AC38" s="216"/>
-      <c r="AD38" s="216"/>
-      <c r="AE38" s="217"/>
+      <c r="F38" s="245"/>
+      <c r="G38" s="245"/>
+      <c r="H38" s="245"/>
+      <c r="I38" s="245"/>
+      <c r="J38" s="245"/>
+      <c r="K38" s="245"/>
+      <c r="L38" s="245"/>
+      <c r="M38" s="245"/>
+      <c r="N38" s="245"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="245"/>
+      <c r="Q38" s="245"/>
+      <c r="R38" s="245"/>
+      <c r="S38" s="245"/>
+      <c r="T38" s="245"/>
+      <c r="U38" s="245"/>
+      <c r="V38" s="245"/>
+      <c r="W38" s="245"/>
+      <c r="X38" s="245"/>
+      <c r="Y38" s="245"/>
+      <c r="Z38" s="245"/>
+      <c r="AA38" s="245"/>
+      <c r="AB38" s="245"/>
+      <c r="AC38" s="245"/>
+      <c r="AD38" s="245"/>
+      <c r="AE38" s="246"/>
       <c r="AF38" s="80"/>
       <c r="AG38" s="80"/>
       <c r="AH38" s="80"/>
@@ -19806,35 +19891,35 @@
       <c r="D39" s="169">
         <v>5</v>
       </c>
-      <c r="E39" s="215" t="s">
+      <c r="E39" s="257" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="216"/>
-      <c r="M39" s="216"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="216"/>
-      <c r="P39" s="216"/>
-      <c r="Q39" s="216"/>
-      <c r="R39" s="216"/>
-      <c r="S39" s="216"/>
-      <c r="T39" s="216"/>
-      <c r="U39" s="216"/>
-      <c r="V39" s="216"/>
-      <c r="W39" s="216"/>
-      <c r="X39" s="216"/>
-      <c r="Y39" s="216"/>
-      <c r="Z39" s="216"/>
-      <c r="AA39" s="216"/>
-      <c r="AB39" s="216"/>
-      <c r="AC39" s="216"/>
-      <c r="AD39" s="216"/>
-      <c r="AE39" s="217"/>
+      <c r="F39" s="245"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="245"/>
+      <c r="I39" s="245"/>
+      <c r="J39" s="245"/>
+      <c r="K39" s="245"/>
+      <c r="L39" s="245"/>
+      <c r="M39" s="245"/>
+      <c r="N39" s="245"/>
+      <c r="O39" s="245"/>
+      <c r="P39" s="245"/>
+      <c r="Q39" s="245"/>
+      <c r="R39" s="245"/>
+      <c r="S39" s="245"/>
+      <c r="T39" s="245"/>
+      <c r="U39" s="245"/>
+      <c r="V39" s="245"/>
+      <c r="W39" s="245"/>
+      <c r="X39" s="245"/>
+      <c r="Y39" s="245"/>
+      <c r="Z39" s="245"/>
+      <c r="AA39" s="245"/>
+      <c r="AB39" s="245"/>
+      <c r="AC39" s="245"/>
+      <c r="AD39" s="245"/>
+      <c r="AE39" s="246"/>
       <c r="AF39" s="80"/>
       <c r="AG39" s="80"/>
       <c r="AH39" s="80"/>
@@ -19869,35 +19954,35 @@
       <c r="D40" s="169">
         <v>6</v>
       </c>
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="257" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="216"/>
-      <c r="L40" s="216"/>
-      <c r="M40" s="216"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="216"/>
-      <c r="P40" s="216"/>
-      <c r="Q40" s="216"/>
-      <c r="R40" s="216"/>
-      <c r="S40" s="216"/>
-      <c r="T40" s="216"/>
-      <c r="U40" s="216"/>
-      <c r="V40" s="216"/>
-      <c r="W40" s="216"/>
-      <c r="X40" s="216"/>
-      <c r="Y40" s="216"/>
-      <c r="Z40" s="216"/>
-      <c r="AA40" s="216"/>
-      <c r="AB40" s="216"/>
-      <c r="AC40" s="216"/>
-      <c r="AD40" s="216"/>
-      <c r="AE40" s="217"/>
+      <c r="F40" s="245"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="245"/>
+      <c r="J40" s="245"/>
+      <c r="K40" s="245"/>
+      <c r="L40" s="245"/>
+      <c r="M40" s="245"/>
+      <c r="N40" s="245"/>
+      <c r="O40" s="245"/>
+      <c r="P40" s="245"/>
+      <c r="Q40" s="245"/>
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="245"/>
+      <c r="U40" s="245"/>
+      <c r="V40" s="245"/>
+      <c r="W40" s="245"/>
+      <c r="X40" s="245"/>
+      <c r="Y40" s="245"/>
+      <c r="Z40" s="245"/>
+      <c r="AA40" s="245"/>
+      <c r="AB40" s="245"/>
+      <c r="AC40" s="245"/>
+      <c r="AD40" s="245"/>
+      <c r="AE40" s="246"/>
       <c r="AF40" s="80"/>
       <c r="AG40" s="80"/>
       <c r="AH40" s="80"/>
@@ -19935,7 +20020,7 @@
       </c>
     </row>
     <row r="45" spans="2:60" x14ac:dyDescent="0.15">
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="237" t="s">
         <v>51</v>
       </c>
       <c r="E45" s="176"/>
@@ -19996,7 +20081,7 @@
       <c r="BH45" s="180"/>
     </row>
     <row r="46" spans="2:60" x14ac:dyDescent="0.15">
-      <c r="D46" s="219"/>
+      <c r="D46" s="256"/>
       <c r="E46" s="181"/>
       <c r="F46" s="182"/>
       <c r="G46" s="182"/>
@@ -20058,35 +20143,35 @@
       <c r="D47" s="169">
         <v>1</v>
       </c>
-      <c r="E47" s="215" t="s">
+      <c r="E47" s="257" t="s">
         <v>195</v>
       </c>
-      <c r="F47" s="216"/>
-      <c r="G47" s="216"/>
-      <c r="H47" s="216"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="216"/>
-      <c r="K47" s="216"/>
-      <c r="L47" s="216"/>
-      <c r="M47" s="216"/>
-      <c r="N47" s="216"/>
-      <c r="O47" s="216"/>
-      <c r="P47" s="216"/>
-      <c r="Q47" s="216"/>
-      <c r="R47" s="216"/>
-      <c r="S47" s="216"/>
-      <c r="T47" s="216"/>
-      <c r="U47" s="216"/>
-      <c r="V47" s="216"/>
-      <c r="W47" s="216"/>
-      <c r="X47" s="216"/>
-      <c r="Y47" s="216"/>
-      <c r="Z47" s="216"/>
-      <c r="AA47" s="216"/>
-      <c r="AB47" s="216"/>
-      <c r="AC47" s="216"/>
-      <c r="AD47" s="216"/>
-      <c r="AE47" s="217"/>
+      <c r="F47" s="245"/>
+      <c r="G47" s="245"/>
+      <c r="H47" s="245"/>
+      <c r="I47" s="245"/>
+      <c r="J47" s="245"/>
+      <c r="K47" s="245"/>
+      <c r="L47" s="245"/>
+      <c r="M47" s="245"/>
+      <c r="N47" s="245"/>
+      <c r="O47" s="245"/>
+      <c r="P47" s="245"/>
+      <c r="Q47" s="245"/>
+      <c r="R47" s="245"/>
+      <c r="S47" s="245"/>
+      <c r="T47" s="245"/>
+      <c r="U47" s="245"/>
+      <c r="V47" s="245"/>
+      <c r="W47" s="245"/>
+      <c r="X47" s="245"/>
+      <c r="Y47" s="245"/>
+      <c r="Z47" s="245"/>
+      <c r="AA47" s="245"/>
+      <c r="AB47" s="245"/>
+      <c r="AC47" s="245"/>
+      <c r="AD47" s="245"/>
+      <c r="AE47" s="246"/>
       <c r="AF47" s="80"/>
       <c r="AG47" s="80"/>
       <c r="AH47" s="80"/>
@@ -20121,35 +20206,35 @@
       <c r="D48" s="169">
         <v>2</v>
       </c>
-      <c r="E48" s="215" t="s">
+      <c r="E48" s="257" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="216"/>
-      <c r="G48" s="216"/>
-      <c r="H48" s="216"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="216"/>
-      <c r="K48" s="216"/>
-      <c r="L48" s="216"/>
-      <c r="M48" s="216"/>
-      <c r="N48" s="216"/>
-      <c r="O48" s="216"/>
-      <c r="P48" s="216"/>
-      <c r="Q48" s="216"/>
-      <c r="R48" s="216"/>
-      <c r="S48" s="216"/>
-      <c r="T48" s="216"/>
-      <c r="U48" s="216"/>
-      <c r="V48" s="216"/>
-      <c r="W48" s="216"/>
-      <c r="X48" s="216"/>
-      <c r="Y48" s="216"/>
-      <c r="Z48" s="216"/>
-      <c r="AA48" s="216"/>
-      <c r="AB48" s="216"/>
-      <c r="AC48" s="216"/>
-      <c r="AD48" s="216"/>
-      <c r="AE48" s="217"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="245"/>
+      <c r="H48" s="245"/>
+      <c r="I48" s="245"/>
+      <c r="J48" s="245"/>
+      <c r="K48" s="245"/>
+      <c r="L48" s="245"/>
+      <c r="M48" s="245"/>
+      <c r="N48" s="245"/>
+      <c r="O48" s="245"/>
+      <c r="P48" s="245"/>
+      <c r="Q48" s="245"/>
+      <c r="R48" s="245"/>
+      <c r="S48" s="245"/>
+      <c r="T48" s="245"/>
+      <c r="U48" s="245"/>
+      <c r="V48" s="245"/>
+      <c r="W48" s="245"/>
+      <c r="X48" s="245"/>
+      <c r="Y48" s="245"/>
+      <c r="Z48" s="245"/>
+      <c r="AA48" s="245"/>
+      <c r="AB48" s="245"/>
+      <c r="AC48" s="245"/>
+      <c r="AD48" s="245"/>
+      <c r="AE48" s="246"/>
       <c r="AF48" s="80"/>
       <c r="AG48" s="80"/>
       <c r="AH48" s="80"/>
@@ -20184,35 +20269,35 @@
       <c r="D49" s="169">
         <v>3</v>
       </c>
-      <c r="E49" s="215" t="s">
+      <c r="E49" s="257" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="216"/>
-      <c r="G49" s="216"/>
-      <c r="H49" s="216"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="216"/>
-      <c r="K49" s="216"/>
-      <c r="L49" s="216"/>
-      <c r="M49" s="216"/>
-      <c r="N49" s="216"/>
-      <c r="O49" s="216"/>
-      <c r="P49" s="216"/>
-      <c r="Q49" s="216"/>
-      <c r="R49" s="216"/>
-      <c r="S49" s="216"/>
-      <c r="T49" s="216"/>
-      <c r="U49" s="216"/>
-      <c r="V49" s="216"/>
-      <c r="W49" s="216"/>
-      <c r="X49" s="216"/>
-      <c r="Y49" s="216"/>
-      <c r="Z49" s="216"/>
-      <c r="AA49" s="216"/>
-      <c r="AB49" s="216"/>
-      <c r="AC49" s="216"/>
-      <c r="AD49" s="216"/>
-      <c r="AE49" s="217"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="245"/>
+      <c r="I49" s="245"/>
+      <c r="J49" s="245"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="245"/>
+      <c r="N49" s="245"/>
+      <c r="O49" s="245"/>
+      <c r="P49" s="245"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="245"/>
+      <c r="S49" s="245"/>
+      <c r="T49" s="245"/>
+      <c r="U49" s="245"/>
+      <c r="V49" s="245"/>
+      <c r="W49" s="245"/>
+      <c r="X49" s="245"/>
+      <c r="Y49" s="245"/>
+      <c r="Z49" s="245"/>
+      <c r="AA49" s="245"/>
+      <c r="AB49" s="245"/>
+      <c r="AC49" s="245"/>
+      <c r="AD49" s="245"/>
+      <c r="AE49" s="246"/>
       <c r="AF49" s="80"/>
       <c r="AG49" s="80"/>
       <c r="AH49" s="80"/>
@@ -20247,35 +20332,35 @@
       <c r="D50" s="169">
         <v>4</v>
       </c>
-      <c r="E50" s="215" t="s">
+      <c r="E50" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="216"/>
-      <c r="G50" s="216"/>
-      <c r="H50" s="216"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="216"/>
-      <c r="K50" s="216"/>
-      <c r="L50" s="216"/>
-      <c r="M50" s="216"/>
-      <c r="N50" s="216"/>
-      <c r="O50" s="216"/>
-      <c r="P50" s="216"/>
-      <c r="Q50" s="216"/>
-      <c r="R50" s="216"/>
-      <c r="S50" s="216"/>
-      <c r="T50" s="216"/>
-      <c r="U50" s="216"/>
-      <c r="V50" s="216"/>
-      <c r="W50" s="216"/>
-      <c r="X50" s="216"/>
-      <c r="Y50" s="216"/>
-      <c r="Z50" s="216"/>
-      <c r="AA50" s="216"/>
-      <c r="AB50" s="216"/>
-      <c r="AC50" s="216"/>
-      <c r="AD50" s="216"/>
-      <c r="AE50" s="217"/>
+      <c r="F50" s="245"/>
+      <c r="G50" s="245"/>
+      <c r="H50" s="245"/>
+      <c r="I50" s="245"/>
+      <c r="J50" s="245"/>
+      <c r="K50" s="245"/>
+      <c r="L50" s="245"/>
+      <c r="M50" s="245"/>
+      <c r="N50" s="245"/>
+      <c r="O50" s="245"/>
+      <c r="P50" s="245"/>
+      <c r="Q50" s="245"/>
+      <c r="R50" s="245"/>
+      <c r="S50" s="245"/>
+      <c r="T50" s="245"/>
+      <c r="U50" s="245"/>
+      <c r="V50" s="245"/>
+      <c r="W50" s="245"/>
+      <c r="X50" s="245"/>
+      <c r="Y50" s="245"/>
+      <c r="Z50" s="245"/>
+      <c r="AA50" s="245"/>
+      <c r="AB50" s="245"/>
+      <c r="AC50" s="245"/>
+      <c r="AD50" s="245"/>
+      <c r="AE50" s="246"/>
       <c r="AF50" s="80"/>
       <c r="AG50" s="80"/>
       <c r="AH50" s="80"/>
@@ -20310,35 +20395,35 @@
       <c r="D51" s="169">
         <v>5</v>
       </c>
-      <c r="E51" s="215" t="s">
+      <c r="E51" s="257" t="s">
         <v>213</v>
       </c>
-      <c r="F51" s="216"/>
-      <c r="G51" s="216"/>
-      <c r="H51" s="216"/>
-      <c r="I51" s="216"/>
-      <c r="J51" s="216"/>
-      <c r="K51" s="216"/>
-      <c r="L51" s="216"/>
-      <c r="M51" s="216"/>
-      <c r="N51" s="216"/>
-      <c r="O51" s="216"/>
-      <c r="P51" s="216"/>
-      <c r="Q51" s="216"/>
-      <c r="R51" s="216"/>
-      <c r="S51" s="216"/>
-      <c r="T51" s="216"/>
-      <c r="U51" s="216"/>
-      <c r="V51" s="216"/>
-      <c r="W51" s="216"/>
-      <c r="X51" s="216"/>
-      <c r="Y51" s="216"/>
-      <c r="Z51" s="216"/>
-      <c r="AA51" s="216"/>
-      <c r="AB51" s="216"/>
-      <c r="AC51" s="216"/>
-      <c r="AD51" s="216"/>
-      <c r="AE51" s="217"/>
+      <c r="F51" s="245"/>
+      <c r="G51" s="245"/>
+      <c r="H51" s="245"/>
+      <c r="I51" s="245"/>
+      <c r="J51" s="245"/>
+      <c r="K51" s="245"/>
+      <c r="L51" s="245"/>
+      <c r="M51" s="245"/>
+      <c r="N51" s="245"/>
+      <c r="O51" s="245"/>
+      <c r="P51" s="245"/>
+      <c r="Q51" s="245"/>
+      <c r="R51" s="245"/>
+      <c r="S51" s="245"/>
+      <c r="T51" s="245"/>
+      <c r="U51" s="245"/>
+      <c r="V51" s="245"/>
+      <c r="W51" s="245"/>
+      <c r="X51" s="245"/>
+      <c r="Y51" s="245"/>
+      <c r="Z51" s="245"/>
+      <c r="AA51" s="245"/>
+      <c r="AB51" s="245"/>
+      <c r="AC51" s="245"/>
+      <c r="AD51" s="245"/>
+      <c r="AE51" s="246"/>
       <c r="AF51" s="80"/>
       <c r="AG51" s="80"/>
       <c r="AH51" s="80"/>
@@ -20378,35 +20463,35 @@
       <c r="D53" s="169">
         <v>6</v>
       </c>
-      <c r="E53" s="215" t="s">
+      <c r="E53" s="257" t="s">
         <v>592</v>
       </c>
-      <c r="F53" s="216"/>
-      <c r="G53" s="216"/>
-      <c r="H53" s="216"/>
-      <c r="I53" s="216"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="216"/>
-      <c r="L53" s="216"/>
-      <c r="M53" s="216"/>
-      <c r="N53" s="216"/>
-      <c r="O53" s="216"/>
-      <c r="P53" s="216"/>
-      <c r="Q53" s="216"/>
-      <c r="R53" s="216"/>
-      <c r="S53" s="216"/>
-      <c r="T53" s="216"/>
-      <c r="U53" s="216"/>
-      <c r="V53" s="216"/>
-      <c r="W53" s="216"/>
-      <c r="X53" s="216"/>
-      <c r="Y53" s="216"/>
-      <c r="Z53" s="216"/>
-      <c r="AA53" s="216"/>
-      <c r="AB53" s="216"/>
-      <c r="AC53" s="216"/>
-      <c r="AD53" s="216"/>
-      <c r="AE53" s="217"/>
+      <c r="F53" s="245"/>
+      <c r="G53" s="245"/>
+      <c r="H53" s="245"/>
+      <c r="I53" s="245"/>
+      <c r="J53" s="245"/>
+      <c r="K53" s="245"/>
+      <c r="L53" s="245"/>
+      <c r="M53" s="245"/>
+      <c r="N53" s="245"/>
+      <c r="O53" s="245"/>
+      <c r="P53" s="245"/>
+      <c r="Q53" s="245"/>
+      <c r="R53" s="245"/>
+      <c r="S53" s="245"/>
+      <c r="T53" s="245"/>
+      <c r="U53" s="245"/>
+      <c r="V53" s="245"/>
+      <c r="W53" s="245"/>
+      <c r="X53" s="245"/>
+      <c r="Y53" s="245"/>
+      <c r="Z53" s="245"/>
+      <c r="AA53" s="245"/>
+      <c r="AB53" s="245"/>
+      <c r="AC53" s="245"/>
+      <c r="AD53" s="245"/>
+      <c r="AE53" s="246"/>
       <c r="AF53" s="80"/>
       <c r="AG53" s="80"/>
       <c r="AH53" s="80"/>
@@ -20446,35 +20531,35 @@
       <c r="D55" s="185">
         <v>7</v>
       </c>
-      <c r="E55" s="220" t="s">
+      <c r="E55" s="260" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="221"/>
-      <c r="G55" s="221"/>
-      <c r="H55" s="221"/>
-      <c r="I55" s="221"/>
-      <c r="J55" s="221"/>
-      <c r="K55" s="221"/>
-      <c r="L55" s="221"/>
-      <c r="M55" s="221"/>
-      <c r="N55" s="221"/>
-      <c r="O55" s="221"/>
-      <c r="P55" s="221"/>
-      <c r="Q55" s="221"/>
-      <c r="R55" s="221"/>
-      <c r="S55" s="221"/>
-      <c r="T55" s="221"/>
-      <c r="U55" s="221"/>
-      <c r="V55" s="221"/>
-      <c r="W55" s="221"/>
-      <c r="X55" s="221"/>
-      <c r="Y55" s="221"/>
-      <c r="Z55" s="221"/>
-      <c r="AA55" s="221"/>
-      <c r="AB55" s="221"/>
-      <c r="AC55" s="221"/>
-      <c r="AD55" s="221"/>
-      <c r="AE55" s="222"/>
+      <c r="F55" s="261"/>
+      <c r="G55" s="261"/>
+      <c r="H55" s="261"/>
+      <c r="I55" s="261"/>
+      <c r="J55" s="261"/>
+      <c r="K55" s="261"/>
+      <c r="L55" s="261"/>
+      <c r="M55" s="261"/>
+      <c r="N55" s="261"/>
+      <c r="O55" s="261"/>
+      <c r="P55" s="261"/>
+      <c r="Q55" s="261"/>
+      <c r="R55" s="261"/>
+      <c r="S55" s="261"/>
+      <c r="T55" s="261"/>
+      <c r="U55" s="261"/>
+      <c r="V55" s="261"/>
+      <c r="W55" s="261"/>
+      <c r="X55" s="261"/>
+      <c r="Y55" s="261"/>
+      <c r="Z55" s="261"/>
+      <c r="AA55" s="261"/>
+      <c r="AB55" s="261"/>
+      <c r="AC55" s="261"/>
+      <c r="AD55" s="261"/>
+      <c r="AE55" s="262"/>
       <c r="AF55" s="80"/>
       <c r="AG55" s="80"/>
       <c r="AH55" s="80"/>
@@ -20509,35 +20594,35 @@
       <c r="D56" s="169">
         <v>7</v>
       </c>
-      <c r="E56" s="215" t="s">
+      <c r="E56" s="257" t="s">
         <v>591</v>
       </c>
-      <c r="F56" s="216"/>
-      <c r="G56" s="216"/>
-      <c r="H56" s="216"/>
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="216"/>
-      <c r="M56" s="216"/>
-      <c r="N56" s="216"/>
-      <c r="O56" s="216"/>
-      <c r="P56" s="216"/>
-      <c r="Q56" s="216"/>
-      <c r="R56" s="216"/>
-      <c r="S56" s="216"/>
-      <c r="T56" s="216"/>
-      <c r="U56" s="216"/>
-      <c r="V56" s="216"/>
-      <c r="W56" s="216"/>
-      <c r="X56" s="216"/>
-      <c r="Y56" s="216"/>
-      <c r="Z56" s="216"/>
-      <c r="AA56" s="216"/>
-      <c r="AB56" s="216"/>
-      <c r="AC56" s="216"/>
-      <c r="AD56" s="216"/>
-      <c r="AE56" s="217"/>
+      <c r="F56" s="245"/>
+      <c r="G56" s="245"/>
+      <c r="H56" s="245"/>
+      <c r="I56" s="245"/>
+      <c r="J56" s="245"/>
+      <c r="K56" s="245"/>
+      <c r="L56" s="245"/>
+      <c r="M56" s="245"/>
+      <c r="N56" s="245"/>
+      <c r="O56" s="245"/>
+      <c r="P56" s="245"/>
+      <c r="Q56" s="245"/>
+      <c r="R56" s="245"/>
+      <c r="S56" s="245"/>
+      <c r="T56" s="245"/>
+      <c r="U56" s="245"/>
+      <c r="V56" s="245"/>
+      <c r="W56" s="245"/>
+      <c r="X56" s="245"/>
+      <c r="Y56" s="245"/>
+      <c r="Z56" s="245"/>
+      <c r="AA56" s="245"/>
+      <c r="AB56" s="245"/>
+      <c r="AC56" s="245"/>
+      <c r="AD56" s="245"/>
+      <c r="AE56" s="246"/>
       <c r="AF56" s="80"/>
       <c r="AG56" s="80"/>
       <c r="AH56" s="80"/>
@@ -20574,7 +20659,7 @@
       </c>
     </row>
     <row r="61" spans="4:60" x14ac:dyDescent="0.15">
-      <c r="D61" s="218" t="s">
+      <c r="D61" s="237" t="s">
         <v>51</v>
       </c>
       <c r="E61" s="176"/>
@@ -20606,7 +20691,7 @@
       <c r="AE61" s="179"/>
     </row>
     <row r="62" spans="4:60" x14ac:dyDescent="0.15">
-      <c r="D62" s="219"/>
+      <c r="D62" s="256"/>
       <c r="E62" s="181"/>
       <c r="F62" s="182"/>
       <c r="G62" s="182"/>
@@ -20639,116 +20724,50 @@
       <c r="D63" s="169">
         <v>1</v>
       </c>
-      <c r="E63" s="215" t="s">
+      <c r="E63" s="257" t="s">
         <v>590</v>
       </c>
-      <c r="F63" s="216"/>
-      <c r="G63" s="216"/>
-      <c r="H63" s="216"/>
-      <c r="I63" s="216"/>
-      <c r="J63" s="216"/>
-      <c r="K63" s="216"/>
-      <c r="L63" s="216"/>
-      <c r="M63" s="216"/>
-      <c r="N63" s="216"/>
-      <c r="O63" s="216"/>
-      <c r="P63" s="216"/>
-      <c r="Q63" s="216"/>
-      <c r="R63" s="216"/>
-      <c r="S63" s="216"/>
-      <c r="T63" s="216"/>
-      <c r="U63" s="216"/>
-      <c r="V63" s="216"/>
-      <c r="W63" s="216"/>
-      <c r="X63" s="216"/>
-      <c r="Y63" s="216"/>
-      <c r="Z63" s="216"/>
-      <c r="AA63" s="216"/>
-      <c r="AB63" s="216"/>
-      <c r="AC63" s="216"/>
-      <c r="AD63" s="216"/>
-      <c r="AE63" s="217"/>
+      <c r="F63" s="245"/>
+      <c r="G63" s="245"/>
+      <c r="H63" s="245"/>
+      <c r="I63" s="245"/>
+      <c r="J63" s="245"/>
+      <c r="K63" s="245"/>
+      <c r="L63" s="245"/>
+      <c r="M63" s="245"/>
+      <c r="N63" s="245"/>
+      <c r="O63" s="245"/>
+      <c r="P63" s="245"/>
+      <c r="Q63" s="245"/>
+      <c r="R63" s="245"/>
+      <c r="S63" s="245"/>
+      <c r="T63" s="245"/>
+      <c r="U63" s="245"/>
+      <c r="V63" s="245"/>
+      <c r="W63" s="245"/>
+      <c r="X63" s="245"/>
+      <c r="Y63" s="245"/>
+      <c r="Z63" s="245"/>
+      <c r="AA63" s="245"/>
+      <c r="AB63" s="245"/>
+      <c r="AC63" s="245"/>
+      <c r="AD63" s="245"/>
+      <c r="AE63" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AV17:BH18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="AD18:AM18"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:J18"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="O17:AM17"/>
-    <mergeCell ref="AN17:AU17"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="AV19:BH19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:X20"/>
-    <mergeCell ref="Y20:AC20"/>
-    <mergeCell ref="AD20:AM20"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AV20:BH20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="AD19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AV21:BH21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:X22"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="AD22:AM22"/>
-    <mergeCell ref="AN22:AO22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV22:BH22"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:X21"/>
-    <mergeCell ref="Y21:AC21"/>
-    <mergeCell ref="AD21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AR23:AU23"/>
-    <mergeCell ref="AV23:BH23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:X24"/>
-    <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="AD24:AM24"/>
-    <mergeCell ref="AN24:AO24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="AR24:AU24"/>
-    <mergeCell ref="AV24:BH24"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:X23"/>
-    <mergeCell ref="Y23:AC23"/>
-    <mergeCell ref="AD23:AM23"/>
-    <mergeCell ref="AN23:AO23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="AR25:AU25"/>
-    <mergeCell ref="AV25:BH25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="AD26:AM26"/>
-    <mergeCell ref="AN26:AO26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AR26:AU26"/>
-    <mergeCell ref="AV26:BH26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:X25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="AD25:AM25"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="E51:AE51"/>
+    <mergeCell ref="E53:AE53"/>
+    <mergeCell ref="E56:AE56"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E63:AE63"/>
+    <mergeCell ref="E55:AE55"/>
+    <mergeCell ref="E40:AE40"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E47:AE47"/>
+    <mergeCell ref="E48:AE48"/>
+    <mergeCell ref="E49:AE49"/>
+    <mergeCell ref="E50:AE50"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E35:AE35"/>
     <mergeCell ref="E36:AE36"/>
@@ -20771,18 +20790,84 @@
     <mergeCell ref="AD27:AM27"/>
     <mergeCell ref="AN27:AO27"/>
     <mergeCell ref="AP27:AQ27"/>
-    <mergeCell ref="E51:AE51"/>
-    <mergeCell ref="E53:AE53"/>
-    <mergeCell ref="E56:AE56"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E63:AE63"/>
-    <mergeCell ref="E55:AE55"/>
-    <mergeCell ref="E40:AE40"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E47:AE47"/>
-    <mergeCell ref="E48:AE48"/>
-    <mergeCell ref="E49:AE49"/>
-    <mergeCell ref="E50:AE50"/>
+    <mergeCell ref="AR25:AU25"/>
+    <mergeCell ref="AV25:BH25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:X26"/>
+    <mergeCell ref="Y26:AC26"/>
+    <mergeCell ref="AD26:AM26"/>
+    <mergeCell ref="AN26:AO26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AR26:AU26"/>
+    <mergeCell ref="AV26:BH26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:X25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="AD25:AM25"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR23:AU23"/>
+    <mergeCell ref="AV23:BH23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:X24"/>
+    <mergeCell ref="Y24:AC24"/>
+    <mergeCell ref="AD24:AM24"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="AR24:AU24"/>
+    <mergeCell ref="AV24:BH24"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:X23"/>
+    <mergeCell ref="Y23:AC23"/>
+    <mergeCell ref="AD23:AM23"/>
+    <mergeCell ref="AN23:AO23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AV21:BH21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:X22"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="AD22:AM22"/>
+    <mergeCell ref="AN22:AO22"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="AV22:BH22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:X21"/>
+    <mergeCell ref="Y21:AC21"/>
+    <mergeCell ref="AD21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="AV19:BH19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="AD20:AM20"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AV20:BH20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="AD19:AM19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AV17:BH18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AD18:AM18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="O17:AM17"/>
+    <mergeCell ref="AN17:AU17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21072,250 +21157,244 @@
     </row>
     <row r="20" spans="2:46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="2:46" x14ac:dyDescent="0.15">
-      <c r="D21" s="258" t="s">
+      <c r="D21" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
-      <c r="H21" s="258"/>
-      <c r="I21" s="258"/>
-      <c r="J21" s="258"/>
-      <c r="K21" s="258"/>
-      <c r="L21" s="258" t="s">
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="263"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="263"/>
+      <c r="K21" s="263"/>
+      <c r="L21" s="263" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="258"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="258" t="s">
+      <c r="M21" s="263"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="258"/>
-      <c r="Q21" s="258"/>
-      <c r="R21" s="258"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="258"/>
-      <c r="U21" s="258"/>
-      <c r="V21" s="258"/>
-      <c r="W21" s="258"/>
-      <c r="X21" s="258"/>
-      <c r="Y21" s="258"/>
-      <c r="Z21" s="258"/>
-      <c r="AA21" s="258"/>
-      <c r="AB21" s="258"/>
-      <c r="AC21" s="258"/>
-      <c r="AD21" s="258"/>
-      <c r="AE21" s="258"/>
-      <c r="AF21" s="258"/>
-      <c r="AG21" s="258"/>
-      <c r="AH21" s="258"/>
-      <c r="AI21" s="258"/>
-      <c r="AJ21" s="258"/>
-      <c r="AK21" s="258"/>
-      <c r="AL21" s="258"/>
-      <c r="AM21" s="258"/>
-      <c r="AN21" s="258"/>
-      <c r="AO21" s="258"/>
-      <c r="AP21" s="258"/>
-      <c r="AQ21" s="258"/>
-      <c r="AR21" s="258"/>
-      <c r="AS21" s="258"/>
-      <c r="AT21" s="258"/>
+      <c r="P21" s="263"/>
+      <c r="Q21" s="263"/>
+      <c r="R21" s="263"/>
+      <c r="S21" s="263"/>
+      <c r="T21" s="263"/>
+      <c r="U21" s="263"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="263"/>
+      <c r="X21" s="263"/>
+      <c r="Y21" s="263"/>
+      <c r="Z21" s="263"/>
+      <c r="AA21" s="263"/>
+      <c r="AB21" s="263"/>
+      <c r="AC21" s="263"/>
+      <c r="AD21" s="263"/>
+      <c r="AE21" s="263"/>
+      <c r="AF21" s="263"/>
+      <c r="AG21" s="263"/>
+      <c r="AH21" s="263"/>
+      <c r="AI21" s="263"/>
+      <c r="AJ21" s="263"/>
+      <c r="AK21" s="263"/>
+      <c r="AL21" s="263"/>
+      <c r="AM21" s="263"/>
+      <c r="AN21" s="263"/>
+      <c r="AO21" s="263"/>
+      <c r="AP21" s="263"/>
+      <c r="AQ21" s="263"/>
+      <c r="AR21" s="263"/>
+      <c r="AS21" s="263"/>
+      <c r="AT21" s="263"/>
     </row>
     <row r="22" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="255" t="s">
+      <c r="D22" s="264" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="255"/>
-      <c r="F22" s="255"/>
-      <c r="G22" s="255"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="255"/>
-      <c r="K22" s="255"/>
-      <c r="L22" s="256" t="s">
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="264"/>
+      <c r="H22" s="264"/>
+      <c r="I22" s="264"/>
+      <c r="J22" s="264"/>
+      <c r="K22" s="264"/>
+      <c r="L22" s="265" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="256"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="257" t="s">
+      <c r="M22" s="265"/>
+      <c r="N22" s="265"/>
+      <c r="O22" s="266" t="s">
         <v>187</v>
       </c>
-      <c r="P22" s="255"/>
-      <c r="Q22" s="255"/>
-      <c r="R22" s="255"/>
-      <c r="S22" s="255"/>
-      <c r="T22" s="255"/>
-      <c r="U22" s="255"/>
-      <c r="V22" s="255"/>
-      <c r="W22" s="255"/>
-      <c r="X22" s="255"/>
-      <c r="Y22" s="255"/>
-      <c r="Z22" s="255"/>
-      <c r="AA22" s="255"/>
-      <c r="AB22" s="255"/>
-      <c r="AC22" s="255"/>
-      <c r="AD22" s="255"/>
-      <c r="AE22" s="255"/>
-      <c r="AF22" s="255"/>
-      <c r="AG22" s="255"/>
-      <c r="AH22" s="255"/>
-      <c r="AI22" s="255"/>
-      <c r="AJ22" s="255"/>
-      <c r="AK22" s="255"/>
-      <c r="AL22" s="255"/>
-      <c r="AM22" s="255"/>
-      <c r="AN22" s="255"/>
-      <c r="AO22" s="255"/>
-      <c r="AP22" s="255"/>
-      <c r="AQ22" s="255"/>
-      <c r="AR22" s="255"/>
-      <c r="AS22" s="255"/>
-      <c r="AT22" s="255"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="264"/>
+      <c r="R22" s="264"/>
+      <c r="S22" s="264"/>
+      <c r="T22" s="264"/>
+      <c r="U22" s="264"/>
+      <c r="V22" s="264"/>
+      <c r="W22" s="264"/>
+      <c r="X22" s="264"/>
+      <c r="Y22" s="264"/>
+      <c r="Z22" s="264"/>
+      <c r="AA22" s="264"/>
+      <c r="AB22" s="264"/>
+      <c r="AC22" s="264"/>
+      <c r="AD22" s="264"/>
+      <c r="AE22" s="264"/>
+      <c r="AF22" s="264"/>
+      <c r="AG22" s="264"/>
+      <c r="AH22" s="264"/>
+      <c r="AI22" s="264"/>
+      <c r="AJ22" s="264"/>
+      <c r="AK22" s="264"/>
+      <c r="AL22" s="264"/>
+      <c r="AM22" s="264"/>
+      <c r="AN22" s="264"/>
+      <c r="AO22" s="264"/>
+      <c r="AP22" s="264"/>
+      <c r="AQ22" s="264"/>
+      <c r="AR22" s="264"/>
+      <c r="AS22" s="264"/>
+      <c r="AT22" s="264"/>
     </row>
     <row r="23" spans="2:46" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="255"/>
-      <c r="K23" s="255"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="255"/>
-      <c r="Q23" s="255"/>
-      <c r="R23" s="255"/>
-      <c r="S23" s="255"/>
-      <c r="T23" s="255"/>
-      <c r="U23" s="255"/>
-      <c r="V23" s="255"/>
-      <c r="W23" s="255"/>
-      <c r="X23" s="255"/>
-      <c r="Y23" s="255"/>
-      <c r="Z23" s="255"/>
-      <c r="AA23" s="255"/>
-      <c r="AB23" s="255"/>
-      <c r="AC23" s="255"/>
-      <c r="AD23" s="255"/>
-      <c r="AE23" s="255"/>
-      <c r="AF23" s="255"/>
-      <c r="AG23" s="255"/>
-      <c r="AH23" s="255"/>
-      <c r="AI23" s="255"/>
-      <c r="AJ23" s="255"/>
-      <c r="AK23" s="255"/>
-      <c r="AL23" s="255"/>
-      <c r="AM23" s="255"/>
-      <c r="AN23" s="255"/>
-      <c r="AO23" s="255"/>
-      <c r="AP23" s="255"/>
-      <c r="AQ23" s="255"/>
-      <c r="AR23" s="255"/>
-      <c r="AS23" s="255"/>
-      <c r="AT23" s="255"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="264"/>
+      <c r="G23" s="264"/>
+      <c r="H23" s="264"/>
+      <c r="I23" s="264"/>
+      <c r="J23" s="264"/>
+      <c r="K23" s="264"/>
+      <c r="L23" s="265"/>
+      <c r="M23" s="265"/>
+      <c r="N23" s="265"/>
+      <c r="O23" s="266"/>
+      <c r="P23" s="264"/>
+      <c r="Q23" s="264"/>
+      <c r="R23" s="264"/>
+      <c r="S23" s="264"/>
+      <c r="T23" s="264"/>
+      <c r="U23" s="264"/>
+      <c r="V23" s="264"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
+      <c r="Y23" s="264"/>
+      <c r="Z23" s="264"/>
+      <c r="AA23" s="264"/>
+      <c r="AB23" s="264"/>
+      <c r="AC23" s="264"/>
+      <c r="AD23" s="264"/>
+      <c r="AE23" s="264"/>
+      <c r="AF23" s="264"/>
+      <c r="AG23" s="264"/>
+      <c r="AH23" s="264"/>
+      <c r="AI23" s="264"/>
+      <c r="AJ23" s="264"/>
+      <c r="AK23" s="264"/>
+      <c r="AL23" s="264"/>
+      <c r="AM23" s="264"/>
+      <c r="AN23" s="264"/>
+      <c r="AO23" s="264"/>
+      <c r="AP23" s="264"/>
+      <c r="AQ23" s="264"/>
+      <c r="AR23" s="264"/>
+      <c r="AS23" s="264"/>
+      <c r="AT23" s="264"/>
     </row>
     <row r="24" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="255"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="257"/>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="257"/>
-      <c r="R24" s="257"/>
-      <c r="S24" s="257"/>
-      <c r="T24" s="257"/>
-      <c r="U24" s="257"/>
-      <c r="V24" s="257"/>
-      <c r="W24" s="257"/>
-      <c r="X24" s="257"/>
-      <c r="Y24" s="257"/>
-      <c r="Z24" s="257"/>
-      <c r="AA24" s="257"/>
-      <c r="AB24" s="257"/>
-      <c r="AC24" s="257"/>
-      <c r="AD24" s="257"/>
-      <c r="AE24" s="257"/>
-      <c r="AF24" s="257"/>
-      <c r="AG24" s="257"/>
-      <c r="AH24" s="257"/>
-      <c r="AI24" s="257"/>
-      <c r="AJ24" s="257"/>
-      <c r="AK24" s="257"/>
-      <c r="AL24" s="257"/>
-      <c r="AM24" s="257"/>
-      <c r="AN24" s="257"/>
-      <c r="AO24" s="257"/>
-      <c r="AP24" s="257"/>
-      <c r="AQ24" s="257"/>
-      <c r="AR24" s="257"/>
-      <c r="AS24" s="257"/>
-      <c r="AT24" s="257"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="264"/>
+      <c r="G24" s="264"/>
+      <c r="H24" s="264"/>
+      <c r="I24" s="264"/>
+      <c r="J24" s="264"/>
+      <c r="K24" s="264"/>
+      <c r="L24" s="265"/>
+      <c r="M24" s="265"/>
+      <c r="N24" s="265"/>
+      <c r="O24" s="266"/>
+      <c r="P24" s="266"/>
+      <c r="Q24" s="266"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="266"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="266"/>
+      <c r="V24" s="266"/>
+      <c r="W24" s="266"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="266"/>
+      <c r="Z24" s="266"/>
+      <c r="AA24" s="266"/>
+      <c r="AB24" s="266"/>
+      <c r="AC24" s="266"/>
+      <c r="AD24" s="266"/>
+      <c r="AE24" s="266"/>
+      <c r="AF24" s="266"/>
+      <c r="AG24" s="266"/>
+      <c r="AH24" s="266"/>
+      <c r="AI24" s="266"/>
+      <c r="AJ24" s="266"/>
+      <c r="AK24" s="266"/>
+      <c r="AL24" s="266"/>
+      <c r="AM24" s="266"/>
+      <c r="AN24" s="266"/>
+      <c r="AO24" s="266"/>
+      <c r="AP24" s="266"/>
+      <c r="AQ24" s="266"/>
+      <c r="AR24" s="266"/>
+      <c r="AS24" s="266"/>
+      <c r="AT24" s="266"/>
     </row>
     <row r="25" spans="2:46" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="255"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="256"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="257"/>
-      <c r="Q25" s="257"/>
-      <c r="R25" s="257"/>
-      <c r="S25" s="257"/>
-      <c r="T25" s="257"/>
-      <c r="U25" s="257"/>
-      <c r="V25" s="257"/>
-      <c r="W25" s="257"/>
-      <c r="X25" s="257"/>
-      <c r="Y25" s="257"/>
-      <c r="Z25" s="257"/>
-      <c r="AA25" s="257"/>
-      <c r="AB25" s="257"/>
-      <c r="AC25" s="257"/>
-      <c r="AD25" s="257"/>
-      <c r="AE25" s="257"/>
-      <c r="AF25" s="257"/>
-      <c r="AG25" s="257"/>
-      <c r="AH25" s="257"/>
-      <c r="AI25" s="257"/>
-      <c r="AJ25" s="257"/>
-      <c r="AK25" s="257"/>
-      <c r="AL25" s="257"/>
-      <c r="AM25" s="257"/>
-      <c r="AN25" s="257"/>
-      <c r="AO25" s="257"/>
-      <c r="AP25" s="257"/>
-      <c r="AQ25" s="257"/>
-      <c r="AR25" s="257"/>
-      <c r="AS25" s="257"/>
-      <c r="AT25" s="257"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="264"/>
+      <c r="I25" s="264"/>
+      <c r="J25" s="264"/>
+      <c r="K25" s="264"/>
+      <c r="L25" s="265"/>
+      <c r="M25" s="265"/>
+      <c r="N25" s="265"/>
+      <c r="O25" s="266"/>
+      <c r="P25" s="266"/>
+      <c r="Q25" s="266"/>
+      <c r="R25" s="266"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="266"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="266"/>
+      <c r="W25" s="266"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="266"/>
+      <c r="Z25" s="266"/>
+      <c r="AA25" s="266"/>
+      <c r="AB25" s="266"/>
+      <c r="AC25" s="266"/>
+      <c r="AD25" s="266"/>
+      <c r="AE25" s="266"/>
+      <c r="AF25" s="266"/>
+      <c r="AG25" s="266"/>
+      <c r="AH25" s="266"/>
+      <c r="AI25" s="266"/>
+      <c r="AJ25" s="266"/>
+      <c r="AK25" s="266"/>
+      <c r="AL25" s="266"/>
+      <c r="AM25" s="266"/>
+      <c r="AN25" s="266"/>
+      <c r="AO25" s="266"/>
+      <c r="AP25" s="266"/>
+      <c r="AQ25" s="266"/>
+      <c r="AR25" s="266"/>
+      <c r="AS25" s="266"/>
+      <c r="AT25" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:AT21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:AT22"/>
     <mergeCell ref="D25:K25"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="O25:AT25"/>
@@ -21325,6 +21404,12 @@
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="O24:AT24"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:AT21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:AT22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21425,51 +21510,51 @@
     <row r="6" spans="1:46" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="C6" s="30"/>
       <c r="D6" s="85"/>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="262" t="s">
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="284" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="264"/>
+      <c r="N6" s="285"/>
+      <c r="O6" s="285"/>
+      <c r="P6" s="285"/>
+      <c r="Q6" s="285"/>
+      <c r="R6" s="285"/>
+      <c r="S6" s="285"/>
+      <c r="T6" s="286"/>
     </row>
     <row r="7" spans="1:46" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="85"/>
-      <c r="E7" s="304" t="s">
+      <c r="E7" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="305"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="308" t="s">
-        <v>600</v>
-      </c>
-      <c r="N7" s="306"/>
-      <c r="O7" s="306"/>
-      <c r="P7" s="306"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="307"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="195" t="s">
+        <v>598</v>
+      </c>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="194"/>
     </row>
     <row r="8" spans="1:46" s="50" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B8" s="30"/>
@@ -21485,8 +21570,8 @@
       <c r="J8" s="88"/>
       <c r="K8" s="88"/>
       <c r="L8" s="89"/>
-      <c r="M8" s="303" t="s">
-        <v>599</v>
+      <c r="M8" s="188" t="s">
+        <v>597</v>
       </c>
       <c r="N8" s="88"/>
       <c r="O8" s="88"/>
@@ -21550,207 +21635,207 @@
     </row>
     <row r="12" spans="1:46" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A12" s="70"/>
-      <c r="C12" s="265" t="s">
+      <c r="C12" s="278" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="266"/>
-      <c r="E12" s="265" t="s">
+      <c r="D12" s="280"/>
+      <c r="E12" s="278" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="259" t="s">
+      <c r="F12" s="280"/>
+      <c r="G12" s="281" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="260"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="260"/>
-      <c r="K12" s="260"/>
-      <c r="L12" s="261"/>
-      <c r="M12" s="265" t="s">
+      <c r="H12" s="282"/>
+      <c r="I12" s="282"/>
+      <c r="J12" s="282"/>
+      <c r="K12" s="282"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="278" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="267"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="267"/>
-      <c r="Q12" s="266"/>
-      <c r="R12" s="265" t="s">
+      <c r="N12" s="279"/>
+      <c r="O12" s="279"/>
+      <c r="P12" s="279"/>
+      <c r="Q12" s="280"/>
+      <c r="R12" s="278" t="s">
         <v>231</v>
       </c>
-      <c r="S12" s="267"/>
-      <c r="T12" s="267"/>
-      <c r="U12" s="266"/>
-      <c r="V12" s="265" t="s">
+      <c r="S12" s="279"/>
+      <c r="T12" s="279"/>
+      <c r="U12" s="280"/>
+      <c r="V12" s="278" t="s">
         <v>232</v>
       </c>
-      <c r="W12" s="267"/>
-      <c r="X12" s="267"/>
-      <c r="Y12" s="267"/>
-      <c r="Z12" s="267"/>
-      <c r="AA12" s="267"/>
-      <c r="AB12" s="266"/>
-      <c r="AC12" s="265" t="s">
+      <c r="W12" s="279"/>
+      <c r="X12" s="279"/>
+      <c r="Y12" s="279"/>
+      <c r="Z12" s="279"/>
+      <c r="AA12" s="279"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="278" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="267"/>
-      <c r="AE12" s="267"/>
-      <c r="AF12" s="267"/>
-      <c r="AG12" s="267"/>
-      <c r="AH12" s="267"/>
-      <c r="AI12" s="267"/>
-      <c r="AJ12" s="266"/>
-      <c r="AK12" s="265" t="s">
+      <c r="AD12" s="279"/>
+      <c r="AE12" s="279"/>
+      <c r="AF12" s="279"/>
+      <c r="AG12" s="279"/>
+      <c r="AH12" s="279"/>
+      <c r="AI12" s="279"/>
+      <c r="AJ12" s="280"/>
+      <c r="AK12" s="278" t="s">
         <v>234</v>
       </c>
-      <c r="AL12" s="267"/>
-      <c r="AM12" s="266"/>
+      <c r="AL12" s="279"/>
+      <c r="AM12" s="280"/>
     </row>
     <row r="13" spans="1:46" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A13" s="70"/>
-      <c r="C13" s="268">
+      <c r="C13" s="267">
         <v>1</v>
       </c>
-      <c r="D13" s="269"/>
-      <c r="E13" s="270" t="s">
+      <c r="D13" s="268"/>
+      <c r="E13" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="271"/>
-      <c r="G13" s="272" t="s">
+      <c r="F13" s="270"/>
+      <c r="G13" s="271" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
-      <c r="M13" s="270" t="s">
+      <c r="H13" s="272"/>
+      <c r="I13" s="272"/>
+      <c r="J13" s="272"/>
+      <c r="K13" s="272"/>
+      <c r="L13" s="273"/>
+      <c r="M13" s="269" t="s">
         <v>237</v>
       </c>
-      <c r="N13" s="275"/>
-      <c r="O13" s="275"/>
-      <c r="P13" s="275"/>
-      <c r="Q13" s="271"/>
-      <c r="R13" s="276" t="s">
+      <c r="N13" s="274"/>
+      <c r="O13" s="274"/>
+      <c r="P13" s="274"/>
+      <c r="Q13" s="270"/>
+      <c r="R13" s="275" t="s">
         <v>238</v>
       </c>
-      <c r="S13" s="275"/>
-      <c r="T13" s="275"/>
-      <c r="U13" s="271"/>
-      <c r="V13" s="270" t="s">
+      <c r="S13" s="274"/>
+      <c r="T13" s="274"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="269" t="s">
         <v>239</v>
       </c>
-      <c r="W13" s="275"/>
-      <c r="X13" s="275"/>
-      <c r="Y13" s="275"/>
-      <c r="Z13" s="275"/>
-      <c r="AA13" s="275"/>
-      <c r="AB13" s="271"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="277"/>
-      <c r="AE13" s="277"/>
-      <c r="AF13" s="277"/>
-      <c r="AG13" s="277"/>
-      <c r="AH13" s="277"/>
-      <c r="AI13" s="277"/>
-      <c r="AJ13" s="278"/>
-      <c r="AK13" s="270">
+      <c r="W13" s="274"/>
+      <c r="X13" s="274"/>
+      <c r="Y13" s="274"/>
+      <c r="Z13" s="274"/>
+      <c r="AA13" s="274"/>
+      <c r="AB13" s="270"/>
+      <c r="AC13" s="275"/>
+      <c r="AD13" s="276"/>
+      <c r="AE13" s="276"/>
+      <c r="AF13" s="276"/>
+      <c r="AG13" s="276"/>
+      <c r="AH13" s="276"/>
+      <c r="AI13" s="276"/>
+      <c r="AJ13" s="277"/>
+      <c r="AK13" s="269">
         <v>1</v>
       </c>
-      <c r="AL13" s="275"/>
-      <c r="AM13" s="271"/>
+      <c r="AL13" s="274"/>
+      <c r="AM13" s="270"/>
     </row>
     <row r="14" spans="1:46" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A14" s="70"/>
-      <c r="C14" s="268">
+      <c r="C14" s="267">
         <v>2</v>
       </c>
-      <c r="D14" s="269"/>
-      <c r="E14" s="270" t="s">
+      <c r="D14" s="268"/>
+      <c r="E14" s="269" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="271"/>
-      <c r="G14" s="272" t="s">
+      <c r="F14" s="270"/>
+      <c r="G14" s="271" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="273"/>
-      <c r="I14" s="273"/>
-      <c r="J14" s="273"/>
-      <c r="K14" s="273"/>
-      <c r="L14" s="274"/>
-      <c r="M14" s="270" t="s">
+      <c r="H14" s="272"/>
+      <c r="I14" s="272"/>
+      <c r="J14" s="272"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="269" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="275"/>
-      <c r="O14" s="275"/>
-      <c r="P14" s="275"/>
-      <c r="Q14" s="271"/>
-      <c r="R14" s="276" t="s">
+      <c r="N14" s="274"/>
+      <c r="O14" s="274"/>
+      <c r="P14" s="274"/>
+      <c r="Q14" s="270"/>
+      <c r="R14" s="275" t="s">
         <v>241</v>
       </c>
-      <c r="S14" s="275"/>
-      <c r="T14" s="275"/>
-      <c r="U14" s="271"/>
-      <c r="V14" s="270" t="s">
+      <c r="S14" s="274"/>
+      <c r="T14" s="274"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="269" t="s">
         <v>242</v>
       </c>
-      <c r="W14" s="275"/>
-      <c r="X14" s="275"/>
-      <c r="Y14" s="275"/>
-      <c r="Z14" s="275"/>
-      <c r="AA14" s="275"/>
-      <c r="AB14" s="271"/>
-      <c r="AC14" s="276"/>
-      <c r="AD14" s="277"/>
-      <c r="AE14" s="277"/>
-      <c r="AF14" s="277"/>
-      <c r="AG14" s="277"/>
-      <c r="AH14" s="277"/>
-      <c r="AI14" s="277"/>
-      <c r="AJ14" s="278"/>
-      <c r="AK14" s="270">
+      <c r="W14" s="274"/>
+      <c r="X14" s="274"/>
+      <c r="Y14" s="274"/>
+      <c r="Z14" s="274"/>
+      <c r="AA14" s="274"/>
+      <c r="AB14" s="270"/>
+      <c r="AC14" s="275"/>
+      <c r="AD14" s="276"/>
+      <c r="AE14" s="276"/>
+      <c r="AF14" s="276"/>
+      <c r="AG14" s="276"/>
+      <c r="AH14" s="276"/>
+      <c r="AI14" s="276"/>
+      <c r="AJ14" s="277"/>
+      <c r="AK14" s="269">
         <v>1</v>
       </c>
-      <c r="AL14" s="275"/>
-      <c r="AM14" s="271"/>
+      <c r="AL14" s="274"/>
+      <c r="AM14" s="270"/>
     </row>
     <row r="15" spans="1:46" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="70"/>
-      <c r="C15" s="268"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="271"/>
-      <c r="G15" s="272"/>
-      <c r="H15" s="273"/>
-      <c r="I15" s="273"/>
-      <c r="J15" s="273"/>
-      <c r="K15" s="273"/>
-      <c r="L15" s="274"/>
-      <c r="M15" s="270"/>
-      <c r="N15" s="275"/>
-      <c r="O15" s="275"/>
-      <c r="P15" s="275"/>
-      <c r="Q15" s="271"/>
-      <c r="R15" s="270"/>
-      <c r="S15" s="275"/>
-      <c r="T15" s="275"/>
-      <c r="U15" s="271"/>
-      <c r="V15" s="270"/>
-      <c r="W15" s="275"/>
-      <c r="X15" s="275"/>
-      <c r="Y15" s="275"/>
-      <c r="Z15" s="275"/>
-      <c r="AA15" s="275"/>
-      <c r="AB15" s="271"/>
-      <c r="AC15" s="276"/>
-      <c r="AD15" s="277"/>
-      <c r="AE15" s="277"/>
-      <c r="AF15" s="277"/>
-      <c r="AG15" s="277"/>
-      <c r="AH15" s="277"/>
-      <c r="AI15" s="277"/>
-      <c r="AJ15" s="278"/>
-      <c r="AK15" s="270"/>
-      <c r="AL15" s="275"/>
-      <c r="AM15" s="271"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="272"/>
+      <c r="I15" s="272"/>
+      <c r="J15" s="272"/>
+      <c r="K15" s="272"/>
+      <c r="L15" s="273"/>
+      <c r="M15" s="269"/>
+      <c r="N15" s="274"/>
+      <c r="O15" s="274"/>
+      <c r="P15" s="274"/>
+      <c r="Q15" s="270"/>
+      <c r="R15" s="269"/>
+      <c r="S15" s="274"/>
+      <c r="T15" s="274"/>
+      <c r="U15" s="270"/>
+      <c r="V15" s="269"/>
+      <c r="W15" s="274"/>
+      <c r="X15" s="274"/>
+      <c r="Y15" s="274"/>
+      <c r="Z15" s="274"/>
+      <c r="AA15" s="274"/>
+      <c r="AB15" s="270"/>
+      <c r="AC15" s="275"/>
+      <c r="AD15" s="276"/>
+      <c r="AE15" s="276"/>
+      <c r="AF15" s="276"/>
+      <c r="AG15" s="276"/>
+      <c r="AH15" s="276"/>
+      <c r="AI15" s="276"/>
+      <c r="AJ15" s="277"/>
+      <c r="AK15" s="269"/>
+      <c r="AL15" s="274"/>
+      <c r="AM15" s="270"/>
     </row>
     <row r="16" spans="1:46" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A16" s="70"/>
@@ -22698,22 +22783,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="AC14:AJ14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R12:U12"/>
     <mergeCell ref="V12:AB12"/>
     <mergeCell ref="AC12:AJ12"/>
     <mergeCell ref="AK12:AM12"/>
@@ -22725,13 +22801,22 @@
     <mergeCell ref="V13:AB13"/>
     <mergeCell ref="AC13:AJ13"/>
     <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AC14:AJ14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:U15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22860,37 +22945,37 @@
         <v>一般</v>
       </c>
       <c r="D6" s="108"/>
-      <c r="E6" s="259" t="s">
+      <c r="E6" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="260"/>
-      <c r="O6" s="260"/>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="279" t="s">
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="282"/>
+      <c r="I6" s="282"/>
+      <c r="J6" s="282"/>
+      <c r="K6" s="282"/>
+      <c r="L6" s="282"/>
+      <c r="M6" s="282"/>
+      <c r="N6" s="282"/>
+      <c r="O6" s="282"/>
+      <c r="P6" s="282"/>
+      <c r="Q6" s="282"/>
+      <c r="R6" s="282"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="280"/>
-      <c r="AA6" s="280"/>
-      <c r="AB6" s="280"/>
-      <c r="AC6" s="280"/>
-      <c r="AD6" s="280"/>
-      <c r="AE6" s="281"/>
+      <c r="V6" s="288"/>
+      <c r="W6" s="288"/>
+      <c r="X6" s="288"/>
+      <c r="Y6" s="288"/>
+      <c r="Z6" s="288"/>
+      <c r="AA6" s="288"/>
+      <c r="AB6" s="288"/>
+      <c r="AC6" s="288"/>
+      <c r="AD6" s="288"/>
+      <c r="AE6" s="289"/>
     </row>
     <row r="7" spans="1:46" s="106" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B7" s="109"/>
@@ -23285,24 +23370,24 @@
         <v>一般</v>
       </c>
       <c r="D17" s="115"/>
-      <c r="E17" s="282" t="s">
+      <c r="E17" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="283"/>
-      <c r="G17" s="283"/>
-      <c r="H17" s="283"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="283"/>
-      <c r="K17" s="283"/>
-      <c r="L17" s="283"/>
-      <c r="M17" s="283"/>
-      <c r="N17" s="283"/>
-      <c r="O17" s="283"/>
-      <c r="P17" s="283"/>
-      <c r="Q17" s="283"/>
-      <c r="R17" s="283"/>
-      <c r="S17" s="283"/>
-      <c r="T17" s="284"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="291"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="291"/>
+      <c r="M17" s="291"/>
+      <c r="N17" s="291"/>
+      <c r="O17" s="291"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="291"/>
+      <c r="R17" s="291"/>
+      <c r="S17" s="291"/>
+      <c r="T17" s="292"/>
       <c r="U17" s="90"/>
       <c r="V17" s="87"/>
       <c r="W17" s="87"/>
@@ -23442,37 +23527,37 @@
         <v>キャッシュ</v>
       </c>
       <c r="D22" s="108"/>
-      <c r="E22" s="259" t="s">
+      <c r="E22" s="281" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="260"/>
-      <c r="L22" s="260"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="260"/>
-      <c r="O22" s="260"/>
-      <c r="P22" s="260"/>
-      <c r="Q22" s="260"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="260"/>
-      <c r="T22" s="261"/>
-      <c r="U22" s="279" t="s">
+      <c r="F22" s="282"/>
+      <c r="G22" s="282"/>
+      <c r="H22" s="282"/>
+      <c r="I22" s="282"/>
+      <c r="J22" s="282"/>
+      <c r="K22" s="282"/>
+      <c r="L22" s="282"/>
+      <c r="M22" s="282"/>
+      <c r="N22" s="282"/>
+      <c r="O22" s="282"/>
+      <c r="P22" s="282"/>
+      <c r="Q22" s="282"/>
+      <c r="R22" s="282"/>
+      <c r="S22" s="282"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="V22" s="280"/>
-      <c r="W22" s="280"/>
-      <c r="X22" s="280"/>
-      <c r="Y22" s="280"/>
-      <c r="Z22" s="280"/>
-      <c r="AA22" s="280"/>
-      <c r="AB22" s="280"/>
-      <c r="AC22" s="280"/>
-      <c r="AD22" s="280"/>
-      <c r="AE22" s="281"/>
+      <c r="V22" s="288"/>
+      <c r="W22" s="288"/>
+      <c r="X22" s="288"/>
+      <c r="Y22" s="288"/>
+      <c r="Z22" s="288"/>
+      <c r="AA22" s="288"/>
+      <c r="AB22" s="288"/>
+      <c r="AC22" s="288"/>
+      <c r="AD22" s="288"/>
+      <c r="AE22" s="289"/>
       <c r="AF22" s="114"/>
       <c r="AG22" s="114"/>
       <c r="AH22" s="114"/>
@@ -23779,50 +23864,50 @@
         <f>D30</f>
         <v>PDF出力</v>
       </c>
-      <c r="E31" s="259" t="s">
+      <c r="E31" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F31" s="260"/>
-      <c r="G31" s="260"/>
-      <c r="H31" s="260"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="260"/>
-      <c r="K31" s="260"/>
-      <c r="L31" s="260"/>
-      <c r="M31" s="260"/>
-      <c r="N31" s="260"/>
-      <c r="O31" s="260"/>
-      <c r="P31" s="260"/>
-      <c r="Q31" s="260"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="260"/>
-      <c r="T31" s="261"/>
-      <c r="U31" s="279" t="s">
+      <c r="F31" s="282"/>
+      <c r="G31" s="282"/>
+      <c r="H31" s="282"/>
+      <c r="I31" s="282"/>
+      <c r="J31" s="282"/>
+      <c r="K31" s="282"/>
+      <c r="L31" s="282"/>
+      <c r="M31" s="282"/>
+      <c r="N31" s="282"/>
+      <c r="O31" s="282"/>
+      <c r="P31" s="282"/>
+      <c r="Q31" s="282"/>
+      <c r="R31" s="282"/>
+      <c r="S31" s="282"/>
+      <c r="T31" s="283"/>
+      <c r="U31" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V31" s="280"/>
-      <c r="W31" s="280"/>
-      <c r="X31" s="280"/>
-      <c r="Y31" s="280"/>
-      <c r="Z31" s="280"/>
-      <c r="AA31" s="280"/>
-      <c r="AB31" s="280"/>
-      <c r="AC31" s="280"/>
-      <c r="AD31" s="280"/>
-      <c r="AE31" s="281"/>
-      <c r="AF31" s="279" t="s">
+      <c r="V31" s="288"/>
+      <c r="W31" s="288"/>
+      <c r="X31" s="288"/>
+      <c r="Y31" s="288"/>
+      <c r="Z31" s="288"/>
+      <c r="AA31" s="288"/>
+      <c r="AB31" s="288"/>
+      <c r="AC31" s="288"/>
+      <c r="AD31" s="288"/>
+      <c r="AE31" s="289"/>
+      <c r="AF31" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG31" s="280"/>
-      <c r="AH31" s="280"/>
-      <c r="AI31" s="280"/>
-      <c r="AJ31" s="280"/>
-      <c r="AK31" s="280"/>
-      <c r="AL31" s="280"/>
-      <c r="AM31" s="280"/>
-      <c r="AN31" s="280"/>
-      <c r="AO31" s="280"/>
-      <c r="AP31" s="281"/>
+      <c r="AG31" s="288"/>
+      <c r="AH31" s="288"/>
+      <c r="AI31" s="288"/>
+      <c r="AJ31" s="288"/>
+      <c r="AK31" s="288"/>
+      <c r="AL31" s="288"/>
+      <c r="AM31" s="288"/>
+      <c r="AN31" s="288"/>
+      <c r="AO31" s="288"/>
+      <c r="AP31" s="289"/>
     </row>
     <row r="32" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A32" s="122"/>
@@ -24883,50 +24968,50 @@
         <f t="shared" si="3"/>
         <v>PDFデジタル署名</v>
       </c>
-      <c r="E52" s="259" t="s">
+      <c r="E52" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F52" s="260"/>
-      <c r="G52" s="260"/>
-      <c r="H52" s="260"/>
-      <c r="I52" s="260"/>
-      <c r="J52" s="260"/>
-      <c r="K52" s="260"/>
-      <c r="L52" s="260"/>
-      <c r="M52" s="260"/>
-      <c r="N52" s="260"/>
-      <c r="O52" s="260"/>
-      <c r="P52" s="260"/>
-      <c r="Q52" s="260"/>
-      <c r="R52" s="260"/>
-      <c r="S52" s="260"/>
-      <c r="T52" s="261"/>
-      <c r="U52" s="279" t="s">
+      <c r="F52" s="282"/>
+      <c r="G52" s="282"/>
+      <c r="H52" s="282"/>
+      <c r="I52" s="282"/>
+      <c r="J52" s="282"/>
+      <c r="K52" s="282"/>
+      <c r="L52" s="282"/>
+      <c r="M52" s="282"/>
+      <c r="N52" s="282"/>
+      <c r="O52" s="282"/>
+      <c r="P52" s="282"/>
+      <c r="Q52" s="282"/>
+      <c r="R52" s="282"/>
+      <c r="S52" s="282"/>
+      <c r="T52" s="283"/>
+      <c r="U52" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V52" s="280"/>
-      <c r="W52" s="280"/>
-      <c r="X52" s="280"/>
-      <c r="Y52" s="280"/>
-      <c r="Z52" s="280"/>
-      <c r="AA52" s="280"/>
-      <c r="AB52" s="280"/>
-      <c r="AC52" s="280"/>
-      <c r="AD52" s="280"/>
-      <c r="AE52" s="281"/>
-      <c r="AF52" s="279" t="s">
+      <c r="V52" s="288"/>
+      <c r="W52" s="288"/>
+      <c r="X52" s="288"/>
+      <c r="Y52" s="288"/>
+      <c r="Z52" s="288"/>
+      <c r="AA52" s="288"/>
+      <c r="AB52" s="288"/>
+      <c r="AC52" s="288"/>
+      <c r="AD52" s="288"/>
+      <c r="AE52" s="289"/>
+      <c r="AF52" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG52" s="280"/>
-      <c r="AH52" s="280"/>
-      <c r="AI52" s="280"/>
-      <c r="AJ52" s="280"/>
-      <c r="AK52" s="280"/>
-      <c r="AL52" s="280"/>
-      <c r="AM52" s="280"/>
-      <c r="AN52" s="280"/>
-      <c r="AO52" s="280"/>
-      <c r="AP52" s="281"/>
+      <c r="AG52" s="288"/>
+      <c r="AH52" s="288"/>
+      <c r="AI52" s="288"/>
+      <c r="AJ52" s="288"/>
+      <c r="AK52" s="288"/>
+      <c r="AL52" s="288"/>
+      <c r="AM52" s="288"/>
+      <c r="AN52" s="288"/>
+      <c r="AO52" s="288"/>
+      <c r="AP52" s="289"/>
     </row>
     <row r="53" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A53" s="106"/>
@@ -25353,50 +25438,50 @@
         <f t="shared" si="3"/>
         <v>PDFアクセシビリティ</v>
       </c>
-      <c r="E61" s="259" t="s">
+      <c r="E61" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="260"/>
-      <c r="G61" s="260"/>
-      <c r="H61" s="260"/>
-      <c r="I61" s="260"/>
-      <c r="J61" s="260"/>
-      <c r="K61" s="260"/>
-      <c r="L61" s="260"/>
-      <c r="M61" s="260"/>
-      <c r="N61" s="260"/>
-      <c r="O61" s="260"/>
-      <c r="P61" s="260"/>
-      <c r="Q61" s="260"/>
-      <c r="R61" s="260"/>
-      <c r="S61" s="260"/>
-      <c r="T61" s="261"/>
-      <c r="U61" s="279" t="s">
+      <c r="F61" s="282"/>
+      <c r="G61" s="282"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="282"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="282"/>
+      <c r="L61" s="282"/>
+      <c r="M61" s="282"/>
+      <c r="N61" s="282"/>
+      <c r="O61" s="282"/>
+      <c r="P61" s="282"/>
+      <c r="Q61" s="282"/>
+      <c r="R61" s="282"/>
+      <c r="S61" s="282"/>
+      <c r="T61" s="283"/>
+      <c r="U61" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V61" s="280"/>
-      <c r="W61" s="280"/>
-      <c r="X61" s="280"/>
-      <c r="Y61" s="280"/>
-      <c r="Z61" s="280"/>
-      <c r="AA61" s="280"/>
-      <c r="AB61" s="280"/>
-      <c r="AC61" s="280"/>
-      <c r="AD61" s="280"/>
-      <c r="AE61" s="281"/>
-      <c r="AF61" s="279" t="s">
+      <c r="V61" s="288"/>
+      <c r="W61" s="288"/>
+      <c r="X61" s="288"/>
+      <c r="Y61" s="288"/>
+      <c r="Z61" s="288"/>
+      <c r="AA61" s="288"/>
+      <c r="AB61" s="288"/>
+      <c r="AC61" s="288"/>
+      <c r="AD61" s="288"/>
+      <c r="AE61" s="289"/>
+      <c r="AF61" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG61" s="280"/>
-      <c r="AH61" s="280"/>
-      <c r="AI61" s="280"/>
-      <c r="AJ61" s="280"/>
-      <c r="AK61" s="280"/>
-      <c r="AL61" s="280"/>
-      <c r="AM61" s="280"/>
-      <c r="AN61" s="280"/>
-      <c r="AO61" s="280"/>
-      <c r="AP61" s="281"/>
+      <c r="AG61" s="288"/>
+      <c r="AH61" s="288"/>
+      <c r="AI61" s="288"/>
+      <c r="AJ61" s="288"/>
+      <c r="AK61" s="288"/>
+      <c r="AL61" s="288"/>
+      <c r="AM61" s="288"/>
+      <c r="AN61" s="288"/>
+      <c r="AO61" s="288"/>
+      <c r="AP61" s="289"/>
     </row>
     <row r="62" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A62" s="106"/>
@@ -25562,50 +25647,50 @@
         <f t="shared" si="4"/>
         <v>PDF/A出力</v>
       </c>
-      <c r="E65" s="259" t="s">
+      <c r="E65" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F65" s="260"/>
-      <c r="G65" s="260"/>
-      <c r="H65" s="260"/>
-      <c r="I65" s="260"/>
-      <c r="J65" s="260"/>
-      <c r="K65" s="260"/>
-      <c r="L65" s="260"/>
-      <c r="M65" s="260"/>
-      <c r="N65" s="260"/>
-      <c r="O65" s="260"/>
-      <c r="P65" s="260"/>
-      <c r="Q65" s="260"/>
-      <c r="R65" s="260"/>
-      <c r="S65" s="260"/>
-      <c r="T65" s="261"/>
-      <c r="U65" s="279" t="s">
+      <c r="F65" s="282"/>
+      <c r="G65" s="282"/>
+      <c r="H65" s="282"/>
+      <c r="I65" s="282"/>
+      <c r="J65" s="282"/>
+      <c r="K65" s="282"/>
+      <c r="L65" s="282"/>
+      <c r="M65" s="282"/>
+      <c r="N65" s="282"/>
+      <c r="O65" s="282"/>
+      <c r="P65" s="282"/>
+      <c r="Q65" s="282"/>
+      <c r="R65" s="282"/>
+      <c r="S65" s="282"/>
+      <c r="T65" s="283"/>
+      <c r="U65" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V65" s="280"/>
-      <c r="W65" s="280"/>
-      <c r="X65" s="280"/>
-      <c r="Y65" s="280"/>
-      <c r="Z65" s="280"/>
-      <c r="AA65" s="280"/>
-      <c r="AB65" s="280"/>
-      <c r="AC65" s="280"/>
-      <c r="AD65" s="280"/>
-      <c r="AE65" s="281"/>
-      <c r="AF65" s="279" t="s">
+      <c r="V65" s="288"/>
+      <c r="W65" s="288"/>
+      <c r="X65" s="288"/>
+      <c r="Y65" s="288"/>
+      <c r="Z65" s="288"/>
+      <c r="AA65" s="288"/>
+      <c r="AB65" s="288"/>
+      <c r="AC65" s="288"/>
+      <c r="AD65" s="288"/>
+      <c r="AE65" s="289"/>
+      <c r="AF65" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG65" s="280"/>
-      <c r="AH65" s="280"/>
-      <c r="AI65" s="280"/>
-      <c r="AJ65" s="280"/>
-      <c r="AK65" s="280"/>
-      <c r="AL65" s="280"/>
-      <c r="AM65" s="280"/>
-      <c r="AN65" s="280"/>
-      <c r="AO65" s="280"/>
-      <c r="AP65" s="281"/>
+      <c r="AG65" s="288"/>
+      <c r="AH65" s="288"/>
+      <c r="AI65" s="288"/>
+      <c r="AJ65" s="288"/>
+      <c r="AK65" s="288"/>
+      <c r="AL65" s="288"/>
+      <c r="AM65" s="288"/>
+      <c r="AN65" s="288"/>
+      <c r="AO65" s="288"/>
+      <c r="AP65" s="289"/>
     </row>
     <row r="66" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A66" s="106"/>
@@ -26026,50 +26111,50 @@
         <f t="shared" si="4"/>
         <v>PDF/X出力</v>
       </c>
-      <c r="E74" s="259" t="s">
+      <c r="E74" s="281" t="s">
         <v>316</v>
       </c>
-      <c r="F74" s="260"/>
-      <c r="G74" s="260"/>
-      <c r="H74" s="260"/>
-      <c r="I74" s="260"/>
-      <c r="J74" s="260"/>
-      <c r="K74" s="260"/>
-      <c r="L74" s="260"/>
-      <c r="M74" s="260"/>
-      <c r="N74" s="260"/>
-      <c r="O74" s="260"/>
-      <c r="P74" s="260"/>
-      <c r="Q74" s="260"/>
-      <c r="R74" s="260"/>
-      <c r="S74" s="260"/>
-      <c r="T74" s="261"/>
-      <c r="U74" s="279" t="s">
+      <c r="F74" s="282"/>
+      <c r="G74" s="282"/>
+      <c r="H74" s="282"/>
+      <c r="I74" s="282"/>
+      <c r="J74" s="282"/>
+      <c r="K74" s="282"/>
+      <c r="L74" s="282"/>
+      <c r="M74" s="282"/>
+      <c r="N74" s="282"/>
+      <c r="O74" s="282"/>
+      <c r="P74" s="282"/>
+      <c r="Q74" s="282"/>
+      <c r="R74" s="282"/>
+      <c r="S74" s="282"/>
+      <c r="T74" s="283"/>
+      <c r="U74" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V74" s="280"/>
-      <c r="W74" s="280"/>
-      <c r="X74" s="280"/>
-      <c r="Y74" s="280"/>
-      <c r="Z74" s="280"/>
-      <c r="AA74" s="280"/>
-      <c r="AB74" s="280"/>
-      <c r="AC74" s="280"/>
-      <c r="AD74" s="280"/>
-      <c r="AE74" s="281"/>
-      <c r="AF74" s="279" t="s">
+      <c r="V74" s="288"/>
+      <c r="W74" s="288"/>
+      <c r="X74" s="288"/>
+      <c r="Y74" s="288"/>
+      <c r="Z74" s="288"/>
+      <c r="AA74" s="288"/>
+      <c r="AB74" s="288"/>
+      <c r="AC74" s="288"/>
+      <c r="AD74" s="288"/>
+      <c r="AE74" s="289"/>
+      <c r="AF74" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG74" s="280"/>
-      <c r="AH74" s="280"/>
-      <c r="AI74" s="280"/>
-      <c r="AJ74" s="280"/>
-      <c r="AK74" s="280"/>
-      <c r="AL74" s="280"/>
-      <c r="AM74" s="280"/>
-      <c r="AN74" s="280"/>
-      <c r="AO74" s="280"/>
-      <c r="AP74" s="281"/>
+      <c r="AG74" s="288"/>
+      <c r="AH74" s="288"/>
+      <c r="AI74" s="288"/>
+      <c r="AJ74" s="288"/>
+      <c r="AK74" s="288"/>
+      <c r="AL74" s="288"/>
+      <c r="AM74" s="288"/>
+      <c r="AN74" s="288"/>
+      <c r="AO74" s="288"/>
+      <c r="AP74" s="289"/>
     </row>
     <row r="75" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A75" s="106"/>
@@ -26388,50 +26473,50 @@
         <f t="shared" si="5"/>
         <v>DOCX出力</v>
       </c>
-      <c r="E81" s="259" t="s">
+      <c r="E81" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F81" s="260"/>
-      <c r="G81" s="260"/>
-      <c r="H81" s="260"/>
-      <c r="I81" s="260"/>
-      <c r="J81" s="260"/>
-      <c r="K81" s="260"/>
-      <c r="L81" s="260"/>
-      <c r="M81" s="260"/>
-      <c r="N81" s="260"/>
-      <c r="O81" s="260"/>
-      <c r="P81" s="260"/>
-      <c r="Q81" s="260"/>
-      <c r="R81" s="260"/>
-      <c r="S81" s="260"/>
-      <c r="T81" s="261"/>
-      <c r="U81" s="279" t="s">
+      <c r="F81" s="282"/>
+      <c r="G81" s="282"/>
+      <c r="H81" s="282"/>
+      <c r="I81" s="282"/>
+      <c r="J81" s="282"/>
+      <c r="K81" s="282"/>
+      <c r="L81" s="282"/>
+      <c r="M81" s="282"/>
+      <c r="N81" s="282"/>
+      <c r="O81" s="282"/>
+      <c r="P81" s="282"/>
+      <c r="Q81" s="282"/>
+      <c r="R81" s="282"/>
+      <c r="S81" s="282"/>
+      <c r="T81" s="283"/>
+      <c r="U81" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V81" s="280"/>
-      <c r="W81" s="280"/>
-      <c r="X81" s="280"/>
-      <c r="Y81" s="280"/>
-      <c r="Z81" s="280"/>
-      <c r="AA81" s="280"/>
-      <c r="AB81" s="280"/>
-      <c r="AC81" s="280"/>
-      <c r="AD81" s="280"/>
-      <c r="AE81" s="281"/>
-      <c r="AF81" s="279" t="s">
+      <c r="V81" s="288"/>
+      <c r="W81" s="288"/>
+      <c r="X81" s="288"/>
+      <c r="Y81" s="288"/>
+      <c r="Z81" s="288"/>
+      <c r="AA81" s="288"/>
+      <c r="AB81" s="288"/>
+      <c r="AC81" s="288"/>
+      <c r="AD81" s="288"/>
+      <c r="AE81" s="289"/>
+      <c r="AF81" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG81" s="280"/>
-      <c r="AH81" s="280"/>
-      <c r="AI81" s="280"/>
-      <c r="AJ81" s="280"/>
-      <c r="AK81" s="280"/>
-      <c r="AL81" s="280"/>
-      <c r="AM81" s="280"/>
-      <c r="AN81" s="280"/>
-      <c r="AO81" s="280"/>
-      <c r="AP81" s="281"/>
+      <c r="AG81" s="288"/>
+      <c r="AH81" s="288"/>
+      <c r="AI81" s="288"/>
+      <c r="AJ81" s="288"/>
+      <c r="AK81" s="288"/>
+      <c r="AL81" s="288"/>
+      <c r="AM81" s="288"/>
+      <c r="AN81" s="288"/>
+      <c r="AO81" s="288"/>
+      <c r="AP81" s="289"/>
     </row>
     <row r="82" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A82" s="106"/>
@@ -26701,50 +26786,50 @@
         <f t="shared" si="5"/>
         <v>RTF出力</v>
       </c>
-      <c r="E87" s="259" t="s">
+      <c r="E87" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F87" s="260"/>
-      <c r="G87" s="260"/>
-      <c r="H87" s="260"/>
-      <c r="I87" s="260"/>
-      <c r="J87" s="260"/>
-      <c r="K87" s="260"/>
-      <c r="L87" s="260"/>
-      <c r="M87" s="260"/>
-      <c r="N87" s="260"/>
-      <c r="O87" s="260"/>
-      <c r="P87" s="260"/>
-      <c r="Q87" s="260"/>
-      <c r="R87" s="260"/>
-      <c r="S87" s="260"/>
-      <c r="T87" s="261"/>
-      <c r="U87" s="279" t="s">
+      <c r="F87" s="282"/>
+      <c r="G87" s="282"/>
+      <c r="H87" s="282"/>
+      <c r="I87" s="282"/>
+      <c r="J87" s="282"/>
+      <c r="K87" s="282"/>
+      <c r="L87" s="282"/>
+      <c r="M87" s="282"/>
+      <c r="N87" s="282"/>
+      <c r="O87" s="282"/>
+      <c r="P87" s="282"/>
+      <c r="Q87" s="282"/>
+      <c r="R87" s="282"/>
+      <c r="S87" s="282"/>
+      <c r="T87" s="283"/>
+      <c r="U87" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V87" s="280"/>
-      <c r="W87" s="280"/>
-      <c r="X87" s="280"/>
-      <c r="Y87" s="280"/>
-      <c r="Z87" s="280"/>
-      <c r="AA87" s="280"/>
-      <c r="AB87" s="280"/>
-      <c r="AC87" s="280"/>
-      <c r="AD87" s="280"/>
-      <c r="AE87" s="281"/>
-      <c r="AF87" s="279" t="s">
+      <c r="V87" s="288"/>
+      <c r="W87" s="288"/>
+      <c r="X87" s="288"/>
+      <c r="Y87" s="288"/>
+      <c r="Z87" s="288"/>
+      <c r="AA87" s="288"/>
+      <c r="AB87" s="288"/>
+      <c r="AC87" s="288"/>
+      <c r="AD87" s="288"/>
+      <c r="AE87" s="289"/>
+      <c r="AF87" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG87" s="280"/>
-      <c r="AH87" s="280"/>
-      <c r="AI87" s="280"/>
-      <c r="AJ87" s="280"/>
-      <c r="AK87" s="280"/>
-      <c r="AL87" s="280"/>
-      <c r="AM87" s="280"/>
-      <c r="AN87" s="280"/>
-      <c r="AO87" s="280"/>
-      <c r="AP87" s="281"/>
+      <c r="AG87" s="288"/>
+      <c r="AH87" s="288"/>
+      <c r="AI87" s="288"/>
+      <c r="AJ87" s="288"/>
+      <c r="AK87" s="288"/>
+      <c r="AL87" s="288"/>
+      <c r="AM87" s="288"/>
+      <c r="AN87" s="288"/>
+      <c r="AO87" s="288"/>
+      <c r="AP87" s="289"/>
     </row>
     <row r="88" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A88" s="106"/>
@@ -27016,50 +27101,50 @@
         <f t="shared" si="5"/>
         <v>PPTX出力</v>
       </c>
-      <c r="E93" s="259" t="s">
+      <c r="E93" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F93" s="260"/>
-      <c r="G93" s="260"/>
-      <c r="H93" s="260"/>
-      <c r="I93" s="260"/>
-      <c r="J93" s="260"/>
-      <c r="K93" s="260"/>
-      <c r="L93" s="260"/>
-      <c r="M93" s="260"/>
-      <c r="N93" s="260"/>
-      <c r="O93" s="260"/>
-      <c r="P93" s="260"/>
-      <c r="Q93" s="260"/>
-      <c r="R93" s="260"/>
-      <c r="S93" s="260"/>
-      <c r="T93" s="261"/>
-      <c r="U93" s="279" t="s">
+      <c r="F93" s="282"/>
+      <c r="G93" s="282"/>
+      <c r="H93" s="282"/>
+      <c r="I93" s="282"/>
+      <c r="J93" s="282"/>
+      <c r="K93" s="282"/>
+      <c r="L93" s="282"/>
+      <c r="M93" s="282"/>
+      <c r="N93" s="282"/>
+      <c r="O93" s="282"/>
+      <c r="P93" s="282"/>
+      <c r="Q93" s="282"/>
+      <c r="R93" s="282"/>
+      <c r="S93" s="282"/>
+      <c r="T93" s="283"/>
+      <c r="U93" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V93" s="280"/>
-      <c r="W93" s="280"/>
-      <c r="X93" s="280"/>
-      <c r="Y93" s="280"/>
-      <c r="Z93" s="280"/>
-      <c r="AA93" s="280"/>
-      <c r="AB93" s="280"/>
-      <c r="AC93" s="280"/>
-      <c r="AD93" s="280"/>
-      <c r="AE93" s="281"/>
-      <c r="AF93" s="279" t="s">
+      <c r="V93" s="288"/>
+      <c r="W93" s="288"/>
+      <c r="X93" s="288"/>
+      <c r="Y93" s="288"/>
+      <c r="Z93" s="288"/>
+      <c r="AA93" s="288"/>
+      <c r="AB93" s="288"/>
+      <c r="AC93" s="288"/>
+      <c r="AD93" s="288"/>
+      <c r="AE93" s="289"/>
+      <c r="AF93" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG93" s="280"/>
-      <c r="AH93" s="280"/>
-      <c r="AI93" s="280"/>
-      <c r="AJ93" s="280"/>
-      <c r="AK93" s="280"/>
-      <c r="AL93" s="280"/>
-      <c r="AM93" s="280"/>
-      <c r="AN93" s="280"/>
-      <c r="AO93" s="280"/>
-      <c r="AP93" s="281"/>
+      <c r="AG93" s="288"/>
+      <c r="AH93" s="288"/>
+      <c r="AI93" s="288"/>
+      <c r="AJ93" s="288"/>
+      <c r="AK93" s="288"/>
+      <c r="AL93" s="288"/>
+      <c r="AM93" s="288"/>
+      <c r="AN93" s="288"/>
+      <c r="AO93" s="288"/>
+      <c r="AP93" s="289"/>
     </row>
     <row r="94" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A94" s="106"/>
@@ -27223,50 +27308,50 @@
         <f t="shared" si="6"/>
         <v>HTML出力</v>
       </c>
-      <c r="E97" s="259" t="s">
+      <c r="E97" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F97" s="260"/>
-      <c r="G97" s="260"/>
-      <c r="H97" s="260"/>
-      <c r="I97" s="260"/>
-      <c r="J97" s="260"/>
-      <c r="K97" s="260"/>
-      <c r="L97" s="260"/>
-      <c r="M97" s="260"/>
-      <c r="N97" s="260"/>
-      <c r="O97" s="260"/>
-      <c r="P97" s="260"/>
-      <c r="Q97" s="260"/>
-      <c r="R97" s="260"/>
-      <c r="S97" s="260"/>
-      <c r="T97" s="261"/>
-      <c r="U97" s="279" t="s">
+      <c r="F97" s="282"/>
+      <c r="G97" s="282"/>
+      <c r="H97" s="282"/>
+      <c r="I97" s="282"/>
+      <c r="J97" s="282"/>
+      <c r="K97" s="282"/>
+      <c r="L97" s="282"/>
+      <c r="M97" s="282"/>
+      <c r="N97" s="282"/>
+      <c r="O97" s="282"/>
+      <c r="P97" s="282"/>
+      <c r="Q97" s="282"/>
+      <c r="R97" s="282"/>
+      <c r="S97" s="282"/>
+      <c r="T97" s="283"/>
+      <c r="U97" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V97" s="280"/>
-      <c r="W97" s="280"/>
-      <c r="X97" s="280"/>
-      <c r="Y97" s="280"/>
-      <c r="Z97" s="280"/>
-      <c r="AA97" s="280"/>
-      <c r="AB97" s="280"/>
-      <c r="AC97" s="280"/>
-      <c r="AD97" s="280"/>
-      <c r="AE97" s="281"/>
-      <c r="AF97" s="279" t="s">
+      <c r="V97" s="288"/>
+      <c r="W97" s="288"/>
+      <c r="X97" s="288"/>
+      <c r="Y97" s="288"/>
+      <c r="Z97" s="288"/>
+      <c r="AA97" s="288"/>
+      <c r="AB97" s="288"/>
+      <c r="AC97" s="288"/>
+      <c r="AD97" s="288"/>
+      <c r="AE97" s="289"/>
+      <c r="AF97" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG97" s="280"/>
-      <c r="AH97" s="280"/>
-      <c r="AI97" s="280"/>
-      <c r="AJ97" s="280"/>
-      <c r="AK97" s="280"/>
-      <c r="AL97" s="280"/>
-      <c r="AM97" s="280"/>
-      <c r="AN97" s="280"/>
-      <c r="AO97" s="280"/>
-      <c r="AP97" s="281"/>
+      <c r="AG97" s="288"/>
+      <c r="AH97" s="288"/>
+      <c r="AI97" s="288"/>
+      <c r="AJ97" s="288"/>
+      <c r="AK97" s="288"/>
+      <c r="AL97" s="288"/>
+      <c r="AM97" s="288"/>
+      <c r="AN97" s="288"/>
+      <c r="AO97" s="288"/>
+      <c r="AP97" s="289"/>
     </row>
     <row r="98" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A98" s="106"/>
@@ -28121,50 +28206,50 @@
         <f t="shared" si="7"/>
         <v>FO処理</v>
       </c>
-      <c r="E114" s="259" t="s">
+      <c r="E114" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F114" s="260"/>
-      <c r="G114" s="260"/>
-      <c r="H114" s="260"/>
-      <c r="I114" s="260"/>
-      <c r="J114" s="260"/>
-      <c r="K114" s="260"/>
-      <c r="L114" s="260"/>
-      <c r="M114" s="260"/>
-      <c r="N114" s="260"/>
-      <c r="O114" s="260"/>
-      <c r="P114" s="260"/>
-      <c r="Q114" s="260"/>
-      <c r="R114" s="260"/>
-      <c r="S114" s="260"/>
-      <c r="T114" s="261"/>
-      <c r="U114" s="279" t="s">
+      <c r="F114" s="282"/>
+      <c r="G114" s="282"/>
+      <c r="H114" s="282"/>
+      <c r="I114" s="282"/>
+      <c r="J114" s="282"/>
+      <c r="K114" s="282"/>
+      <c r="L114" s="282"/>
+      <c r="M114" s="282"/>
+      <c r="N114" s="282"/>
+      <c r="O114" s="282"/>
+      <c r="P114" s="282"/>
+      <c r="Q114" s="282"/>
+      <c r="R114" s="282"/>
+      <c r="S114" s="282"/>
+      <c r="T114" s="283"/>
+      <c r="U114" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V114" s="280"/>
-      <c r="W114" s="280"/>
-      <c r="X114" s="280"/>
-      <c r="Y114" s="280"/>
-      <c r="Z114" s="280"/>
-      <c r="AA114" s="280"/>
-      <c r="AB114" s="280"/>
-      <c r="AC114" s="280"/>
-      <c r="AD114" s="280"/>
-      <c r="AE114" s="281"/>
-      <c r="AF114" s="279" t="s">
+      <c r="V114" s="288"/>
+      <c r="W114" s="288"/>
+      <c r="X114" s="288"/>
+      <c r="Y114" s="288"/>
+      <c r="Z114" s="288"/>
+      <c r="AA114" s="288"/>
+      <c r="AB114" s="288"/>
+      <c r="AC114" s="288"/>
+      <c r="AD114" s="288"/>
+      <c r="AE114" s="289"/>
+      <c r="AF114" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG114" s="280"/>
-      <c r="AH114" s="280"/>
-      <c r="AI114" s="280"/>
-      <c r="AJ114" s="280"/>
-      <c r="AK114" s="280"/>
-      <c r="AL114" s="280"/>
-      <c r="AM114" s="280"/>
-      <c r="AN114" s="280"/>
-      <c r="AO114" s="280"/>
-      <c r="AP114" s="281"/>
+      <c r="AG114" s="288"/>
+      <c r="AH114" s="288"/>
+      <c r="AI114" s="288"/>
+      <c r="AJ114" s="288"/>
+      <c r="AK114" s="288"/>
+      <c r="AL114" s="288"/>
+      <c r="AM114" s="288"/>
+      <c r="AN114" s="288"/>
+      <c r="AO114" s="288"/>
+      <c r="AP114" s="289"/>
     </row>
     <row r="115" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A115" s="106"/>
@@ -29021,50 +29106,50 @@
         <f t="shared" si="8"/>
         <v>RTFテンプレート</v>
       </c>
-      <c r="E131" s="259" t="s">
+      <c r="E131" s="281" t="s">
         <v>373</v>
       </c>
-      <c r="F131" s="260"/>
-      <c r="G131" s="260"/>
-      <c r="H131" s="260"/>
-      <c r="I131" s="260"/>
-      <c r="J131" s="260"/>
-      <c r="K131" s="260"/>
-      <c r="L131" s="260"/>
-      <c r="M131" s="260"/>
-      <c r="N131" s="260"/>
-      <c r="O131" s="260"/>
-      <c r="P131" s="260"/>
-      <c r="Q131" s="260"/>
-      <c r="R131" s="260"/>
-      <c r="S131" s="260"/>
-      <c r="T131" s="261"/>
-      <c r="U131" s="279" t="s">
+      <c r="F131" s="282"/>
+      <c r="G131" s="282"/>
+      <c r="H131" s="282"/>
+      <c r="I131" s="282"/>
+      <c r="J131" s="282"/>
+      <c r="K131" s="282"/>
+      <c r="L131" s="282"/>
+      <c r="M131" s="282"/>
+      <c r="N131" s="282"/>
+      <c r="O131" s="282"/>
+      <c r="P131" s="282"/>
+      <c r="Q131" s="282"/>
+      <c r="R131" s="282"/>
+      <c r="S131" s="282"/>
+      <c r="T131" s="283"/>
+      <c r="U131" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V131" s="280"/>
-      <c r="W131" s="280"/>
-      <c r="X131" s="280"/>
-      <c r="Y131" s="280"/>
-      <c r="Z131" s="280"/>
-      <c r="AA131" s="280"/>
-      <c r="AB131" s="280"/>
-      <c r="AC131" s="280"/>
-      <c r="AD131" s="280"/>
-      <c r="AE131" s="281"/>
-      <c r="AF131" s="279" t="s">
+      <c r="V131" s="288"/>
+      <c r="W131" s="288"/>
+      <c r="X131" s="288"/>
+      <c r="Y131" s="288"/>
+      <c r="Z131" s="288"/>
+      <c r="AA131" s="288"/>
+      <c r="AB131" s="288"/>
+      <c r="AC131" s="288"/>
+      <c r="AD131" s="288"/>
+      <c r="AE131" s="289"/>
+      <c r="AF131" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG131" s="280"/>
-      <c r="AH131" s="280"/>
-      <c r="AI131" s="280"/>
-      <c r="AJ131" s="280"/>
-      <c r="AK131" s="280"/>
-      <c r="AL131" s="280"/>
-      <c r="AM131" s="280"/>
-      <c r="AN131" s="280"/>
-      <c r="AO131" s="280"/>
-      <c r="AP131" s="281"/>
+      <c r="AG131" s="288"/>
+      <c r="AH131" s="288"/>
+      <c r="AI131" s="288"/>
+      <c r="AJ131" s="288"/>
+      <c r="AK131" s="288"/>
+      <c r="AL131" s="288"/>
+      <c r="AM131" s="288"/>
+      <c r="AN131" s="288"/>
+      <c r="AO131" s="288"/>
+      <c r="AP131" s="289"/>
     </row>
     <row r="132" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A132" s="106"/>
@@ -29283,50 +29368,50 @@
         <f t="shared" si="8"/>
         <v>XPTテンプレート</v>
       </c>
-      <c r="E136" s="259" t="s">
+      <c r="E136" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F136" s="260"/>
-      <c r="G136" s="260"/>
-      <c r="H136" s="260"/>
-      <c r="I136" s="260"/>
-      <c r="J136" s="260"/>
-      <c r="K136" s="260"/>
-      <c r="L136" s="260"/>
-      <c r="M136" s="260"/>
-      <c r="N136" s="260"/>
-      <c r="O136" s="260"/>
-      <c r="P136" s="260"/>
-      <c r="Q136" s="260"/>
-      <c r="R136" s="260"/>
-      <c r="S136" s="260"/>
-      <c r="T136" s="261"/>
-      <c r="U136" s="279" t="s">
+      <c r="F136" s="282"/>
+      <c r="G136" s="282"/>
+      <c r="H136" s="282"/>
+      <c r="I136" s="282"/>
+      <c r="J136" s="282"/>
+      <c r="K136" s="282"/>
+      <c r="L136" s="282"/>
+      <c r="M136" s="282"/>
+      <c r="N136" s="282"/>
+      <c r="O136" s="282"/>
+      <c r="P136" s="282"/>
+      <c r="Q136" s="282"/>
+      <c r="R136" s="282"/>
+      <c r="S136" s="282"/>
+      <c r="T136" s="283"/>
+      <c r="U136" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V136" s="280"/>
-      <c r="W136" s="280"/>
-      <c r="X136" s="280"/>
-      <c r="Y136" s="280"/>
-      <c r="Z136" s="280"/>
-      <c r="AA136" s="280"/>
-      <c r="AB136" s="280"/>
-      <c r="AC136" s="280"/>
-      <c r="AD136" s="280"/>
-      <c r="AE136" s="281"/>
-      <c r="AF136" s="279" t="s">
+      <c r="V136" s="288"/>
+      <c r="W136" s="288"/>
+      <c r="X136" s="288"/>
+      <c r="Y136" s="288"/>
+      <c r="Z136" s="288"/>
+      <c r="AA136" s="288"/>
+      <c r="AB136" s="288"/>
+      <c r="AC136" s="288"/>
+      <c r="AD136" s="288"/>
+      <c r="AE136" s="289"/>
+      <c r="AF136" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG136" s="280"/>
-      <c r="AH136" s="280"/>
-      <c r="AI136" s="280"/>
-      <c r="AJ136" s="280"/>
-      <c r="AK136" s="280"/>
-      <c r="AL136" s="280"/>
-      <c r="AM136" s="280"/>
-      <c r="AN136" s="280"/>
-      <c r="AO136" s="280"/>
-      <c r="AP136" s="281"/>
+      <c r="AG136" s="288"/>
+      <c r="AH136" s="288"/>
+      <c r="AI136" s="288"/>
+      <c r="AJ136" s="288"/>
+      <c r="AK136" s="288"/>
+      <c r="AL136" s="288"/>
+      <c r="AM136" s="288"/>
+      <c r="AN136" s="288"/>
+      <c r="AO136" s="288"/>
+      <c r="AP136" s="289"/>
     </row>
     <row r="137" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A137" s="106"/>
@@ -29545,50 +29630,50 @@
         <f t="shared" si="8"/>
         <v>PDFフォーム・テンプレート</v>
       </c>
-      <c r="E141" s="259" t="s">
+      <c r="E141" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F141" s="260"/>
-      <c r="G141" s="260"/>
-      <c r="H141" s="260"/>
-      <c r="I141" s="260"/>
-      <c r="J141" s="260"/>
-      <c r="K141" s="260"/>
-      <c r="L141" s="260"/>
-      <c r="M141" s="260"/>
-      <c r="N141" s="260"/>
-      <c r="O141" s="260"/>
-      <c r="P141" s="260"/>
-      <c r="Q141" s="260"/>
-      <c r="R141" s="260"/>
-      <c r="S141" s="260"/>
-      <c r="T141" s="261"/>
-      <c r="U141" s="279" t="s">
+      <c r="F141" s="282"/>
+      <c r="G141" s="282"/>
+      <c r="H141" s="282"/>
+      <c r="I141" s="282"/>
+      <c r="J141" s="282"/>
+      <c r="K141" s="282"/>
+      <c r="L141" s="282"/>
+      <c r="M141" s="282"/>
+      <c r="N141" s="282"/>
+      <c r="O141" s="282"/>
+      <c r="P141" s="282"/>
+      <c r="Q141" s="282"/>
+      <c r="R141" s="282"/>
+      <c r="S141" s="282"/>
+      <c r="T141" s="283"/>
+      <c r="U141" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V141" s="280"/>
-      <c r="W141" s="280"/>
-      <c r="X141" s="280"/>
-      <c r="Y141" s="280"/>
-      <c r="Z141" s="280"/>
-      <c r="AA141" s="280"/>
-      <c r="AB141" s="280"/>
-      <c r="AC141" s="280"/>
-      <c r="AD141" s="280"/>
-      <c r="AE141" s="281"/>
-      <c r="AF141" s="279" t="s">
+      <c r="V141" s="288"/>
+      <c r="W141" s="288"/>
+      <c r="X141" s="288"/>
+      <c r="Y141" s="288"/>
+      <c r="Z141" s="288"/>
+      <c r="AA141" s="288"/>
+      <c r="AB141" s="288"/>
+      <c r="AC141" s="288"/>
+      <c r="AD141" s="288"/>
+      <c r="AE141" s="289"/>
+      <c r="AF141" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG141" s="280"/>
-      <c r="AH141" s="280"/>
-      <c r="AI141" s="280"/>
-      <c r="AJ141" s="280"/>
-      <c r="AK141" s="280"/>
-      <c r="AL141" s="280"/>
-      <c r="AM141" s="280"/>
-      <c r="AN141" s="280"/>
-      <c r="AO141" s="280"/>
-      <c r="AP141" s="281"/>
+      <c r="AG141" s="288"/>
+      <c r="AH141" s="288"/>
+      <c r="AI141" s="288"/>
+      <c r="AJ141" s="288"/>
+      <c r="AK141" s="288"/>
+      <c r="AL141" s="288"/>
+      <c r="AM141" s="288"/>
+      <c r="AN141" s="288"/>
+      <c r="AO141" s="288"/>
+      <c r="AP141" s="289"/>
     </row>
     <row r="142" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A142" s="106"/>
@@ -29807,50 +29892,50 @@
         <f t="shared" si="9"/>
         <v>Excelテンプレート</v>
       </c>
-      <c r="E146" s="259" t="s">
+      <c r="E146" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F146" s="260"/>
-      <c r="G146" s="260"/>
-      <c r="H146" s="260"/>
-      <c r="I146" s="260"/>
-      <c r="J146" s="260"/>
-      <c r="K146" s="260"/>
-      <c r="L146" s="260"/>
-      <c r="M146" s="260"/>
-      <c r="N146" s="260"/>
-      <c r="O146" s="260"/>
-      <c r="P146" s="260"/>
-      <c r="Q146" s="260"/>
-      <c r="R146" s="260"/>
-      <c r="S146" s="260"/>
-      <c r="T146" s="261"/>
-      <c r="U146" s="279" t="s">
+      <c r="F146" s="282"/>
+      <c r="G146" s="282"/>
+      <c r="H146" s="282"/>
+      <c r="I146" s="282"/>
+      <c r="J146" s="282"/>
+      <c r="K146" s="282"/>
+      <c r="L146" s="282"/>
+      <c r="M146" s="282"/>
+      <c r="N146" s="282"/>
+      <c r="O146" s="282"/>
+      <c r="P146" s="282"/>
+      <c r="Q146" s="282"/>
+      <c r="R146" s="282"/>
+      <c r="S146" s="282"/>
+      <c r="T146" s="283"/>
+      <c r="U146" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V146" s="280"/>
-      <c r="W146" s="280"/>
-      <c r="X146" s="280"/>
-      <c r="Y146" s="280"/>
-      <c r="Z146" s="280"/>
-      <c r="AA146" s="280"/>
-      <c r="AB146" s="280"/>
-      <c r="AC146" s="280"/>
-      <c r="AD146" s="280"/>
-      <c r="AE146" s="281"/>
-      <c r="AF146" s="279" t="s">
+      <c r="V146" s="288"/>
+      <c r="W146" s="288"/>
+      <c r="X146" s="288"/>
+      <c r="Y146" s="288"/>
+      <c r="Z146" s="288"/>
+      <c r="AA146" s="288"/>
+      <c r="AB146" s="288"/>
+      <c r="AC146" s="288"/>
+      <c r="AD146" s="288"/>
+      <c r="AE146" s="289"/>
+      <c r="AF146" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG146" s="280"/>
-      <c r="AH146" s="280"/>
-      <c r="AI146" s="280"/>
-      <c r="AJ146" s="280"/>
-      <c r="AK146" s="280"/>
-      <c r="AL146" s="280"/>
-      <c r="AM146" s="280"/>
-      <c r="AN146" s="280"/>
-      <c r="AO146" s="280"/>
-      <c r="AP146" s="281"/>
+      <c r="AG146" s="288"/>
+      <c r="AH146" s="288"/>
+      <c r="AI146" s="288"/>
+      <c r="AJ146" s="288"/>
+      <c r="AK146" s="288"/>
+      <c r="AL146" s="288"/>
+      <c r="AM146" s="288"/>
+      <c r="AN146" s="288"/>
+      <c r="AO146" s="288"/>
+      <c r="AP146" s="289"/>
     </row>
     <row r="147" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A147" s="106"/>
@@ -29963,50 +30048,50 @@
         <f t="shared" si="9"/>
         <v>Flash</v>
       </c>
-      <c r="E149" s="259" t="s">
+      <c r="E149" s="281" t="s">
         <v>373</v>
       </c>
-      <c r="F149" s="260"/>
-      <c r="G149" s="260"/>
-      <c r="H149" s="260"/>
-      <c r="I149" s="260"/>
-      <c r="J149" s="260"/>
-      <c r="K149" s="260"/>
-      <c r="L149" s="260"/>
-      <c r="M149" s="260"/>
-      <c r="N149" s="260"/>
-      <c r="O149" s="260"/>
-      <c r="P149" s="260"/>
-      <c r="Q149" s="260"/>
-      <c r="R149" s="260"/>
-      <c r="S149" s="260"/>
-      <c r="T149" s="261"/>
-      <c r="U149" s="279" t="s">
+      <c r="F149" s="282"/>
+      <c r="G149" s="282"/>
+      <c r="H149" s="282"/>
+      <c r="I149" s="282"/>
+      <c r="J149" s="282"/>
+      <c r="K149" s="282"/>
+      <c r="L149" s="282"/>
+      <c r="M149" s="282"/>
+      <c r="N149" s="282"/>
+      <c r="O149" s="282"/>
+      <c r="P149" s="282"/>
+      <c r="Q149" s="282"/>
+      <c r="R149" s="282"/>
+      <c r="S149" s="282"/>
+      <c r="T149" s="283"/>
+      <c r="U149" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V149" s="280"/>
-      <c r="W149" s="280"/>
-      <c r="X149" s="280"/>
-      <c r="Y149" s="280"/>
-      <c r="Z149" s="280"/>
-      <c r="AA149" s="280"/>
-      <c r="AB149" s="280"/>
-      <c r="AC149" s="280"/>
-      <c r="AD149" s="280"/>
-      <c r="AE149" s="281"/>
-      <c r="AF149" s="279" t="s">
+      <c r="V149" s="288"/>
+      <c r="W149" s="288"/>
+      <c r="X149" s="288"/>
+      <c r="Y149" s="288"/>
+      <c r="Z149" s="288"/>
+      <c r="AA149" s="288"/>
+      <c r="AB149" s="288"/>
+      <c r="AC149" s="288"/>
+      <c r="AD149" s="288"/>
+      <c r="AE149" s="289"/>
+      <c r="AF149" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG149" s="280"/>
-      <c r="AH149" s="280"/>
-      <c r="AI149" s="280"/>
-      <c r="AJ149" s="280"/>
-      <c r="AK149" s="280"/>
-      <c r="AL149" s="280"/>
-      <c r="AM149" s="280"/>
-      <c r="AN149" s="280"/>
-      <c r="AO149" s="280"/>
-      <c r="AP149" s="281"/>
+      <c r="AG149" s="288"/>
+      <c r="AH149" s="288"/>
+      <c r="AI149" s="288"/>
+      <c r="AJ149" s="288"/>
+      <c r="AK149" s="288"/>
+      <c r="AL149" s="288"/>
+      <c r="AM149" s="288"/>
+      <c r="AN149" s="288"/>
+      <c r="AO149" s="288"/>
+      <c r="AP149" s="289"/>
     </row>
     <row r="150" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A150" s="106"/>
@@ -30384,50 +30469,50 @@
         <f t="shared" si="9"/>
         <v>CSV出力</v>
       </c>
-      <c r="E157" s="259" t="s">
+      <c r="E157" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F157" s="260"/>
-      <c r="G157" s="260"/>
-      <c r="H157" s="260"/>
-      <c r="I157" s="260"/>
-      <c r="J157" s="260"/>
-      <c r="K157" s="260"/>
-      <c r="L157" s="260"/>
-      <c r="M157" s="260"/>
-      <c r="N157" s="260"/>
-      <c r="O157" s="260"/>
-      <c r="P157" s="260"/>
-      <c r="Q157" s="260"/>
-      <c r="R157" s="260"/>
-      <c r="S157" s="260"/>
-      <c r="T157" s="261"/>
-      <c r="U157" s="279" t="s">
+      <c r="F157" s="282"/>
+      <c r="G157" s="282"/>
+      <c r="H157" s="282"/>
+      <c r="I157" s="282"/>
+      <c r="J157" s="282"/>
+      <c r="K157" s="282"/>
+      <c r="L157" s="282"/>
+      <c r="M157" s="282"/>
+      <c r="N157" s="282"/>
+      <c r="O157" s="282"/>
+      <c r="P157" s="282"/>
+      <c r="Q157" s="282"/>
+      <c r="R157" s="282"/>
+      <c r="S157" s="282"/>
+      <c r="T157" s="283"/>
+      <c r="U157" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V157" s="280"/>
-      <c r="W157" s="280"/>
-      <c r="X157" s="280"/>
-      <c r="Y157" s="280"/>
-      <c r="Z157" s="280"/>
-      <c r="AA157" s="280"/>
-      <c r="AB157" s="280"/>
-      <c r="AC157" s="280"/>
-      <c r="AD157" s="280"/>
-      <c r="AE157" s="281"/>
-      <c r="AF157" s="279" t="s">
+      <c r="V157" s="288"/>
+      <c r="W157" s="288"/>
+      <c r="X157" s="288"/>
+      <c r="Y157" s="288"/>
+      <c r="Z157" s="288"/>
+      <c r="AA157" s="288"/>
+      <c r="AB157" s="288"/>
+      <c r="AC157" s="288"/>
+      <c r="AD157" s="288"/>
+      <c r="AE157" s="289"/>
+      <c r="AF157" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG157" s="280"/>
-      <c r="AH157" s="280"/>
-      <c r="AI157" s="280"/>
-      <c r="AJ157" s="280"/>
-      <c r="AK157" s="280"/>
-      <c r="AL157" s="280"/>
-      <c r="AM157" s="280"/>
-      <c r="AN157" s="280"/>
-      <c r="AO157" s="280"/>
-      <c r="AP157" s="281"/>
+      <c r="AG157" s="288"/>
+      <c r="AH157" s="288"/>
+      <c r="AI157" s="288"/>
+      <c r="AJ157" s="288"/>
+      <c r="AK157" s="288"/>
+      <c r="AL157" s="288"/>
+      <c r="AM157" s="288"/>
+      <c r="AN157" s="288"/>
+      <c r="AO157" s="288"/>
+      <c r="AP157" s="289"/>
     </row>
     <row r="158" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A158" s="106"/>
@@ -30646,50 +30731,50 @@
         <f t="shared" si="10"/>
         <v>EXCEL 2007の出力</v>
       </c>
-      <c r="E162" s="259" t="s">
+      <c r="E162" s="281" t="s">
         <v>373</v>
       </c>
-      <c r="F162" s="260"/>
-      <c r="G162" s="260"/>
-      <c r="H162" s="260"/>
-      <c r="I162" s="260"/>
-      <c r="J162" s="260"/>
-      <c r="K162" s="260"/>
-      <c r="L162" s="260"/>
-      <c r="M162" s="260"/>
-      <c r="N162" s="260"/>
-      <c r="O162" s="260"/>
-      <c r="P162" s="260"/>
-      <c r="Q162" s="260"/>
-      <c r="R162" s="260"/>
-      <c r="S162" s="260"/>
-      <c r="T162" s="261"/>
-      <c r="U162" s="279" t="s">
+      <c r="F162" s="282"/>
+      <c r="G162" s="282"/>
+      <c r="H162" s="282"/>
+      <c r="I162" s="282"/>
+      <c r="J162" s="282"/>
+      <c r="K162" s="282"/>
+      <c r="L162" s="282"/>
+      <c r="M162" s="282"/>
+      <c r="N162" s="282"/>
+      <c r="O162" s="282"/>
+      <c r="P162" s="282"/>
+      <c r="Q162" s="282"/>
+      <c r="R162" s="282"/>
+      <c r="S162" s="282"/>
+      <c r="T162" s="283"/>
+      <c r="U162" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V162" s="280"/>
-      <c r="W162" s="280"/>
-      <c r="X162" s="280"/>
-      <c r="Y162" s="280"/>
-      <c r="Z162" s="280"/>
-      <c r="AA162" s="280"/>
-      <c r="AB162" s="280"/>
-      <c r="AC162" s="280"/>
-      <c r="AD162" s="280"/>
-      <c r="AE162" s="281"/>
-      <c r="AF162" s="279" t="s">
+      <c r="V162" s="288"/>
+      <c r="W162" s="288"/>
+      <c r="X162" s="288"/>
+      <c r="Y162" s="288"/>
+      <c r="Z162" s="288"/>
+      <c r="AA162" s="288"/>
+      <c r="AB162" s="288"/>
+      <c r="AC162" s="288"/>
+      <c r="AD162" s="288"/>
+      <c r="AE162" s="289"/>
+      <c r="AF162" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG162" s="280"/>
-      <c r="AH162" s="280"/>
-      <c r="AI162" s="280"/>
-      <c r="AJ162" s="280"/>
-      <c r="AK162" s="280"/>
-      <c r="AL162" s="280"/>
-      <c r="AM162" s="280"/>
-      <c r="AN162" s="280"/>
-      <c r="AO162" s="280"/>
-      <c r="AP162" s="281"/>
+      <c r="AG162" s="288"/>
+      <c r="AH162" s="288"/>
+      <c r="AI162" s="288"/>
+      <c r="AJ162" s="288"/>
+      <c r="AK162" s="288"/>
+      <c r="AL162" s="288"/>
+      <c r="AM162" s="288"/>
+      <c r="AN162" s="288"/>
+      <c r="AO162" s="288"/>
+      <c r="AP162" s="289"/>
     </row>
     <row r="163" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A163" s="106"/>
@@ -31224,50 +31309,50 @@
         <f t="shared" si="10"/>
         <v>eText出力</v>
       </c>
-      <c r="E173" s="259" t="s">
+      <c r="E173" s="281" t="s">
         <v>373</v>
       </c>
-      <c r="F173" s="260"/>
-      <c r="G173" s="260"/>
-      <c r="H173" s="260"/>
-      <c r="I173" s="260"/>
-      <c r="J173" s="260"/>
-      <c r="K173" s="260"/>
-      <c r="L173" s="260"/>
-      <c r="M173" s="260"/>
-      <c r="N173" s="260"/>
-      <c r="O173" s="260"/>
-      <c r="P173" s="260"/>
-      <c r="Q173" s="260"/>
-      <c r="R173" s="260"/>
-      <c r="S173" s="260"/>
-      <c r="T173" s="261"/>
-      <c r="U173" s="279" t="s">
+      <c r="F173" s="282"/>
+      <c r="G173" s="282"/>
+      <c r="H173" s="282"/>
+      <c r="I173" s="282"/>
+      <c r="J173" s="282"/>
+      <c r="K173" s="282"/>
+      <c r="L173" s="282"/>
+      <c r="M173" s="282"/>
+      <c r="N173" s="282"/>
+      <c r="O173" s="282"/>
+      <c r="P173" s="282"/>
+      <c r="Q173" s="282"/>
+      <c r="R173" s="282"/>
+      <c r="S173" s="282"/>
+      <c r="T173" s="283"/>
+      <c r="U173" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V173" s="280"/>
-      <c r="W173" s="280"/>
-      <c r="X173" s="280"/>
-      <c r="Y173" s="280"/>
-      <c r="Z173" s="280"/>
-      <c r="AA173" s="280"/>
-      <c r="AB173" s="280"/>
-      <c r="AC173" s="280"/>
-      <c r="AD173" s="280"/>
-      <c r="AE173" s="281"/>
-      <c r="AF173" s="279" t="s">
+      <c r="V173" s="288"/>
+      <c r="W173" s="288"/>
+      <c r="X173" s="288"/>
+      <c r="Y173" s="288"/>
+      <c r="Z173" s="288"/>
+      <c r="AA173" s="288"/>
+      <c r="AB173" s="288"/>
+      <c r="AC173" s="288"/>
+      <c r="AD173" s="288"/>
+      <c r="AE173" s="289"/>
+      <c r="AF173" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG173" s="280"/>
-      <c r="AH173" s="280"/>
-      <c r="AI173" s="280"/>
-      <c r="AJ173" s="280"/>
-      <c r="AK173" s="280"/>
-      <c r="AL173" s="280"/>
-      <c r="AM173" s="280"/>
-      <c r="AN173" s="280"/>
-      <c r="AO173" s="280"/>
-      <c r="AP173" s="281"/>
+      <c r="AG173" s="288"/>
+      <c r="AH173" s="288"/>
+      <c r="AI173" s="288"/>
+      <c r="AJ173" s="288"/>
+      <c r="AK173" s="288"/>
+      <c r="AL173" s="288"/>
+      <c r="AM173" s="288"/>
+      <c r="AN173" s="288"/>
+      <c r="AO173" s="288"/>
+      <c r="AP173" s="289"/>
     </row>
     <row r="174" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A174" s="106"/>
@@ -31433,50 +31518,50 @@
         <f t="shared" si="11"/>
         <v>すべての出力</v>
       </c>
-      <c r="E177" s="259" t="s">
+      <c r="E177" s="281" t="s">
         <v>269</v>
       </c>
-      <c r="F177" s="260"/>
-      <c r="G177" s="260"/>
-      <c r="H177" s="260"/>
-      <c r="I177" s="260"/>
-      <c r="J177" s="260"/>
-      <c r="K177" s="260"/>
-      <c r="L177" s="260"/>
-      <c r="M177" s="260"/>
-      <c r="N177" s="260"/>
-      <c r="O177" s="260"/>
-      <c r="P177" s="260"/>
-      <c r="Q177" s="260"/>
-      <c r="R177" s="260"/>
-      <c r="S177" s="260"/>
-      <c r="T177" s="261"/>
-      <c r="U177" s="279" t="s">
+      <c r="F177" s="282"/>
+      <c r="G177" s="282"/>
+      <c r="H177" s="282"/>
+      <c r="I177" s="282"/>
+      <c r="J177" s="282"/>
+      <c r="K177" s="282"/>
+      <c r="L177" s="282"/>
+      <c r="M177" s="282"/>
+      <c r="N177" s="282"/>
+      <c r="O177" s="282"/>
+      <c r="P177" s="282"/>
+      <c r="Q177" s="282"/>
+      <c r="R177" s="282"/>
+      <c r="S177" s="282"/>
+      <c r="T177" s="283"/>
+      <c r="U177" s="287" t="s">
         <v>270</v>
       </c>
-      <c r="V177" s="280"/>
-      <c r="W177" s="280"/>
-      <c r="X177" s="280"/>
-      <c r="Y177" s="280"/>
-      <c r="Z177" s="280"/>
-      <c r="AA177" s="280"/>
-      <c r="AB177" s="280"/>
-      <c r="AC177" s="280"/>
-      <c r="AD177" s="280"/>
-      <c r="AE177" s="281"/>
-      <c r="AF177" s="279" t="s">
+      <c r="V177" s="288"/>
+      <c r="W177" s="288"/>
+      <c r="X177" s="288"/>
+      <c r="Y177" s="288"/>
+      <c r="Z177" s="288"/>
+      <c r="AA177" s="288"/>
+      <c r="AB177" s="288"/>
+      <c r="AC177" s="288"/>
+      <c r="AD177" s="288"/>
+      <c r="AE177" s="289"/>
+      <c r="AF177" s="287" t="s">
         <v>221</v>
       </c>
-      <c r="AG177" s="280"/>
-      <c r="AH177" s="280"/>
-      <c r="AI177" s="280"/>
-      <c r="AJ177" s="280"/>
-      <c r="AK177" s="280"/>
-      <c r="AL177" s="280"/>
-      <c r="AM177" s="280"/>
-      <c r="AN177" s="280"/>
-      <c r="AO177" s="280"/>
-      <c r="AP177" s="281"/>
+      <c r="AG177" s="288"/>
+      <c r="AH177" s="288"/>
+      <c r="AI177" s="288"/>
+      <c r="AJ177" s="288"/>
+      <c r="AK177" s="288"/>
+      <c r="AL177" s="288"/>
+      <c r="AM177" s="288"/>
+      <c r="AN177" s="288"/>
+      <c r="AO177" s="288"/>
+      <c r="AP177" s="289"/>
     </row>
     <row r="178" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A178" s="106"/>
@@ -31772,45 +31857,45 @@
         <f t="shared" si="12"/>
         <v>RTFテンプレート</v>
       </c>
-      <c r="E185" s="265" t="s">
+      <c r="E185" s="278" t="s">
         <v>429</v>
       </c>
-      <c r="F185" s="267"/>
-      <c r="G185" s="267"/>
-      <c r="H185" s="267"/>
-      <c r="I185" s="267"/>
-      <c r="J185" s="266"/>
-      <c r="K185" s="265" t="s">
+      <c r="F185" s="279"/>
+      <c r="G185" s="279"/>
+      <c r="H185" s="279"/>
+      <c r="I185" s="279"/>
+      <c r="J185" s="280"/>
+      <c r="K185" s="278" t="s">
         <v>430</v>
       </c>
-      <c r="L185" s="267"/>
-      <c r="M185" s="266"/>
-      <c r="N185" s="265" t="s">
+      <c r="L185" s="279"/>
+      <c r="M185" s="280"/>
+      <c r="N185" s="278" t="s">
         <v>431</v>
       </c>
-      <c r="O185" s="266"/>
-      <c r="P185" s="265" t="s">
+      <c r="O185" s="280"/>
+      <c r="P185" s="278" t="s">
         <v>432</v>
       </c>
-      <c r="Q185" s="267"/>
-      <c r="R185" s="267"/>
-      <c r="S185" s="267"/>
-      <c r="T185" s="267"/>
-      <c r="U185" s="267"/>
-      <c r="V185" s="266"/>
-      <c r="W185" s="265" t="s">
+      <c r="Q185" s="279"/>
+      <c r="R185" s="279"/>
+      <c r="S185" s="279"/>
+      <c r="T185" s="279"/>
+      <c r="U185" s="279"/>
+      <c r="V185" s="280"/>
+      <c r="W185" s="278" t="s">
         <v>433</v>
       </c>
-      <c r="X185" s="267"/>
-      <c r="Y185" s="267"/>
-      <c r="Z185" s="267"/>
-      <c r="AA185" s="266"/>
-      <c r="AB185" s="265" t="s">
+      <c r="X185" s="279"/>
+      <c r="Y185" s="279"/>
+      <c r="Z185" s="279"/>
+      <c r="AA185" s="280"/>
+      <c r="AB185" s="278" t="s">
         <v>434</v>
       </c>
-      <c r="AC185" s="267"/>
-      <c r="AD185" s="267"/>
-      <c r="AE185" s="266"/>
+      <c r="AC185" s="279"/>
+      <c r="AD185" s="279"/>
+      <c r="AE185" s="280"/>
     </row>
     <row r="186" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A186" s="106"/>
@@ -32051,41 +32136,41 @@
         <f t="shared" si="12"/>
         <v>PDFテンプレート</v>
       </c>
-      <c r="E191" s="265" t="s">
+      <c r="E191" s="278" t="s">
         <v>429</v>
       </c>
-      <c r="F191" s="267"/>
-      <c r="G191" s="267"/>
-      <c r="H191" s="267"/>
-      <c r="I191" s="267"/>
-      <c r="J191" s="266"/>
-      <c r="K191" s="265" t="s">
+      <c r="F191" s="279"/>
+      <c r="G191" s="279"/>
+      <c r="H191" s="279"/>
+      <c r="I191" s="279"/>
+      <c r="J191" s="280"/>
+      <c r="K191" s="278" t="s">
         <v>432</v>
       </c>
-      <c r="L191" s="267"/>
-      <c r="M191" s="267"/>
-      <c r="N191" s="267"/>
-      <c r="O191" s="267"/>
-      <c r="P191" s="267"/>
-      <c r="Q191" s="267"/>
-      <c r="R191" s="267"/>
-      <c r="S191" s="267"/>
-      <c r="T191" s="267"/>
-      <c r="U191" s="267"/>
-      <c r="V191" s="266"/>
-      <c r="W191" s="265" t="s">
+      <c r="L191" s="279"/>
+      <c r="M191" s="279"/>
+      <c r="N191" s="279"/>
+      <c r="O191" s="279"/>
+      <c r="P191" s="279"/>
+      <c r="Q191" s="279"/>
+      <c r="R191" s="279"/>
+      <c r="S191" s="279"/>
+      <c r="T191" s="279"/>
+      <c r="U191" s="279"/>
+      <c r="V191" s="280"/>
+      <c r="W191" s="278" t="s">
         <v>433</v>
       </c>
-      <c r="X191" s="267"/>
-      <c r="Y191" s="267"/>
-      <c r="Z191" s="267"/>
-      <c r="AA191" s="266"/>
-      <c r="AB191" s="265" t="s">
+      <c r="X191" s="279"/>
+      <c r="Y191" s="279"/>
+      <c r="Z191" s="279"/>
+      <c r="AA191" s="280"/>
+      <c r="AB191" s="278" t="s">
         <v>434</v>
       </c>
-      <c r="AC191" s="267"/>
-      <c r="AD191" s="267"/>
-      <c r="AE191" s="266"/>
+      <c r="AC191" s="279"/>
+      <c r="AD191" s="279"/>
+      <c r="AE191" s="280"/>
     </row>
     <row r="192" spans="1:42" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A192" s="106"/>
@@ -32168,38 +32253,38 @@
         <f t="shared" ref="C195:C196" si="13">C194</f>
         <v>通貨書式</v>
       </c>
-      <c r="D195" s="265" t="s">
+      <c r="D195" s="278" t="s">
         <v>446</v>
       </c>
-      <c r="E195" s="267"/>
-      <c r="F195" s="267"/>
-      <c r="G195" s="267"/>
-      <c r="H195" s="267"/>
-      <c r="I195" s="266"/>
-      <c r="J195" s="265" t="s">
+      <c r="E195" s="279"/>
+      <c r="F195" s="279"/>
+      <c r="G195" s="279"/>
+      <c r="H195" s="279"/>
+      <c r="I195" s="280"/>
+      <c r="J195" s="278" t="s">
         <v>447</v>
       </c>
-      <c r="K195" s="267"/>
-      <c r="L195" s="267"/>
-      <c r="M195" s="267"/>
-      <c r="N195" s="267"/>
-      <c r="O195" s="267"/>
-      <c r="P195" s="267"/>
-      <c r="Q195" s="267"/>
-      <c r="R195" s="267"/>
-      <c r="S195" s="267"/>
-      <c r="T195" s="267"/>
-      <c r="U195" s="267"/>
-      <c r="V195" s="267"/>
-      <c r="W195" s="267"/>
-      <c r="X195" s="267"/>
-      <c r="Y195" s="267"/>
-      <c r="Z195" s="267"/>
-      <c r="AA195" s="267"/>
-      <c r="AB195" s="267"/>
-      <c r="AC195" s="267"/>
-      <c r="AD195" s="267"/>
-      <c r="AE195" s="266"/>
+      <c r="K195" s="279"/>
+      <c r="L195" s="279"/>
+      <c r="M195" s="279"/>
+      <c r="N195" s="279"/>
+      <c r="O195" s="279"/>
+      <c r="P195" s="279"/>
+      <c r="Q195" s="279"/>
+      <c r="R195" s="279"/>
+      <c r="S195" s="279"/>
+      <c r="T195" s="279"/>
+      <c r="U195" s="279"/>
+      <c r="V195" s="279"/>
+      <c r="W195" s="279"/>
+      <c r="X195" s="279"/>
+      <c r="Y195" s="279"/>
+      <c r="Z195" s="279"/>
+      <c r="AA195" s="279"/>
+      <c r="AB195" s="279"/>
+      <c r="AC195" s="279"/>
+      <c r="AD195" s="279"/>
+      <c r="AE195" s="280"/>
     </row>
     <row r="196" spans="1:31" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A196" s="106"/>
@@ -32238,12 +32323,62 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="E191:J191"/>
-    <mergeCell ref="K191:V191"/>
-    <mergeCell ref="W191:AA191"/>
-    <mergeCell ref="AB191:AE191"/>
-    <mergeCell ref="D195:I195"/>
-    <mergeCell ref="J195:AE195"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="U6:AE6"/>
+    <mergeCell ref="E17:T17"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="U22:AE22"/>
+    <mergeCell ref="AF31:AP31"/>
+    <mergeCell ref="E52:T52"/>
+    <mergeCell ref="U52:AE52"/>
+    <mergeCell ref="AF52:AP52"/>
+    <mergeCell ref="E61:T61"/>
+    <mergeCell ref="U61:AE61"/>
+    <mergeCell ref="AF61:AP61"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="U31:AE31"/>
+    <mergeCell ref="E65:T65"/>
+    <mergeCell ref="U65:AE65"/>
+    <mergeCell ref="AF65:AP65"/>
+    <mergeCell ref="E74:T74"/>
+    <mergeCell ref="U74:AE74"/>
+    <mergeCell ref="AF74:AP74"/>
+    <mergeCell ref="E81:T81"/>
+    <mergeCell ref="U81:AE81"/>
+    <mergeCell ref="AF81:AP81"/>
+    <mergeCell ref="E87:T87"/>
+    <mergeCell ref="U87:AE87"/>
+    <mergeCell ref="AF87:AP87"/>
+    <mergeCell ref="E93:T93"/>
+    <mergeCell ref="U93:AE93"/>
+    <mergeCell ref="AF93:AP93"/>
+    <mergeCell ref="E97:T97"/>
+    <mergeCell ref="U97:AE97"/>
+    <mergeCell ref="AF97:AP97"/>
+    <mergeCell ref="E114:T114"/>
+    <mergeCell ref="U114:AE114"/>
+    <mergeCell ref="AF114:AP114"/>
+    <mergeCell ref="E131:T131"/>
+    <mergeCell ref="U131:AE131"/>
+    <mergeCell ref="AF131:AP131"/>
+    <mergeCell ref="E136:T136"/>
+    <mergeCell ref="U136:AE136"/>
+    <mergeCell ref="AF136:AP136"/>
+    <mergeCell ref="E141:T141"/>
+    <mergeCell ref="U141:AE141"/>
+    <mergeCell ref="AF141:AP141"/>
+    <mergeCell ref="E146:T146"/>
+    <mergeCell ref="U146:AE146"/>
+    <mergeCell ref="AF146:AP146"/>
+    <mergeCell ref="E149:T149"/>
+    <mergeCell ref="U149:AE149"/>
+    <mergeCell ref="AF149:AP149"/>
+    <mergeCell ref="E157:T157"/>
+    <mergeCell ref="U157:AE157"/>
+    <mergeCell ref="AF157:AP157"/>
+    <mergeCell ref="E162:T162"/>
+    <mergeCell ref="U162:AE162"/>
+    <mergeCell ref="AF162:AP162"/>
     <mergeCell ref="AB185:AE185"/>
     <mergeCell ref="E173:T173"/>
     <mergeCell ref="U173:AE173"/>
@@ -32256,62 +32391,12 @@
     <mergeCell ref="N185:O185"/>
     <mergeCell ref="P185:V185"/>
     <mergeCell ref="W185:AA185"/>
-    <mergeCell ref="E157:T157"/>
-    <mergeCell ref="U157:AE157"/>
-    <mergeCell ref="AF157:AP157"/>
-    <mergeCell ref="E162:T162"/>
-    <mergeCell ref="U162:AE162"/>
-    <mergeCell ref="AF162:AP162"/>
-    <mergeCell ref="E146:T146"/>
-    <mergeCell ref="U146:AE146"/>
-    <mergeCell ref="AF146:AP146"/>
-    <mergeCell ref="E149:T149"/>
-    <mergeCell ref="U149:AE149"/>
-    <mergeCell ref="AF149:AP149"/>
-    <mergeCell ref="E136:T136"/>
-    <mergeCell ref="U136:AE136"/>
-    <mergeCell ref="AF136:AP136"/>
-    <mergeCell ref="E141:T141"/>
-    <mergeCell ref="U141:AE141"/>
-    <mergeCell ref="AF141:AP141"/>
-    <mergeCell ref="E114:T114"/>
-    <mergeCell ref="U114:AE114"/>
-    <mergeCell ref="AF114:AP114"/>
-    <mergeCell ref="E131:T131"/>
-    <mergeCell ref="U131:AE131"/>
-    <mergeCell ref="AF131:AP131"/>
-    <mergeCell ref="E93:T93"/>
-    <mergeCell ref="U93:AE93"/>
-    <mergeCell ref="AF93:AP93"/>
-    <mergeCell ref="E97:T97"/>
-    <mergeCell ref="U97:AE97"/>
-    <mergeCell ref="AF97:AP97"/>
-    <mergeCell ref="E81:T81"/>
-    <mergeCell ref="U81:AE81"/>
-    <mergeCell ref="AF81:AP81"/>
-    <mergeCell ref="E87:T87"/>
-    <mergeCell ref="U87:AE87"/>
-    <mergeCell ref="AF87:AP87"/>
-    <mergeCell ref="E65:T65"/>
-    <mergeCell ref="U65:AE65"/>
-    <mergeCell ref="AF65:AP65"/>
-    <mergeCell ref="E74:T74"/>
-    <mergeCell ref="U74:AE74"/>
-    <mergeCell ref="AF74:AP74"/>
-    <mergeCell ref="AF31:AP31"/>
-    <mergeCell ref="E52:T52"/>
-    <mergeCell ref="U52:AE52"/>
-    <mergeCell ref="AF52:AP52"/>
-    <mergeCell ref="E61:T61"/>
-    <mergeCell ref="U61:AE61"/>
-    <mergeCell ref="AF61:AP61"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="U31:AE31"/>
-    <mergeCell ref="E6:T6"/>
-    <mergeCell ref="U6:AE6"/>
-    <mergeCell ref="E17:T17"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="U22:AE22"/>
+    <mergeCell ref="E191:J191"/>
+    <mergeCell ref="K191:V191"/>
+    <mergeCell ref="W191:AA191"/>
+    <mergeCell ref="AB191:AE191"/>
+    <mergeCell ref="D195:I195"/>
+    <mergeCell ref="J195:AE195"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
